--- a/stats/passing-networks/nwsl-2016/srfc_2016_pass_network.xlsx
+++ b/stats/passing-networks/nwsl-2016/srfc_2016_pass_network.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/wosostats/stats/passing-networks/nwsl-2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1100" windowWidth="24560" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="380" yWindow="1000" windowWidth="24560" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pass network" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="passes per 90 - passer" sheetId="4" r:id="rId4"/>
     <sheet name="passes per 90 - recipient" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -372,187 +372,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -4374,7 +4194,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6597,6 +6417,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:X24">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6604,9 +6427,6 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6618,7 +6438,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6964,7 +6784,7 @@
         <v>0.23468057366362449</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -7717,7 +7537,7 @@
         <v>3.4356846473029048</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -8841,7 +8661,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:X24">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11237,7 +11057,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:X24">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/stats/passing-networks/nwsl-2016/srfc_2016_pass_network.xlsx
+++ b/stats/passing-networks/nwsl-2016/srfc_2016_pass_network.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1000" windowWidth="24560" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1380" yWindow="920" windowWidth="24560" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pass network" sheetId="1" r:id="rId1"/>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4194,7 +4194,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6437,8 +6437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/stats/passing-networks/nwsl-2016/srfc_2016_pass_network.xlsx
+++ b/stats/passing-networks/nwsl-2016/srfc_2016_pass_network.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="24560" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="19720" windowHeight="13360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pass network" sheetId="1" r:id="rId1"/>
     <sheet name="mins network" sheetId="2" r:id="rId2"/>
     <sheet name="passes per 90" sheetId="3" r:id="rId3"/>
-    <sheet name="passes per 90 - passer" sheetId="4" r:id="rId4"/>
-    <sheet name="passes per 90 - recipient" sheetId="6" r:id="rId5"/>
+    <sheet name="passes per 90 - filtered" sheetId="7" r:id="rId4"/>
+    <sheet name="passes per 90 - passer" sheetId="4" r:id="rId5"/>
+    <sheet name="passes per 90 - recipient" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="28">
   <si>
     <t>Barnes</t>
   </si>
@@ -113,15 +114,26 @@
   <si>
     <t>Passer \ Recipient</t>
   </si>
+  <si>
+    <t>Pass Comp Pct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -246,34 +258,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment textRotation="135"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -282,128 +399,9 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -720,7 +718,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2452,7 +2450,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4184,7 +4182,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6448,7 +6446,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:X24">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6466,20 +6464,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="24" width="8.33203125" customWidth="1"/>
+    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="22" width="8.33203125" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="65" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -6550,8 +6559,11 @@
       <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
@@ -6619,7 +6631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -6638,31 +6650,31 @@
         <f>IF('mins network'!E3&gt;270,IFERROR(('pass network'!E3/'mins network'!E3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="15">
         <f>IF('mins network'!F3&gt;270,IFERROR(('pass network'!F3/'mins network'!F3)*90,""),"")</f>
         <v>5.6813627254509012</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="21">
         <f>IF('mins network'!G3&gt;270,IFERROR(('pass network'!G3/'mins network'!G3)*90,""),"")</f>
         <v>4.0785498489425978</v>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" s="21" t="str">
         <f>IF('mins network'!H3&gt;270,IFERROR(('pass network'!H3/'mins network'!H3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="21">
         <f>IF('mins network'!I3&gt;270,IFERROR(('pass network'!I3/'mins network'!I3)*90,""),"")</f>
         <v>7.1242484969939879</v>
       </c>
-      <c r="J3" s="11" t="str">
+      <c r="J3" s="21" t="str">
         <f>IF('mins network'!J3&gt;270,IFERROR(('pass network'!J3/'mins network'!J3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="21">
         <f>IF('mins network'!K3&gt;270,IFERROR(('pass network'!K3/'mins network'!K3)*90,""),"")</f>
         <v>1.171875</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="16">
         <f>IF('mins network'!L3&gt;270,IFERROR(('pass network'!L3/'mins network'!L3)*90,""),"")</f>
         <v>1.2426035502958579</v>
       </c>
@@ -6670,52 +6682,55 @@
         <f>IF('mins network'!M3&gt;270,IFERROR(('pass network'!M3/'mins network'!M3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="15">
         <f>IF('mins network'!N3&gt;270,IFERROR(('pass network'!N3/'mins network'!N3)*90,""),"")</f>
         <v>1.9933554817275749</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="21">
         <f>IF('mins network'!O3&gt;270,IFERROR(('pass network'!O3/'mins network'!O3)*90,""),"")</f>
         <v>0.54490413723511599</v>
       </c>
-      <c r="P3" s="11" t="str">
+      <c r="P3" s="21" t="str">
         <f>IF('mins network'!P3&gt;270,IFERROR(('pass network'!P3/'mins network'!P3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="21">
         <f>IF('mins network'!Q3&gt;270,IFERROR(('pass network'!Q3/'mins network'!Q3)*90,""),"")</f>
         <v>1.1273486430062631</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="16">
         <f>IF('mins network'!R3&gt;270,IFERROR(('pass network'!R3/'mins network'!R3)*90,""),"")</f>
         <v>0.57446808510638292</v>
       </c>
-      <c r="S3" s="11" t="str">
+      <c r="S3" s="15" t="str">
         <f>IF('mins network'!S3&gt;270,IFERROR(('pass network'!S3/'mins network'!S3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="21">
         <f>IF('mins network'!T3&gt;270,IFERROR(('pass network'!T3/'mins network'!T3)*90,""),"")</f>
         <v>0.27950310559006208</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="21">
         <f>IF('mins network'!U3&gt;270,IFERROR(('pass network'!U3/'mins network'!U3)*90,""),"")</f>
         <v>0.39073806078147616</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="21">
         <f>IF('mins network'!V3&gt;270,IFERROR(('pass network'!V3/'mins network'!V3)*90,""),"")</f>
         <v>0.27149321266968329</v>
       </c>
-      <c r="W3" s="11" t="str">
+      <c r="W3" s="21" t="str">
         <f>IF('mins network'!W3&gt;270,IFERROR(('pass network'!W3/'mins network'!W3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="16">
         <f>IF('mins network'!X3&gt;270,IFERROR(('pass network'!X3/'mins network'!X3)*90,""),"")</f>
         <v>0.76086956521739124</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="14">
+        <v>0.76767676767676796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -6734,31 +6749,31 @@
         <f>IF('mins network'!E4&gt;270,IFERROR(('pass network'!E4/'mins network'!E4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="19">
         <f>IF('mins network'!F4&gt;270,IFERROR(('pass network'!F4/'mins network'!F4)*90,""),"")</f>
         <v>6.2364130434782608</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="22">
         <f>IF('mins network'!G4&gt;270,IFERROR(('pass network'!G4/'mins network'!G4)*90,""),"")</f>
         <v>13.00578034682081</v>
       </c>
-      <c r="H4" s="11" t="str">
+      <c r="H4" s="22" t="str">
         <f>IF('mins network'!H4&gt;270,IFERROR(('pass network'!H4/'mins network'!H4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="22">
         <f>IF('mins network'!I4&gt;270,IFERROR(('pass network'!I4/'mins network'!I4)*90,""),"")</f>
         <v>8.4453781512605044</v>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="22" t="str">
         <f>IF('mins network'!J4&gt;270,IFERROR(('pass network'!J4/'mins network'!J4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="22">
         <f>IF('mins network'!K4&gt;270,IFERROR(('pass network'!K4/'mins network'!K4)*90,""),"")</f>
         <v>0.84745762711864403</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="20">
         <f>IF('mins network'!L4&gt;270,IFERROR(('pass network'!L4/'mins network'!L4)*90,""),"")</f>
         <v>0.62240663900414939</v>
       </c>
@@ -6766,52 +6781,55 @@
         <f>IF('mins network'!M4&gt;270,IFERROR(('pass network'!M4/'mins network'!M4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="19">
         <f>IF('mins network'!N4&gt;270,IFERROR(('pass network'!N4/'mins network'!N4)*90,""),"")</f>
         <v>2.3459715639810423</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="22">
         <f>IF('mins network'!O4&gt;270,IFERROR(('pass network'!O4/'mins network'!O4)*90,""),"")</f>
         <v>1.2907431551499347</v>
       </c>
-      <c r="P4" s="11" t="str">
+      <c r="P4" s="22" t="str">
         <f>IF('mins network'!P4&gt;270,IFERROR(('pass network'!P4/'mins network'!P4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="Q4" s="11" t="str">
+      <c r="Q4" s="22" t="str">
         <f>IF('mins network'!Q4&gt;270,IFERROR(('pass network'!Q4/'mins network'!Q4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="20">
         <f>IF('mins network'!R4&gt;270,IFERROR(('pass network'!R4/'mins network'!R4)*90,""),"")</f>
         <v>1.7857142857142856</v>
       </c>
-      <c r="S4" s="11" t="str">
+      <c r="S4" s="19" t="str">
         <f>IF('mins network'!S4&gt;270,IFERROR(('pass network'!S4/'mins network'!S4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="T4" s="11" t="str">
+      <c r="T4" s="22" t="str">
         <f>IF('mins network'!T4&gt;270,IFERROR(('pass network'!T4/'mins network'!T4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="22">
         <f>IF('mins network'!U4&gt;270,IFERROR(('pass network'!U4/'mins network'!U4)*90,""),"")</f>
         <v>0.70754716981132071</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="22">
         <f>IF('mins network'!V4&gt;270,IFERROR(('pass network'!V4/'mins network'!V4)*90,""),"")</f>
         <v>0.52325581395348841</v>
       </c>
-      <c r="W4" s="11" t="str">
+      <c r="W4" s="22" t="str">
         <f>IF('mins network'!W4&gt;270,IFERROR(('pass network'!W4/'mins network'!W4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="20">
         <f>IF('mins network'!X4&gt;270,IFERROR(('pass network'!X4/'mins network'!X4)*90,""),"")</f>
         <v>0.23468057366362449</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="14">
+        <v>0.84821428571428603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -6906,19 +6924,20 @@
         <f>IF('mins network'!X5&gt;270,IFERROR(('pass network'!X5/'mins network'!X5)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="15">
         <f>IF('mins network'!C6&gt;270,IFERROR(('pass network'!C6/'mins network'!C6)*90,""),"")</f>
         <v>3.9679358717434874</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="16">
         <f>IF('mins network'!D6&gt;270,IFERROR(('pass network'!D6/'mins network'!D6)*90,""),"")</f>
         <v>5.2581521739130439</v>
       </c>
@@ -6926,31 +6945,31 @@
         <f>IF('mins network'!E6&gt;270,IFERROR(('pass network'!E6/'mins network'!E6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="15" t="str">
         <f>IF('mins network'!F6&gt;270,IFERROR(('pass network'!F6/'mins network'!F6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="21">
         <f>IF('mins network'!G6&gt;270,IFERROR(('pass network'!G6/'mins network'!G6)*90,""),"")</f>
         <v>2.9059829059829063</v>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="21" t="str">
         <f>IF('mins network'!H6&gt;270,IFERROR(('pass network'!H6/'mins network'!H6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="21">
         <f>IF('mins network'!I6&gt;270,IFERROR(('pass network'!I6/'mins network'!I6)*90,""),"")</f>
         <v>9.2156862745098049</v>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="J6" s="21" t="str">
         <f>IF('mins network'!J6&gt;270,IFERROR(('pass network'!J6/'mins network'!J6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="21">
         <f>IF('mins network'!K6&gt;270,IFERROR(('pass network'!K6/'mins network'!K6)*90,""),"")</f>
         <v>7.8393665158371038</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="16">
         <f>IF('mins network'!L6&gt;270,IFERROR(('pass network'!L6/'mins network'!L6)*90,""),"")</f>
         <v>1.4157303370786518</v>
       </c>
@@ -6958,63 +6977,66 @@
         <f>IF('mins network'!M6&gt;270,IFERROR(('pass network'!M6/'mins network'!M6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="15">
         <f>IF('mins network'!N6&gt;270,IFERROR(('pass network'!N6/'mins network'!N6)*90,""),"")</f>
         <v>9.378881987577639</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="21">
         <f>IF('mins network'!O6&gt;270,IFERROR(('pass network'!O6/'mins network'!O6)*90,""),"")</f>
         <v>6.3124335812964931</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="21">
         <f>IF('mins network'!P6&gt;270,IFERROR(('pass network'!P6/'mins network'!P6)*90,""),"")</f>
         <v>3.3559322033898309</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="21">
         <f>IF('mins network'!Q6&gt;270,IFERROR(('pass network'!Q6/'mins network'!Q6)*90,""),"")</f>
         <v>9.8650927487352451</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="16">
         <f>IF('mins network'!R6&gt;270,IFERROR(('pass network'!R6/'mins network'!R6)*90,""),"")</f>
         <v>5.4890109890109891</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="15">
         <f>IF('mins network'!S6&gt;270,IFERROR(('pass network'!S6/'mins network'!S6)*90,""),"")</f>
         <v>0.5625</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="21">
         <f>IF('mins network'!T6&gt;270,IFERROR(('pass network'!T6/'mins network'!T6)*90,""),"")</f>
         <v>1.1264080100125156</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="21">
         <f>IF('mins network'!U6&gt;270,IFERROR(('pass network'!U6/'mins network'!U6)*90,""),"")</f>
         <v>2.5657894736842102</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="21">
         <f>IF('mins network'!V6&gt;270,IFERROR(('pass network'!V6/'mins network'!V6)*90,""),"")</f>
         <v>1.0924369747899161</v>
       </c>
-      <c r="W6" s="11" t="str">
+      <c r="W6" s="21" t="str">
         <f>IF('mins network'!W6&gt;270,IFERROR(('pass network'!W6/'mins network'!W6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="16">
         <f>IF('mins network'!X6&gt;270,IFERROR(('pass network'!X6/'mins network'!X6)*90,""),"")</f>
         <v>6.5002935995302407</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="14">
+        <v>0.82696629213483097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="17">
         <f>IF('mins network'!C7&gt;270,IFERROR(('pass network'!C7/'mins network'!C7)*90,""),"")</f>
         <v>5.4380664652567976</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="18">
         <f>IF('mins network'!D7&gt;270,IFERROR(('pass network'!D7/'mins network'!D7)*90,""),"")</f>
         <v>9.104046242774567</v>
       </c>
@@ -7022,7 +7044,7 @@
         <f>IF('mins network'!E7&gt;270,IFERROR(('pass network'!E7/'mins network'!E7)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="17">
         <f>IF('mins network'!F7&gt;270,IFERROR(('pass network'!F7/'mins network'!F7)*90,""),"")</f>
         <v>3.5897435897435899</v>
       </c>
@@ -7046,7 +7068,7 @@
         <f>IF('mins network'!K7&gt;270,IFERROR(('pass network'!K7/'mins network'!K7)*90,""),"")</f>
         <v>2.4283305227655987</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="18">
         <f>IF('mins network'!L7&gt;270,IFERROR(('pass network'!L7/'mins network'!L7)*90,""),"")</f>
         <v>4.6428571428571423</v>
       </c>
@@ -7054,7 +7076,7 @@
         <f>IF('mins network'!M7&gt;270,IFERROR(('pass network'!M7/'mins network'!M7)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="17">
         <f>IF('mins network'!N7&gt;270,IFERROR(('pass network'!N7/'mins network'!N7)*90,""),"")</f>
         <v>8.804347826086957</v>
       </c>
@@ -7070,11 +7092,11 @@
         <f>IF('mins network'!Q7&gt;270,IFERROR(('pass network'!Q7/'mins network'!Q7)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="18">
         <f>IF('mins network'!R7&gt;270,IFERROR(('pass network'!R7/'mins network'!R7)*90,""),"")</f>
         <v>4.3902439024390247</v>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="17" t="str">
         <f>IF('mins network'!S7&gt;270,IFERROR(('pass network'!S7/'mins network'!S7)*90,""),"")</f>
         <v/>
       </c>
@@ -7094,23 +7116,26 @@
         <f>IF('mins network'!W7&gt;270,IFERROR(('pass network'!W7/'mins network'!W7)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="18">
         <f>IF('mins network'!X7&gt;270,IFERROR(('pass network'!X7/'mins network'!X7)*90,""),"")</f>
         <v>1.4206128133704734</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="14">
+        <v>0.84626865671641804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF('mins network'!C8&gt;270,IFERROR(('pass network'!C8/'mins network'!C8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF('mins network'!D8&gt;270,IFERROR(('pass network'!D8/'mins network'!D8)*90,""),"")</f>
         <v/>
       </c>
@@ -7118,7 +7143,7 @@
         <f>IF('mins network'!E8&gt;270,IFERROR(('pass network'!E8/'mins network'!E8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="17" t="str">
         <f>IF('mins network'!F8&gt;270,IFERROR(('pass network'!F8/'mins network'!F8)*90,""),"")</f>
         <v/>
       </c>
@@ -7142,7 +7167,7 @@
         <f>IF('mins network'!K8&gt;270,IFERROR(('pass network'!K8/'mins network'!K8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="18" t="str">
         <f>IF('mins network'!L8&gt;270,IFERROR(('pass network'!L8/'mins network'!L8)*90,""),"")</f>
         <v/>
       </c>
@@ -7150,7 +7175,7 @@
         <f>IF('mins network'!M8&gt;270,IFERROR(('pass network'!M8/'mins network'!M8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="N8" s="17" t="str">
         <f>IF('mins network'!N8&gt;270,IFERROR(('pass network'!N8/'mins network'!N8)*90,""),"")</f>
         <v/>
       </c>
@@ -7166,11 +7191,11 @@
         <f>IF('mins network'!Q8&gt;270,IFERROR(('pass network'!Q8/'mins network'!Q8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R8" s="11" t="str">
+      <c r="R8" s="18" t="str">
         <f>IF('mins network'!R8&gt;270,IFERROR(('pass network'!R8/'mins network'!R8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="S8" s="11" t="str">
+      <c r="S8" s="17" t="str">
         <f>IF('mins network'!S8&gt;270,IFERROR(('pass network'!S8/'mins network'!S8)*90,""),"")</f>
         <v/>
       </c>
@@ -7190,23 +7215,24 @@
         <f>IF('mins network'!W8&gt;270,IFERROR(('pass network'!W8/'mins network'!W8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X8" s="11" t="str">
+      <c r="X8" s="18" t="str">
         <f>IF('mins network'!X8&gt;270,IFERROR(('pass network'!X8/'mins network'!X8)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="17">
         <f>IF('mins network'!C9&gt;270,IFERROR(('pass network'!C9/'mins network'!C9)*90,""),"")</f>
         <v>4.5991983967935877</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="18">
         <f>IF('mins network'!D9&gt;270,IFERROR(('pass network'!D9/'mins network'!D9)*90,""),"")</f>
         <v>6.5546218487394965</v>
       </c>
@@ -7214,7 +7240,7 @@
         <f>IF('mins network'!E9&gt;270,IFERROR(('pass network'!E9/'mins network'!E9)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="17">
         <f>IF('mins network'!F9&gt;270,IFERROR(('pass network'!F9/'mins network'!F9)*90,""),"")</f>
         <v>9.7549019607843128</v>
       </c>
@@ -7238,7 +7264,7 @@
         <f>IF('mins network'!K9&gt;270,IFERROR(('pass network'!K9/'mins network'!K9)*90,""),"")</f>
         <v>1.7749419953596286</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="18">
         <f>IF('mins network'!L9&gt;270,IFERROR(('pass network'!L9/'mins network'!L9)*90,""),"")</f>
         <v>3.8385376999238385</v>
       </c>
@@ -7246,7 +7272,7 @@
         <f>IF('mins network'!M9&gt;270,IFERROR(('pass network'!M9/'mins network'!M9)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="17">
         <f>IF('mins network'!N9&gt;270,IFERROR(('pass network'!N9/'mins network'!N9)*90,""),"")</f>
         <v>7.9662162162162158</v>
       </c>
@@ -7262,11 +7288,11 @@
         <f>IF('mins network'!Q9&gt;270,IFERROR(('pass network'!Q9/'mins network'!Q9)*90,""),"")</f>
         <v>2.2765598650927488</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="18">
         <f>IF('mins network'!R9&gt;270,IFERROR(('pass network'!R9/'mins network'!R9)*90,""),"")</f>
         <v>5.806451612903226</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="17">
         <f>IF('mins network'!S9&gt;270,IFERROR(('pass network'!S9/'mins network'!S9)*90,""),"")</f>
         <v>0.86816720257234736</v>
       </c>
@@ -7286,23 +7312,26 @@
         <f>IF('mins network'!W9&gt;270,IFERROR(('pass network'!W9/'mins network'!W9)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="18">
         <f>IF('mins network'!X9&gt;270,IFERROR(('pass network'!X9/'mins network'!X9)*90,""),"")</f>
         <v>2.5163593099345629</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="14">
+        <v>0.86410256410256403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="17" t="str">
         <f>IF('mins network'!C10&gt;270,IFERROR(('pass network'!C10/'mins network'!C10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="18" t="str">
         <f>IF('mins network'!D10&gt;270,IFERROR(('pass network'!D10/'mins network'!D10)*90,""),"")</f>
         <v/>
       </c>
@@ -7310,7 +7339,7 @@
         <f>IF('mins network'!E10&gt;270,IFERROR(('pass network'!E10/'mins network'!E10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="17" t="str">
         <f>IF('mins network'!F10&gt;270,IFERROR(('pass network'!F10/'mins network'!F10)*90,""),"")</f>
         <v/>
       </c>
@@ -7334,7 +7363,7 @@
         <f>IF('mins network'!K10&gt;270,IFERROR(('pass network'!K10/'mins network'!K10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L10" s="18" t="str">
         <f>IF('mins network'!L10&gt;270,IFERROR(('pass network'!L10/'mins network'!L10)*90,""),"")</f>
         <v/>
       </c>
@@ -7342,7 +7371,7 @@
         <f>IF('mins network'!M10&gt;270,IFERROR(('pass network'!M10/'mins network'!M10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N10" s="11" t="str">
+      <c r="N10" s="17" t="str">
         <f>IF('mins network'!N10&gt;270,IFERROR(('pass network'!N10/'mins network'!N10)*90,""),"")</f>
         <v/>
       </c>
@@ -7358,11 +7387,11 @@
         <f>IF('mins network'!Q10&gt;270,IFERROR(('pass network'!Q10/'mins network'!Q10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="18" t="str">
         <f>IF('mins network'!R10&gt;270,IFERROR(('pass network'!R10/'mins network'!R10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="17" t="str">
         <f>IF('mins network'!S10&gt;270,IFERROR(('pass network'!S10/'mins network'!S10)*90,""),"")</f>
         <v/>
       </c>
@@ -7382,23 +7411,24 @@
         <f>IF('mins network'!W10&gt;270,IFERROR(('pass network'!W10/'mins network'!W10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="18" t="str">
         <f>IF('mins network'!X10&gt;270,IFERROR(('pass network'!X10/'mins network'!X10)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="17">
         <f>IF('mins network'!C11&gt;270,IFERROR(('pass network'!C11/'mins network'!C11)*90,""),"")</f>
         <v>0.234375</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="18">
         <f>IF('mins network'!D11&gt;270,IFERROR(('pass network'!D11/'mins network'!D11)*90,""),"")</f>
         <v>1.1864406779661016</v>
       </c>
@@ -7406,7 +7436,7 @@
         <f>IF('mins network'!E11&gt;270,IFERROR(('pass network'!E11/'mins network'!E11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="17">
         <f>IF('mins network'!F11&gt;270,IFERROR(('pass network'!F11/'mins network'!F11)*90,""),"")</f>
         <v>5.0904977375565608</v>
       </c>
@@ -7430,7 +7460,7 @@
         <f>IF('mins network'!K11&gt;270,IFERROR(('pass network'!K11/'mins network'!K11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="18">
         <f>IF('mins network'!L11&gt;270,IFERROR(('pass network'!L11/'mins network'!L11)*90,""),"")</f>
         <v>1.9077306733167083</v>
       </c>
@@ -7438,7 +7468,7 @@
         <f>IF('mins network'!M11&gt;270,IFERROR(('pass network'!M11/'mins network'!M11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="17">
         <f>IF('mins network'!N11&gt;270,IFERROR(('pass network'!N11/'mins network'!N11)*90,""),"")</f>
         <v>4.0080971659919022</v>
       </c>
@@ -7454,11 +7484,11 @@
         <f>IF('mins network'!Q11&gt;270,IFERROR(('pass network'!Q11/'mins network'!Q11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="18">
         <f>IF('mins network'!R11&gt;270,IFERROR(('pass network'!R11/'mins network'!R11)*90,""),"")</f>
         <v>2.8701594533029615</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="17">
         <f>IF('mins network'!S11&gt;270,IFERROR(('pass network'!S11/'mins network'!S11)*90,""),"")</f>
         <v>1.875</v>
       </c>
@@ -7478,23 +7508,26 @@
         <f>IF('mins network'!W11&gt;270,IFERROR(('pass network'!W11/'mins network'!W11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="18">
         <f>IF('mins network'!X11&gt;270,IFERROR(('pass network'!X11/'mins network'!X11)*90,""),"")</f>
         <v>4.5478723404255312</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="14">
+        <v>0.69651741293532299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="19">
         <f>IF('mins network'!C12&gt;270,IFERROR(('pass network'!C12/'mins network'!C12)*90,""),"")</f>
         <v>0.71005917159763321</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="20">
         <f>IF('mins network'!D12&gt;270,IFERROR(('pass network'!D12/'mins network'!D12)*90,""),"")</f>
         <v>0.49792531120331951</v>
       </c>
@@ -7502,31 +7535,31 @@
         <f>IF('mins network'!E12&gt;270,IFERROR(('pass network'!E12/'mins network'!E12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="19">
         <f>IF('mins network'!F12&gt;270,IFERROR(('pass network'!F12/'mins network'!F12)*90,""),"")</f>
         <v>0.5393258426966292</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="22">
         <f>IF('mins network'!G12&gt;270,IFERROR(('pass network'!G12/'mins network'!G12)*90,""),"")</f>
         <v>6.0714285714285712</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="22" t="str">
         <f>IF('mins network'!H12&gt;270,IFERROR(('pass network'!H12/'mins network'!H12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="22">
         <f>IF('mins network'!I12&gt;270,IFERROR(('pass network'!I12/'mins network'!I12)*90,""),"")</f>
         <v>2.7418126428027416</v>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="J12" s="22" t="str">
         <f>IF('mins network'!J12&gt;270,IFERROR(('pass network'!J12/'mins network'!J12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="22">
         <f>IF('mins network'!K12&gt;270,IFERROR(('pass network'!K12/'mins network'!K12)*90,""),"")</f>
         <v>2.8054862842892767</v>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="20" t="str">
         <f>IF('mins network'!L12&gt;270,IFERROR(('pass network'!L12/'mins network'!L12)*90,""),"")</f>
         <v/>
       </c>
@@ -7534,52 +7567,55 @@
         <f>IF('mins network'!M12&gt;270,IFERROR(('pass network'!M12/'mins network'!M12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="19">
         <f>IF('mins network'!N12&gt;270,IFERROR(('pass network'!N12/'mins network'!N12)*90,""),"")</f>
         <v>3.6421725239616616</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="22">
         <f>IF('mins network'!O12&gt;270,IFERROR(('pass network'!O12/'mins network'!O12)*90,""),"")</f>
         <v>5.629139072847682</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="22">
         <f>IF('mins network'!P12&gt;270,IFERROR(('pass network'!P12/'mins network'!P12)*90,""),"")</f>
         <v>5.625</v>
       </c>
-      <c r="Q12" s="11" t="str">
+      <c r="Q12" s="22" t="str">
         <f>IF('mins network'!Q12&gt;270,IFERROR(('pass network'!Q12/'mins network'!Q12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="20">
         <f>IF('mins network'!R12&gt;270,IFERROR(('pass network'!R12/'mins network'!R12)*90,""),"")</f>
         <v>3.9605462822458271</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="19">
         <f>IF('mins network'!S12&gt;270,IFERROR(('pass network'!S12/'mins network'!S12)*90,""),"")</f>
         <v>9.9630996309963091</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="22">
         <f>IF('mins network'!T12&gt;270,IFERROR(('pass network'!T12/'mins network'!T12)*90,""),"")</f>
         <v>17.086092715231789</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="22">
         <f>IF('mins network'!U12&gt;270,IFERROR(('pass network'!U12/'mins network'!U12)*90,""),"")</f>
         <v>2.903225806451613</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="22">
         <f>IF('mins network'!V12&gt;270,IFERROR(('pass network'!V12/'mins network'!V12)*90,""),"")</f>
         <v>3.9589442815249267</v>
       </c>
-      <c r="W12" s="11" t="str">
+      <c r="W12" s="22" t="str">
         <f>IF('mins network'!W12&gt;270,IFERROR(('pass network'!W12/'mins network'!W12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="20">
         <f>IF('mins network'!X12&gt;270,IFERROR(('pass network'!X12/'mins network'!X12)*90,""),"")</f>
         <v>3.4356846473029048</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="14">
+        <v>0.77937336814621405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -7674,19 +7710,20 @@
         <f>IF('mins network'!X13&gt;270,IFERROR(('pass network'!X13/'mins network'!X13)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="15">
         <f>IF('mins network'!C14&gt;270,IFERROR(('pass network'!C14/'mins network'!C14)*90,""),"")</f>
         <v>0.39867109634551495</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="16">
         <f>IF('mins network'!D14&gt;270,IFERROR(('pass network'!D14/'mins network'!D14)*90,""),"")</f>
         <v>0.42654028436018959</v>
       </c>
@@ -7694,31 +7731,31 @@
         <f>IF('mins network'!E14&gt;270,IFERROR(('pass network'!E14/'mins network'!E14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="15">
         <f>IF('mins network'!F14&gt;270,IFERROR(('pass network'!F14/'mins network'!F14)*90,""),"")</f>
         <v>6.8322981366459636</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="21">
         <f>IF('mins network'!G14&gt;270,IFERROR(('pass network'!G14/'mins network'!G14)*90,""),"")</f>
         <v>4.3322981366459627</v>
       </c>
-      <c r="H14" s="11" t="str">
+      <c r="H14" s="21" t="str">
         <f>IF('mins network'!H14&gt;270,IFERROR(('pass network'!H14/'mins network'!H14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="21">
         <f>IF('mins network'!I14&gt;270,IFERROR(('pass network'!I14/'mins network'!I14)*90,""),"")</f>
         <v>5.1689189189189193</v>
       </c>
-      <c r="J14" s="11" t="str">
+      <c r="J14" s="21" t="str">
         <f>IF('mins network'!J14&gt;270,IFERROR(('pass network'!J14/'mins network'!J14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="21">
         <f>IF('mins network'!K14&gt;270,IFERROR(('pass network'!K14/'mins network'!K14)*90,""),"")</f>
         <v>4.0080971659919022</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="16">
         <f>IF('mins network'!L14&gt;270,IFERROR(('pass network'!L14/'mins network'!L14)*90,""),"")</f>
         <v>4.1214057507987221</v>
       </c>
@@ -7726,63 +7763,66 @@
         <f>IF('mins network'!M14&gt;270,IFERROR(('pass network'!M14/'mins network'!M14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="N14" s="15" t="str">
         <f>IF('mins network'!N14&gt;270,IFERROR(('pass network'!N14/'mins network'!N14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="21">
         <f>IF('mins network'!O14&gt;270,IFERROR(('pass network'!O14/'mins network'!O14)*90,""),"")</f>
         <v>8.3706720977596731</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="21">
         <f>IF('mins network'!P14&gt;270,IFERROR(('pass network'!P14/'mins network'!P14)*90,""),"")</f>
         <v>3.2028469750889683</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="21">
         <f>IF('mins network'!Q14&gt;270,IFERROR(('pass network'!Q14/'mins network'!Q14)*90,""),"")</f>
         <v>4.704890387858347</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="16">
         <f>IF('mins network'!R14&gt;270,IFERROR(('pass network'!R14/'mins network'!R14)*90,""),"")</f>
         <v>3.8908575478384124</v>
       </c>
-      <c r="S14" s="11" t="str">
+      <c r="S14" s="15" t="str">
         <f>IF('mins network'!S14&gt;270,IFERROR(('pass network'!S14/'mins network'!S14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="21">
         <f>IF('mins network'!T14&gt;270,IFERROR(('pass network'!T14/'mins network'!T14)*90,""),"")</f>
         <v>5.2941176470588234</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="21">
         <f>IF('mins network'!U14&gt;270,IFERROR(('pass network'!U14/'mins network'!U14)*90,""),"")</f>
         <v>3.7314906219151034</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="21">
         <f>IF('mins network'!V14&gt;270,IFERROR(('pass network'!V14/'mins network'!V14)*90,""),"")</f>
         <v>2.3841059602649008</v>
       </c>
-      <c r="W14" s="11" t="str">
+      <c r="W14" s="21" t="str">
         <f>IF('mins network'!W14&gt;270,IFERROR(('pass network'!W14/'mins network'!W14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="16">
         <f>IF('mins network'!X14&gt;270,IFERROR(('pass network'!X14/'mins network'!X14)*90,""),"")</f>
         <v>4.7295208655332308</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y14" s="14">
+        <v>0.74949899799599196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="17">
         <f>IF('mins network'!C15&gt;270,IFERROR(('pass network'!C15/'mins network'!C15)*90,""),"")</f>
         <v>0.45408678102926342</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="18">
         <f>IF('mins network'!D15&gt;270,IFERROR(('pass network'!D15/'mins network'!D15)*90,""),"")</f>
         <v>2.2294654498044326</v>
       </c>
@@ -7790,7 +7830,7 @@
         <f>IF('mins network'!E15&gt;270,IFERROR(('pass network'!E15/'mins network'!E15)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="17">
         <f>IF('mins network'!F15&gt;270,IFERROR(('pass network'!F15/'mins network'!F15)*90,""),"")</f>
         <v>5.3560042507970245</v>
       </c>
@@ -7814,7 +7854,7 @@
         <f>IF('mins network'!K15&gt;270,IFERROR(('pass network'!K15/'mins network'!K15)*90,""),"")</f>
         <v>5.6497797356828192</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="18">
         <f>IF('mins network'!L15&gt;270,IFERROR(('pass network'!L15/'mins network'!L15)*90,""),"")</f>
         <v>5.0331125827814569</v>
       </c>
@@ -7822,7 +7862,7 @@
         <f>IF('mins network'!M15&gt;270,IFERROR(('pass network'!M15/'mins network'!M15)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="17">
         <f>IF('mins network'!N15&gt;270,IFERROR(('pass network'!N15/'mins network'!N15)*90,""),"")</f>
         <v>7.1486761710794298</v>
       </c>
@@ -7838,11 +7878,11 @@
         <f>IF('mins network'!Q15&gt;270,IFERROR(('pass network'!Q15/'mins network'!Q15)*90,""),"")</f>
         <v>4.2495784148397977</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="18">
         <f>IF('mins network'!R15&gt;270,IFERROR(('pass network'!R15/'mins network'!R15)*90,""),"")</f>
         <v>2.674230145867099</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="17">
         <f>IF('mins network'!S15&gt;270,IFERROR(('pass network'!S15/'mins network'!S15)*90,""),"")</f>
         <v>5.833333333333333</v>
       </c>
@@ -7862,23 +7902,26 @@
         <f>IF('mins network'!W15&gt;270,IFERROR(('pass network'!W15/'mins network'!W15)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="18">
         <f>IF('mins network'!X15&gt;270,IFERROR(('pass network'!X15/'mins network'!X15)*90,""),"")</f>
         <v>4.2211928199189348</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="14">
+        <v>0.82597173144876301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="17" t="str">
         <f>IF('mins network'!C16&gt;270,IFERROR(('pass network'!C16/'mins network'!C16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="18" t="str">
         <f>IF('mins network'!D16&gt;270,IFERROR(('pass network'!D16/'mins network'!D16)*90,""),"")</f>
         <v/>
       </c>
@@ -7886,7 +7929,7 @@
         <f>IF('mins network'!E16&gt;270,IFERROR(('pass network'!E16/'mins network'!E16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="17">
         <f>IF('mins network'!F16&gt;270,IFERROR(('pass network'!F16/'mins network'!F16)*90,""),"")</f>
         <v>1.2203389830508473</v>
       </c>
@@ -7910,7 +7953,7 @@
         <f>IF('mins network'!K16&gt;270,IFERROR(('pass network'!K16/'mins network'!K16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="18">
         <f>IF('mins network'!L16&gt;270,IFERROR(('pass network'!L16/'mins network'!L16)*90,""),"")</f>
         <v>6.25</v>
       </c>
@@ -7918,7 +7961,7 @@
         <f>IF('mins network'!M16&gt;270,IFERROR(('pass network'!M16/'mins network'!M16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="17">
         <f>IF('mins network'!N16&gt;270,IFERROR(('pass network'!N16/'mins network'!N16)*90,""),"")</f>
         <v>4.4839857651245554</v>
       </c>
@@ -7934,11 +7977,11 @@
         <f>IF('mins network'!Q16&gt;270,IFERROR(('pass network'!Q16/'mins network'!Q16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="18">
         <f>IF('mins network'!R16&gt;270,IFERROR(('pass network'!R16/'mins network'!R16)*90,""),"")</f>
         <v>2.4406779661016946</v>
       </c>
-      <c r="S16" s="11" t="str">
+      <c r="S16" s="17" t="str">
         <f>IF('mins network'!S16&gt;270,IFERROR(('pass network'!S16/'mins network'!S16)*90,""),"")</f>
         <v/>
       </c>
@@ -7958,23 +8001,26 @@
         <f>IF('mins network'!W16&gt;270,IFERROR(('pass network'!W16/'mins network'!W16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="18">
         <f>IF('mins network'!X16&gt;270,IFERROR(('pass network'!X16/'mins network'!X16)*90,""),"")</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="14">
+        <v>0.65573770491803296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="17">
         <f>IF('mins network'!C17&gt;270,IFERROR(('pass network'!C17/'mins network'!C17)*90,""),"")</f>
         <v>1.3152400835073068</v>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="18" t="str">
         <f>IF('mins network'!D17&gt;270,IFERROR(('pass network'!D17/'mins network'!D17)*90,""),"")</f>
         <v/>
       </c>
@@ -7982,7 +8028,7 @@
         <f>IF('mins network'!E17&gt;270,IFERROR(('pass network'!E17/'mins network'!E17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="17">
         <f>IF('mins network'!F17&gt;270,IFERROR(('pass network'!F17/'mins network'!F17)*90,""),"")</f>
         <v>10.472175379426645</v>
       </c>
@@ -8006,7 +8052,7 @@
         <f>IF('mins network'!K17&gt;270,IFERROR(('pass network'!K17/'mins network'!K17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L17" s="11" t="str">
+      <c r="L17" s="18" t="str">
         <f>IF('mins network'!L17&gt;270,IFERROR(('pass network'!L17/'mins network'!L17)*90,""),"")</f>
         <v/>
       </c>
@@ -8014,7 +8060,7 @@
         <f>IF('mins network'!M17&gt;270,IFERROR(('pass network'!M17/'mins network'!M17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="17">
         <f>IF('mins network'!N17&gt;270,IFERROR(('pass network'!N17/'mins network'!N17)*90,""),"")</f>
         <v>4.704890387858347</v>
       </c>
@@ -8030,11 +8076,11 @@
         <f>IF('mins network'!Q17&gt;270,IFERROR(('pass network'!Q17/'mins network'!Q17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="18">
         <f>IF('mins network'!R17&gt;270,IFERROR(('pass network'!R17/'mins network'!R17)*90,""),"")</f>
         <v>4.0106951871657754</v>
       </c>
-      <c r="S17" s="11" t="str">
+      <c r="S17" s="17" t="str">
         <f>IF('mins network'!S17&gt;270,IFERROR(('pass network'!S17/'mins network'!S17)*90,""),"")</f>
         <v/>
       </c>
@@ -8054,23 +8100,26 @@
         <f>IF('mins network'!W17&gt;270,IFERROR(('pass network'!W17/'mins network'!W17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="18">
         <f>IF('mins network'!X17&gt;270,IFERROR(('pass network'!X17/'mins network'!X17)*90,""),"")</f>
         <v>5.7065217391304355</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="14">
+        <v>0.77717391304347805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="19">
         <f>IF('mins network'!C18&gt;270,IFERROR(('pass network'!C18/'mins network'!C18)*90,""),"")</f>
         <v>0.57446808510638292</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="20">
         <f>IF('mins network'!D18&gt;270,IFERROR(('pass network'!D18/'mins network'!D18)*90,""),"")</f>
         <v>0.23809523809523808</v>
       </c>
@@ -8078,31 +8127,31 @@
         <f>IF('mins network'!E18&gt;270,IFERROR(('pass network'!E18/'mins network'!E18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="19">
         <f>IF('mins network'!F18&gt;270,IFERROR(('pass network'!F18/'mins network'!F18)*90,""),"")</f>
         <v>5.5879120879120876</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="22">
         <f>IF('mins network'!G18&gt;270,IFERROR(('pass network'!G18/'mins network'!G18)*90,""),"")</f>
         <v>4.5590994371482179</v>
       </c>
-      <c r="H18" s="11" t="str">
+      <c r="H18" s="22" t="str">
         <f>IF('mins network'!H18&gt;270,IFERROR(('pass network'!H18/'mins network'!H18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="22">
         <f>IF('mins network'!I18&gt;270,IFERROR(('pass network'!I18/'mins network'!I18)*90,""),"")</f>
         <v>4.6051167964404893</v>
       </c>
-      <c r="J18" s="11" t="str">
+      <c r="J18" s="22" t="str">
         <f>IF('mins network'!J18&gt;270,IFERROR(('pass network'!J18/'mins network'!J18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="22">
         <f>IF('mins network'!K18&gt;270,IFERROR(('pass network'!K18/'mins network'!K18)*90,""),"")</f>
         <v>3.1776765375854215</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="20">
         <f>IF('mins network'!L18&gt;270,IFERROR(('pass network'!L18/'mins network'!L18)*90,""),"")</f>
         <v>3.687405159332322</v>
       </c>
@@ -8110,63 +8159,66 @@
         <f>IF('mins network'!M18&gt;270,IFERROR(('pass network'!M18/'mins network'!M18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="19">
         <f>IF('mins network'!N18&gt;270,IFERROR(('pass network'!N18/'mins network'!N18)*90,""),"")</f>
         <v>4.2097802976612337</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="22">
         <f>IF('mins network'!O18&gt;270,IFERROR(('pass network'!O18/'mins network'!O18)*90,""),"")</f>
         <v>4.5218800648298219</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="22">
         <f>IF('mins network'!P18&gt;270,IFERROR(('pass network'!P18/'mins network'!P18)*90,""),"")</f>
         <v>3.9661016949152543</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="22">
         <f>IF('mins network'!Q18&gt;270,IFERROR(('pass network'!Q18/'mins network'!Q18)*90,""),"")</f>
         <v>5.2941176470588234</v>
       </c>
-      <c r="R18" s="11" t="str">
+      <c r="R18" s="20" t="str">
         <f>IF('mins network'!R18&gt;270,IFERROR(('pass network'!R18/'mins network'!R18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="19">
         <f>IF('mins network'!S18&gt;270,IFERROR(('pass network'!S18/'mins network'!S18)*90,""),"")</f>
         <v>3.9272727272727277</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="22">
         <f>IF('mins network'!T18&gt;270,IFERROR(('pass network'!T18/'mins network'!T18)*90,""),"")</f>
         <v>4.0316205533596836</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="22">
         <f>IF('mins network'!U18&gt;270,IFERROR(('pass network'!U18/'mins network'!U18)*90,""),"")</f>
         <v>2.0852017937219731</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="22">
         <f>IF('mins network'!V18&gt;270,IFERROR(('pass network'!V18/'mins network'!V18)*90,""),"")</f>
         <v>1.6423357664233575</v>
       </c>
-      <c r="W18" s="11" t="str">
+      <c r="W18" s="22" t="str">
         <f>IF('mins network'!W18&gt;270,IFERROR(('pass network'!W18/'mins network'!W18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="20">
         <f>IF('mins network'!X18&gt;270,IFERROR(('pass network'!X18/'mins network'!X18)*90,""),"")</f>
         <v>3.9459459459459456</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="14">
+        <v>0.82224645583424205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11" t="str">
+      <c r="C19" s="15" t="str">
         <f>IF('mins network'!C19&gt;270,IFERROR(('pass network'!C19/'mins network'!C19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF('mins network'!D19&gt;270,IFERROR(('pass network'!D19/'mins network'!D19)*90,""),"")</f>
         <v/>
       </c>
@@ -8174,31 +8226,31 @@
         <f>IF('mins network'!E19&gt;270,IFERROR(('pass network'!E19/'mins network'!E19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="15">
         <f>IF('mins network'!F19&gt;270,IFERROR(('pass network'!F19/'mins network'!F19)*90,""),"")</f>
         <v>0.28125</v>
       </c>
-      <c r="G19" s="11" t="str">
+      <c r="G19" s="21" t="str">
         <f>IF('mins network'!G19&gt;270,IFERROR(('pass network'!G19/'mins network'!G19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="H19" s="11" t="str">
+      <c r="H19" s="21" t="str">
         <f>IF('mins network'!H19&gt;270,IFERROR(('pass network'!H19/'mins network'!H19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="21">
         <f>IF('mins network'!I19&gt;270,IFERROR(('pass network'!I19/'mins network'!I19)*90,""),"")</f>
         <v>0.86816720257234736</v>
       </c>
-      <c r="J19" s="11" t="str">
+      <c r="J19" s="21" t="str">
         <f>IF('mins network'!J19&gt;270,IFERROR(('pass network'!J19/'mins network'!J19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="21">
         <f>IF('mins network'!K19&gt;270,IFERROR(('pass network'!K19/'mins network'!K19)*90,""),"")</f>
         <v>1.25</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="16">
         <f>IF('mins network'!L19&gt;270,IFERROR(('pass network'!L19/'mins network'!L19)*90,""),"")</f>
         <v>7.6383763837638377</v>
       </c>
@@ -8206,63 +8258,66 @@
         <f>IF('mins network'!M19&gt;270,IFERROR(('pass network'!M19/'mins network'!M19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N19" s="11" t="str">
+      <c r="N19" s="15" t="str">
         <f>IF('mins network'!N19&gt;270,IFERROR(('pass network'!N19/'mins network'!N19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="21">
         <f>IF('mins network'!O19&gt;270,IFERROR(('pass network'!O19/'mins network'!O19)*90,""),"")</f>
         <v>3.6111111111111107</v>
       </c>
-      <c r="P19" s="11" t="str">
+      <c r="P19" s="21" t="str">
         <f>IF('mins network'!P19&gt;270,IFERROR(('pass network'!P19/'mins network'!P19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="11" t="str">
+      <c r="Q19" s="21" t="str">
         <f>IF('mins network'!Q19&gt;270,IFERROR(('pass network'!Q19/'mins network'!Q19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="16">
         <f>IF('mins network'!R19&gt;270,IFERROR(('pass network'!R19/'mins network'!R19)*90,""),"")</f>
         <v>3.6</v>
       </c>
-      <c r="S19" s="11" t="str">
+      <c r="S19" s="15" t="str">
         <f>IF('mins network'!S19&gt;270,IFERROR(('pass network'!S19/'mins network'!S19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="T19" s="11" t="str">
+      <c r="T19" s="21" t="str">
         <f>IF('mins network'!T19&gt;270,IFERROR(('pass network'!T19/'mins network'!T19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="U19" s="11" t="str">
+      <c r="U19" s="21" t="str">
         <f>IF('mins network'!U19&gt;270,IFERROR(('pass network'!U19/'mins network'!U19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="V19" s="11" t="str">
+      <c r="V19" s="21" t="str">
         <f>IF('mins network'!V19&gt;270,IFERROR(('pass network'!V19/'mins network'!V19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="W19" s="11" t="str">
+      <c r="W19" s="21" t="str">
         <f>IF('mins network'!W19&gt;270,IFERROR(('pass network'!W19/'mins network'!W19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="16">
         <f>IF('mins network'!X19&gt;270,IFERROR(('pass network'!X19/'mins network'!X19)*90,""),"")</f>
         <v>5.2777777777777777</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="14">
+        <v>0.75384615384615405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="17">
         <f>IF('mins network'!C20&gt;270,IFERROR(('pass network'!C20/'mins network'!C20)*90,""),"")</f>
         <v>0</v>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="18" t="str">
         <f>IF('mins network'!D20&gt;270,IFERROR(('pass network'!D20/'mins network'!D20)*90,""),"")</f>
         <v/>
       </c>
@@ -8270,7 +8325,7 @@
         <f>IF('mins network'!E20&gt;270,IFERROR(('pass network'!E20/'mins network'!E20)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="17">
         <f>IF('mins network'!F20&gt;270,IFERROR(('pass network'!F20/'mins network'!F20)*90,""),"")</f>
         <v>0.6758448060075094</v>
       </c>
@@ -8294,7 +8349,7 @@
         <f>IF('mins network'!K20&gt;270,IFERROR(('pass network'!K20/'mins network'!K20)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="18">
         <f>IF('mins network'!L20&gt;270,IFERROR(('pass network'!L20/'mins network'!L20)*90,""),"")</f>
         <v>8.741721854304636</v>
       </c>
@@ -8302,7 +8357,7 @@
         <f>IF('mins network'!M20&gt;270,IFERROR(('pass network'!M20/'mins network'!M20)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="17">
         <f>IF('mins network'!N20&gt;270,IFERROR(('pass network'!N20/'mins network'!N20)*90,""),"")</f>
         <v>4.0550688360450557</v>
       </c>
@@ -8318,11 +8373,11 @@
         <f>IF('mins network'!Q20&gt;270,IFERROR(('pass network'!Q20/'mins network'!Q20)*90,""),"")</f>
         <v>1.2529002320185614</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="18">
         <f>IF('mins network'!R20&gt;270,IFERROR(('pass network'!R20/'mins network'!R20)*90,""),"")</f>
         <v>4.3873517786561269</v>
       </c>
-      <c r="S20" s="11" t="str">
+      <c r="S20" s="17" t="str">
         <f>IF('mins network'!S20&gt;270,IFERROR(('pass network'!S20/'mins network'!S20)*90,""),"")</f>
         <v/>
       </c>
@@ -8342,23 +8397,26 @@
         <f>IF('mins network'!W20&gt;270,IFERROR(('pass network'!W20/'mins network'!W20)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="18">
         <f>IF('mins network'!X20&gt;270,IFERROR(('pass network'!X20/'mins network'!X20)*90,""),"")</f>
         <v>3.0483870967741939</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="14">
+        <v>0.69784172661870503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="17">
         <f>IF('mins network'!C21&gt;270,IFERROR(('pass network'!C21/'mins network'!C21)*90,""),"")</f>
         <v>0.91172214182344424</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="18">
         <f>IF('mins network'!D21&gt;270,IFERROR(('pass network'!D21/'mins network'!D21)*90,""),"")</f>
         <v>0</v>
       </c>
@@ -8366,7 +8424,7 @@
         <f>IF('mins network'!E21&gt;270,IFERROR(('pass network'!E21/'mins network'!E21)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="17">
         <f>IF('mins network'!F21&gt;270,IFERROR(('pass network'!F21/'mins network'!F21)*90,""),"")</f>
         <v>1.6447368421052631</v>
       </c>
@@ -8390,7 +8448,7 @@
         <f>IF('mins network'!K21&gt;270,IFERROR(('pass network'!K21/'mins network'!K21)*90,""),"")</f>
         <v>1.5940054495912808</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="18">
         <f>IF('mins network'!L21&gt;270,IFERROR(('pass network'!L21/'mins network'!L21)*90,""),"")</f>
         <v>0.8428720083246618</v>
       </c>
@@ -8398,7 +8456,7 @@
         <f>IF('mins network'!M21&gt;270,IFERROR(('pass network'!M21/'mins network'!M21)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="17">
         <f>IF('mins network'!N21&gt;270,IFERROR(('pass network'!N21/'mins network'!N21)*90,""),"")</f>
         <v>1.9545903257650543</v>
       </c>
@@ -8414,11 +8472,11 @@
         <f>IF('mins network'!Q21&gt;270,IFERROR(('pass network'!Q21/'mins network'!Q21)*90,""),"")</f>
         <v>0.43165467625899279</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="18">
         <f>IF('mins network'!R21&gt;270,IFERROR(('pass network'!R21/'mins network'!R21)*90,""),"")</f>
         <v>2.4887892376681613</v>
       </c>
-      <c r="S21" s="11" t="str">
+      <c r="S21" s="17" t="str">
         <f>IF('mins network'!S21&gt;270,IFERROR(('pass network'!S21/'mins network'!S21)*90,""),"")</f>
         <v/>
       </c>
@@ -8438,23 +8496,26 @@
         <f>IF('mins network'!W21&gt;270,IFERROR(('pass network'!W21/'mins network'!W21)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="18">
         <f>IF('mins network'!X21&gt;270,IFERROR(('pass network'!X21/'mins network'!X21)*90,""),"")</f>
         <v>2.5714285714285712</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="14">
+        <v>0.74715261958997703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="17">
         <f>IF('mins network'!C22&gt;270,IFERROR(('pass network'!C22/'mins network'!C22)*90,""),"")</f>
         <v>0</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="18">
         <f>IF('mins network'!D22&gt;270,IFERROR(('pass network'!D22/'mins network'!D22)*90,""),"")</f>
         <v>0</v>
       </c>
@@ -8462,7 +8523,7 @@
         <f>IF('mins network'!E22&gt;270,IFERROR(('pass network'!E22/'mins network'!E22)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="17">
         <f>IF('mins network'!F22&gt;270,IFERROR(('pass network'!F22/'mins network'!F22)*90,""),"")</f>
         <v>0.33613445378151263</v>
       </c>
@@ -8486,7 +8547,7 @@
         <f>IF('mins network'!K22&gt;270,IFERROR(('pass network'!K22/'mins network'!K22)*90,""),"")</f>
         <v>0.33707865168539325</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="18">
         <f>IF('mins network'!L22&gt;270,IFERROR(('pass network'!L22/'mins network'!L22)*90,""),"")</f>
         <v>1.3196480938416424</v>
       </c>
@@ -8494,7 +8555,7 @@
         <f>IF('mins network'!M22&gt;270,IFERROR(('pass network'!M22/'mins network'!M22)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="17">
         <f>IF('mins network'!N22&gt;270,IFERROR(('pass network'!N22/'mins network'!N22)*90,""),"")</f>
         <v>1.3907284768211921</v>
       </c>
@@ -8510,11 +8571,11 @@
         <f>IF('mins network'!Q22&gt;270,IFERROR(('pass network'!Q22/'mins network'!Q22)*90,""),"")</f>
         <v>0.20408163265306123</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="18">
         <f>IF('mins network'!R22&gt;270,IFERROR(('pass network'!R22/'mins network'!R22)*90,""),"")</f>
         <v>1.2317518248175183</v>
       </c>
-      <c r="S22" s="11" t="str">
+      <c r="S22" s="17" t="str">
         <f>IF('mins network'!S22&gt;270,IFERROR(('pass network'!S22/'mins network'!S22)*90,""),"")</f>
         <v/>
       </c>
@@ -8534,23 +8595,26 @@
         <f>IF('mins network'!W22&gt;270,IFERROR(('pass network'!W22/'mins network'!W22)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="18">
         <f>IF('mins network'!X22&gt;270,IFERROR(('pass network'!X22/'mins network'!X22)*90,""),"")</f>
         <v>2.7329842931937174</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="14">
+        <v>0.58419243986254299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="11" t="str">
+      <c r="C23" s="17" t="str">
         <f>IF('mins network'!C23&gt;270,IFERROR(('pass network'!C23/'mins network'!C23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="18" t="str">
         <f>IF('mins network'!D23&gt;270,IFERROR(('pass network'!D23/'mins network'!D23)*90,""),"")</f>
         <v/>
       </c>
@@ -8558,7 +8622,7 @@
         <f>IF('mins network'!E23&gt;270,IFERROR(('pass network'!E23/'mins network'!E23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="17" t="str">
         <f>IF('mins network'!F23&gt;270,IFERROR(('pass network'!F23/'mins network'!F23)*90,""),"")</f>
         <v/>
       </c>
@@ -8582,7 +8646,7 @@
         <f>IF('mins network'!K23&gt;270,IFERROR(('pass network'!K23/'mins network'!K23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="18" t="str">
         <f>IF('mins network'!L23&gt;270,IFERROR(('pass network'!L23/'mins network'!L23)*90,""),"")</f>
         <v/>
       </c>
@@ -8590,7 +8654,7 @@
         <f>IF('mins network'!M23&gt;270,IFERROR(('pass network'!M23/'mins network'!M23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N23" s="11" t="str">
+      <c r="N23" s="17" t="str">
         <f>IF('mins network'!N23&gt;270,IFERROR(('pass network'!N23/'mins network'!N23)*90,""),"")</f>
         <v/>
       </c>
@@ -8606,11 +8670,11 @@
         <f>IF('mins network'!Q23&gt;270,IFERROR(('pass network'!Q23/'mins network'!Q23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R23" s="11" t="str">
+      <c r="R23" s="18" t="str">
         <f>IF('mins network'!R23&gt;270,IFERROR(('pass network'!R23/'mins network'!R23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="S23" s="11" t="str">
+      <c r="S23" s="17" t="str">
         <f>IF('mins network'!S23&gt;270,IFERROR(('pass network'!S23/'mins network'!S23)*90,""),"")</f>
         <v/>
       </c>
@@ -8630,23 +8694,24 @@
         <f>IF('mins network'!W23&gt;270,IFERROR(('pass network'!W23/'mins network'!W23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X23" s="11" t="str">
+      <c r="X23" s="18" t="str">
         <f>IF('mins network'!X23&gt;270,IFERROR(('pass network'!X23/'mins network'!X23)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y23" s="14"/>
+    </row>
+    <row r="24" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="19">
         <f>IF('mins network'!C24&gt;270,IFERROR(('pass network'!C24/'mins network'!C24)*90,""),"")</f>
         <v>0</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="20">
         <f>IF('mins network'!D24&gt;270,IFERROR(('pass network'!D24/'mins network'!D24)*90,""),"")</f>
         <v>0</v>
       </c>
@@ -8654,31 +8719,31 @@
         <f>IF('mins network'!E24&gt;270,IFERROR(('pass network'!E24/'mins network'!E24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="19">
         <f>IF('mins network'!F24&gt;270,IFERROR(('pass network'!F24/'mins network'!F24)*90,""),"")</f>
         <v>3.6993540810334702</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="22">
         <f>IF('mins network'!G24&gt;270,IFERROR(('pass network'!G24/'mins network'!G24)*90,""),"")</f>
         <v>0.66852367688022285</v>
       </c>
-      <c r="H24" s="11" t="str">
+      <c r="H24" s="22" t="str">
         <f>IF('mins network'!H24&gt;270,IFERROR(('pass network'!H24/'mins network'!H24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="22">
         <f>IF('mins network'!I24&gt;270,IFERROR(('pass network'!I24/'mins network'!I24)*90,""),"")</f>
         <v>1.4455681142177275</v>
       </c>
-      <c r="J24" s="11" t="str">
+      <c r="J24" s="22" t="str">
         <f>IF('mins network'!J24&gt;270,IFERROR(('pass network'!J24/'mins network'!J24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="22">
         <f>IF('mins network'!K24&gt;270,IFERROR(('pass network'!K24/'mins network'!K24)*90,""),"")</f>
         <v>3.8297872340425529</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="20">
         <f>IF('mins network'!L24&gt;270,IFERROR(('pass network'!L24/'mins network'!L24)*90,""),"")</f>
         <v>2.5394190871369293</v>
       </c>
@@ -8686,178 +8751,120 @@
         <f>IF('mins network'!M24&gt;270,IFERROR(('pass network'!M24/'mins network'!M24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="19">
         <f>IF('mins network'!N24&gt;270,IFERROR(('pass network'!N24/'mins network'!N24)*90,""),"")</f>
         <v>3.6862442040185472</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="22">
         <f>IF('mins network'!O24&gt;270,IFERROR(('pass network'!O24/'mins network'!O24)*90,""),"")</f>
         <v>4.5338737695425593</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="22">
         <f>IF('mins network'!P24&gt;270,IFERROR(('pass network'!P24/'mins network'!P24)*90,""),"")</f>
         <v>2.5</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="22">
         <f>IF('mins network'!Q24&gt;270,IFERROR(('pass network'!Q24/'mins network'!Q24)*90,""),"")</f>
         <v>5.8695652173913038</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="20">
         <f>IF('mins network'!R24&gt;270,IFERROR(('pass network'!R24/'mins network'!R24)*90,""),"")</f>
         <v>3.5675675675675675</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="19">
         <f>IF('mins network'!S24&gt;270,IFERROR(('pass network'!S24/'mins network'!S24)*90,""),"")</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="22">
         <f>IF('mins network'!T24&gt;270,IFERROR(('pass network'!T24/'mins network'!T24)*90,""),"")</f>
         <v>1.596774193548387</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="22">
         <f>IF('mins network'!U24&gt;270,IFERROR(('pass network'!U24/'mins network'!U24)*90,""),"")</f>
         <v>2.4244897959183676</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="22">
         <f>IF('mins network'!V24&gt;270,IFERROR(('pass network'!V24/'mins network'!V24)*90,""),"")</f>
         <v>3.9581151832460733</v>
       </c>
-      <c r="W24" s="11" t="str">
+      <c r="W24" s="22" t="str">
         <f>IF('mins network'!W24&gt;270,IFERROR(('pass network'!W24/'mins network'!W24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X24" s="11" t="str">
+      <c r="X24" s="20" t="str">
         <f>IF('mins network'!X24&gt;270,IFERROR(('pass network'!X24/'mins network'!X24)*90,""),"")</f>
         <v/>
+      </c>
+      <c r="Y24" s="14">
+        <v>0.77729885057471304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.84821428571428603</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <v>0.82696629213483097</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.84626865671641804</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
+        <v>0.86410256410256403</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
+        <v>0.69651741293532299</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0.77937336814621405</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14">
+        <v>0.74949899799599196</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.82597173144876301</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0.65573770491803296</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0.82224645583424205</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0.75384615384615405</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0.69784172661870503</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0.74715261958997703</v>
+      </c>
+      <c r="V25" s="14">
+        <v>0.58419243986254299</v>
+      </c>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14">
+        <v>0.77729885057471304</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:X24">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:X24">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:X24">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:X6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:X7">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:X9">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:X11">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:X12">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:X14">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:X15">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:X16">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:X17">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:X18">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:X19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8867,33 +8874,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:X20">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:X21">
+  <conditionalFormatting sqref="Y3:Y24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:X22">
+  <conditionalFormatting sqref="C25:X25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8903,20 +8900,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="24" width="8.33203125" customWidth="1"/>
+    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="22" width="8.33203125" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="65" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -8987,8 +8995,11 @@
       <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
@@ -9056,7 +9067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -9075,31 +9086,31 @@
         <f>IF('mins network'!E3&gt;270,IFERROR(('pass network'!E3/'mins network'!E3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="15">
         <f>IF('mins network'!F3&gt;270,IFERROR(('pass network'!F3/'mins network'!F3)*90,""),"")</f>
         <v>5.6813627254509012</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="21">
         <f>IF('mins network'!G3&gt;270,IFERROR(('pass network'!G3/'mins network'!G3)*90,""),"")</f>
         <v>4.0785498489425978</v>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" s="21" t="str">
         <f>IF('mins network'!H3&gt;270,IFERROR(('pass network'!H3/'mins network'!H3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="21">
         <f>IF('mins network'!I3&gt;270,IFERROR(('pass network'!I3/'mins network'!I3)*90,""),"")</f>
         <v>7.1242484969939879</v>
       </c>
-      <c r="J3" s="11" t="str">
+      <c r="J3" s="21" t="str">
         <f>IF('mins network'!J3&gt;270,IFERROR(('pass network'!J3/'mins network'!J3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="21">
         <f>IF('mins network'!K3&gt;270,IFERROR(('pass network'!K3/'mins network'!K3)*90,""),"")</f>
         <v>1.171875</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="16">
         <f>IF('mins network'!L3&gt;270,IFERROR(('pass network'!L3/'mins network'!L3)*90,""),"")</f>
         <v>1.2426035502958579</v>
       </c>
@@ -9107,52 +9118,55 @@
         <f>IF('mins network'!M3&gt;270,IFERROR(('pass network'!M3/'mins network'!M3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="15">
         <f>IF('mins network'!N3&gt;270,IFERROR(('pass network'!N3/'mins network'!N3)*90,""),"")</f>
         <v>1.9933554817275749</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="21">
         <f>IF('mins network'!O3&gt;270,IFERROR(('pass network'!O3/'mins network'!O3)*90,""),"")</f>
         <v>0.54490413723511599</v>
       </c>
-      <c r="P3" s="11" t="str">
+      <c r="P3" s="21" t="str">
         <f>IF('mins network'!P3&gt;270,IFERROR(('pass network'!P3/'mins network'!P3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="21">
         <f>IF('mins network'!Q3&gt;270,IFERROR(('pass network'!Q3/'mins network'!Q3)*90,""),"")</f>
         <v>1.1273486430062631</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="16">
         <f>IF('mins network'!R3&gt;270,IFERROR(('pass network'!R3/'mins network'!R3)*90,""),"")</f>
         <v>0.57446808510638292</v>
       </c>
-      <c r="S3" s="11" t="str">
+      <c r="S3" s="15" t="str">
         <f>IF('mins network'!S3&gt;270,IFERROR(('pass network'!S3/'mins network'!S3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="21">
         <f>IF('mins network'!T3&gt;270,IFERROR(('pass network'!T3/'mins network'!T3)*90,""),"")</f>
         <v>0.27950310559006208</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="21">
         <f>IF('mins network'!U3&gt;270,IFERROR(('pass network'!U3/'mins network'!U3)*90,""),"")</f>
         <v>0.39073806078147616</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="21">
         <f>IF('mins network'!V3&gt;270,IFERROR(('pass network'!V3/'mins network'!V3)*90,""),"")</f>
         <v>0.27149321266968329</v>
       </c>
-      <c r="W3" s="11" t="str">
+      <c r="W3" s="21" t="str">
         <f>IF('mins network'!W3&gt;270,IFERROR(('pass network'!W3/'mins network'!W3)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="16">
         <f>IF('mins network'!X3&gt;270,IFERROR(('pass network'!X3/'mins network'!X3)*90,""),"")</f>
         <v>0.76086956521739124</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="14">
+        <v>0.76767676767676796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -9171,31 +9185,31 @@
         <f>IF('mins network'!E4&gt;270,IFERROR(('pass network'!E4/'mins network'!E4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="19">
         <f>IF('mins network'!F4&gt;270,IFERROR(('pass network'!F4/'mins network'!F4)*90,""),"")</f>
         <v>6.2364130434782608</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="22">
         <f>IF('mins network'!G4&gt;270,IFERROR(('pass network'!G4/'mins network'!G4)*90,""),"")</f>
         <v>13.00578034682081</v>
       </c>
-      <c r="H4" s="11" t="str">
+      <c r="H4" s="22" t="str">
         <f>IF('mins network'!H4&gt;270,IFERROR(('pass network'!H4/'mins network'!H4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="22">
         <f>IF('mins network'!I4&gt;270,IFERROR(('pass network'!I4/'mins network'!I4)*90,""),"")</f>
         <v>8.4453781512605044</v>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="22" t="str">
         <f>IF('mins network'!J4&gt;270,IFERROR(('pass network'!J4/'mins network'!J4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="22">
         <f>IF('mins network'!K4&gt;270,IFERROR(('pass network'!K4/'mins network'!K4)*90,""),"")</f>
         <v>0.84745762711864403</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="20">
         <f>IF('mins network'!L4&gt;270,IFERROR(('pass network'!L4/'mins network'!L4)*90,""),"")</f>
         <v>0.62240663900414939</v>
       </c>
@@ -9203,52 +9217,55 @@
         <f>IF('mins network'!M4&gt;270,IFERROR(('pass network'!M4/'mins network'!M4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="19">
         <f>IF('mins network'!N4&gt;270,IFERROR(('pass network'!N4/'mins network'!N4)*90,""),"")</f>
         <v>2.3459715639810423</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="22">
         <f>IF('mins network'!O4&gt;270,IFERROR(('pass network'!O4/'mins network'!O4)*90,""),"")</f>
         <v>1.2907431551499347</v>
       </c>
-      <c r="P4" s="11" t="str">
+      <c r="P4" s="22" t="str">
         <f>IF('mins network'!P4&gt;270,IFERROR(('pass network'!P4/'mins network'!P4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="Q4" s="11" t="str">
+      <c r="Q4" s="22" t="str">
         <f>IF('mins network'!Q4&gt;270,IFERROR(('pass network'!Q4/'mins network'!Q4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="20">
         <f>IF('mins network'!R4&gt;270,IFERROR(('pass network'!R4/'mins network'!R4)*90,""),"")</f>
         <v>1.7857142857142856</v>
       </c>
-      <c r="S4" s="11" t="str">
+      <c r="S4" s="19" t="str">
         <f>IF('mins network'!S4&gt;270,IFERROR(('pass network'!S4/'mins network'!S4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="T4" s="11" t="str">
+      <c r="T4" s="22" t="str">
         <f>IF('mins network'!T4&gt;270,IFERROR(('pass network'!T4/'mins network'!T4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="22">
         <f>IF('mins network'!U4&gt;270,IFERROR(('pass network'!U4/'mins network'!U4)*90,""),"")</f>
         <v>0.70754716981132071</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="22">
         <f>IF('mins network'!V4&gt;270,IFERROR(('pass network'!V4/'mins network'!V4)*90,""),"")</f>
         <v>0.52325581395348841</v>
       </c>
-      <c r="W4" s="11" t="str">
+      <c r="W4" s="22" t="str">
         <f>IF('mins network'!W4&gt;270,IFERROR(('pass network'!W4/'mins network'!W4)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="20">
         <f>IF('mins network'!X4&gt;270,IFERROR(('pass network'!X4/'mins network'!X4)*90,""),"")</f>
         <v>0.23468057366362449</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="14">
+        <v>0.84821428571428603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -9343,19 +9360,20 @@
         <f>IF('mins network'!X5&gt;270,IFERROR(('pass network'!X5/'mins network'!X5)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="15">
         <f>IF('mins network'!C6&gt;270,IFERROR(('pass network'!C6/'mins network'!C6)*90,""),"")</f>
         <v>3.9679358717434874</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="16">
         <f>IF('mins network'!D6&gt;270,IFERROR(('pass network'!D6/'mins network'!D6)*90,""),"")</f>
         <v>5.2581521739130439</v>
       </c>
@@ -9363,31 +9381,31 @@
         <f>IF('mins network'!E6&gt;270,IFERROR(('pass network'!E6/'mins network'!E6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="15" t="str">
         <f>IF('mins network'!F6&gt;270,IFERROR(('pass network'!F6/'mins network'!F6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="21">
         <f>IF('mins network'!G6&gt;270,IFERROR(('pass network'!G6/'mins network'!G6)*90,""),"")</f>
         <v>2.9059829059829063</v>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="21" t="str">
         <f>IF('mins network'!H6&gt;270,IFERROR(('pass network'!H6/'mins network'!H6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="21">
         <f>IF('mins network'!I6&gt;270,IFERROR(('pass network'!I6/'mins network'!I6)*90,""),"")</f>
         <v>9.2156862745098049</v>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="J6" s="21" t="str">
         <f>IF('mins network'!J6&gt;270,IFERROR(('pass network'!J6/'mins network'!J6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="21">
         <f>IF('mins network'!K6&gt;270,IFERROR(('pass network'!K6/'mins network'!K6)*90,""),"")</f>
         <v>7.8393665158371038</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="16">
         <f>IF('mins network'!L6&gt;270,IFERROR(('pass network'!L6/'mins network'!L6)*90,""),"")</f>
         <v>1.4157303370786518</v>
       </c>
@@ -9395,63 +9413,66 @@
         <f>IF('mins network'!M6&gt;270,IFERROR(('pass network'!M6/'mins network'!M6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="15">
         <f>IF('mins network'!N6&gt;270,IFERROR(('pass network'!N6/'mins network'!N6)*90,""),"")</f>
         <v>9.378881987577639</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="21">
         <f>IF('mins network'!O6&gt;270,IFERROR(('pass network'!O6/'mins network'!O6)*90,""),"")</f>
         <v>6.3124335812964931</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="21">
         <f>IF('mins network'!P6&gt;270,IFERROR(('pass network'!P6/'mins network'!P6)*90,""),"")</f>
         <v>3.3559322033898309</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="21">
         <f>IF('mins network'!Q6&gt;270,IFERROR(('pass network'!Q6/'mins network'!Q6)*90,""),"")</f>
         <v>9.8650927487352451</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="16">
         <f>IF('mins network'!R6&gt;270,IFERROR(('pass network'!R6/'mins network'!R6)*90,""),"")</f>
         <v>5.4890109890109891</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="15">
         <f>IF('mins network'!S6&gt;270,IFERROR(('pass network'!S6/'mins network'!S6)*90,""),"")</f>
         <v>0.5625</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="21">
         <f>IF('mins network'!T6&gt;270,IFERROR(('pass network'!T6/'mins network'!T6)*90,""),"")</f>
         <v>1.1264080100125156</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="21">
         <f>IF('mins network'!U6&gt;270,IFERROR(('pass network'!U6/'mins network'!U6)*90,""),"")</f>
         <v>2.5657894736842102</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="21">
         <f>IF('mins network'!V6&gt;270,IFERROR(('pass network'!V6/'mins network'!V6)*90,""),"")</f>
         <v>1.0924369747899161</v>
       </c>
-      <c r="W6" s="11" t="str">
+      <c r="W6" s="21" t="str">
         <f>IF('mins network'!W6&gt;270,IFERROR(('pass network'!W6/'mins network'!W6)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="16">
         <f>IF('mins network'!X6&gt;270,IFERROR(('pass network'!X6/'mins network'!X6)*90,""),"")</f>
         <v>6.5002935995302407</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="14">
+        <v>0.82696629213483097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="17">
         <f>IF('mins network'!C7&gt;270,IFERROR(('pass network'!C7/'mins network'!C7)*90,""),"")</f>
         <v>5.4380664652567976</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="18">
         <f>IF('mins network'!D7&gt;270,IFERROR(('pass network'!D7/'mins network'!D7)*90,""),"")</f>
         <v>9.104046242774567</v>
       </c>
@@ -9459,7 +9480,7 @@
         <f>IF('mins network'!E7&gt;270,IFERROR(('pass network'!E7/'mins network'!E7)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="17">
         <f>IF('mins network'!F7&gt;270,IFERROR(('pass network'!F7/'mins network'!F7)*90,""),"")</f>
         <v>3.5897435897435899</v>
       </c>
@@ -9483,7 +9504,7 @@
         <f>IF('mins network'!K7&gt;270,IFERROR(('pass network'!K7/'mins network'!K7)*90,""),"")</f>
         <v>2.4283305227655987</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="18">
         <f>IF('mins network'!L7&gt;270,IFERROR(('pass network'!L7/'mins network'!L7)*90,""),"")</f>
         <v>4.6428571428571423</v>
       </c>
@@ -9491,7 +9512,7 @@
         <f>IF('mins network'!M7&gt;270,IFERROR(('pass network'!M7/'mins network'!M7)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="17">
         <f>IF('mins network'!N7&gt;270,IFERROR(('pass network'!N7/'mins network'!N7)*90,""),"")</f>
         <v>8.804347826086957</v>
       </c>
@@ -9507,11 +9528,11 @@
         <f>IF('mins network'!Q7&gt;270,IFERROR(('pass network'!Q7/'mins network'!Q7)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="18">
         <f>IF('mins network'!R7&gt;270,IFERROR(('pass network'!R7/'mins network'!R7)*90,""),"")</f>
         <v>4.3902439024390247</v>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="17" t="str">
         <f>IF('mins network'!S7&gt;270,IFERROR(('pass network'!S7/'mins network'!S7)*90,""),"")</f>
         <v/>
       </c>
@@ -9531,23 +9552,26 @@
         <f>IF('mins network'!W7&gt;270,IFERROR(('pass network'!W7/'mins network'!W7)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="18">
         <f>IF('mins network'!X7&gt;270,IFERROR(('pass network'!X7/'mins network'!X7)*90,""),"")</f>
         <v>1.4206128133704734</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="14">
+        <v>0.84626865671641804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF('mins network'!C8&gt;270,IFERROR(('pass network'!C8/'mins network'!C8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF('mins network'!D8&gt;270,IFERROR(('pass network'!D8/'mins network'!D8)*90,""),"")</f>
         <v/>
       </c>
@@ -9555,7 +9579,7 @@
         <f>IF('mins network'!E8&gt;270,IFERROR(('pass network'!E8/'mins network'!E8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="17" t="str">
         <f>IF('mins network'!F8&gt;270,IFERROR(('pass network'!F8/'mins network'!F8)*90,""),"")</f>
         <v/>
       </c>
@@ -9579,7 +9603,7 @@
         <f>IF('mins network'!K8&gt;270,IFERROR(('pass network'!K8/'mins network'!K8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="18" t="str">
         <f>IF('mins network'!L8&gt;270,IFERROR(('pass network'!L8/'mins network'!L8)*90,""),"")</f>
         <v/>
       </c>
@@ -9587,7 +9611,7 @@
         <f>IF('mins network'!M8&gt;270,IFERROR(('pass network'!M8/'mins network'!M8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="N8" s="17" t="str">
         <f>IF('mins network'!N8&gt;270,IFERROR(('pass network'!N8/'mins network'!N8)*90,""),"")</f>
         <v/>
       </c>
@@ -9603,11 +9627,11 @@
         <f>IF('mins network'!Q8&gt;270,IFERROR(('pass network'!Q8/'mins network'!Q8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R8" s="11" t="str">
+      <c r="R8" s="18" t="str">
         <f>IF('mins network'!R8&gt;270,IFERROR(('pass network'!R8/'mins network'!R8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="S8" s="11" t="str">
+      <c r="S8" s="17" t="str">
         <f>IF('mins network'!S8&gt;270,IFERROR(('pass network'!S8/'mins network'!S8)*90,""),"")</f>
         <v/>
       </c>
@@ -9627,23 +9651,24 @@
         <f>IF('mins network'!W8&gt;270,IFERROR(('pass network'!W8/'mins network'!W8)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X8" s="11" t="str">
+      <c r="X8" s="18" t="str">
         <f>IF('mins network'!X8&gt;270,IFERROR(('pass network'!X8/'mins network'!X8)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="17">
         <f>IF('mins network'!C9&gt;270,IFERROR(('pass network'!C9/'mins network'!C9)*90,""),"")</f>
         <v>4.5991983967935877</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="18">
         <f>IF('mins network'!D9&gt;270,IFERROR(('pass network'!D9/'mins network'!D9)*90,""),"")</f>
         <v>6.5546218487394965</v>
       </c>
@@ -9651,7 +9676,7 @@
         <f>IF('mins network'!E9&gt;270,IFERROR(('pass network'!E9/'mins network'!E9)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="17">
         <f>IF('mins network'!F9&gt;270,IFERROR(('pass network'!F9/'mins network'!F9)*90,""),"")</f>
         <v>9.7549019607843128</v>
       </c>
@@ -9675,7 +9700,7 @@
         <f>IF('mins network'!K9&gt;270,IFERROR(('pass network'!K9/'mins network'!K9)*90,""),"")</f>
         <v>1.7749419953596286</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="18">
         <f>IF('mins network'!L9&gt;270,IFERROR(('pass network'!L9/'mins network'!L9)*90,""),"")</f>
         <v>3.8385376999238385</v>
       </c>
@@ -9683,7 +9708,7 @@
         <f>IF('mins network'!M9&gt;270,IFERROR(('pass network'!M9/'mins network'!M9)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="17">
         <f>IF('mins network'!N9&gt;270,IFERROR(('pass network'!N9/'mins network'!N9)*90,""),"")</f>
         <v>7.9662162162162158</v>
       </c>
@@ -9699,11 +9724,11 @@
         <f>IF('mins network'!Q9&gt;270,IFERROR(('pass network'!Q9/'mins network'!Q9)*90,""),"")</f>
         <v>2.2765598650927488</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="18">
         <f>IF('mins network'!R9&gt;270,IFERROR(('pass network'!R9/'mins network'!R9)*90,""),"")</f>
         <v>5.806451612903226</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="17">
         <f>IF('mins network'!S9&gt;270,IFERROR(('pass network'!S9/'mins network'!S9)*90,""),"")</f>
         <v>0.86816720257234736</v>
       </c>
@@ -9723,23 +9748,26 @@
         <f>IF('mins network'!W9&gt;270,IFERROR(('pass network'!W9/'mins network'!W9)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="18">
         <f>IF('mins network'!X9&gt;270,IFERROR(('pass network'!X9/'mins network'!X9)*90,""),"")</f>
         <v>2.5163593099345629</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="14">
+        <v>0.86410256410256403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="17" t="str">
         <f>IF('mins network'!C10&gt;270,IFERROR(('pass network'!C10/'mins network'!C10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="18" t="str">
         <f>IF('mins network'!D10&gt;270,IFERROR(('pass network'!D10/'mins network'!D10)*90,""),"")</f>
         <v/>
       </c>
@@ -9747,7 +9775,7 @@
         <f>IF('mins network'!E10&gt;270,IFERROR(('pass network'!E10/'mins network'!E10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="17" t="str">
         <f>IF('mins network'!F10&gt;270,IFERROR(('pass network'!F10/'mins network'!F10)*90,""),"")</f>
         <v/>
       </c>
@@ -9771,7 +9799,7 @@
         <f>IF('mins network'!K10&gt;270,IFERROR(('pass network'!K10/'mins network'!K10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L10" s="18" t="str">
         <f>IF('mins network'!L10&gt;270,IFERROR(('pass network'!L10/'mins network'!L10)*90,""),"")</f>
         <v/>
       </c>
@@ -9779,7 +9807,7 @@
         <f>IF('mins network'!M10&gt;270,IFERROR(('pass network'!M10/'mins network'!M10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N10" s="11" t="str">
+      <c r="N10" s="17" t="str">
         <f>IF('mins network'!N10&gt;270,IFERROR(('pass network'!N10/'mins network'!N10)*90,""),"")</f>
         <v/>
       </c>
@@ -9795,11 +9823,11 @@
         <f>IF('mins network'!Q10&gt;270,IFERROR(('pass network'!Q10/'mins network'!Q10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="18" t="str">
         <f>IF('mins network'!R10&gt;270,IFERROR(('pass network'!R10/'mins network'!R10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="17" t="str">
         <f>IF('mins network'!S10&gt;270,IFERROR(('pass network'!S10/'mins network'!S10)*90,""),"")</f>
         <v/>
       </c>
@@ -9819,23 +9847,24 @@
         <f>IF('mins network'!W10&gt;270,IFERROR(('pass network'!W10/'mins network'!W10)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="18" t="str">
         <f>IF('mins network'!X10&gt;270,IFERROR(('pass network'!X10/'mins network'!X10)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="17">
         <f>IF('mins network'!C11&gt;270,IFERROR(('pass network'!C11/'mins network'!C11)*90,""),"")</f>
         <v>0.234375</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="18">
         <f>IF('mins network'!D11&gt;270,IFERROR(('pass network'!D11/'mins network'!D11)*90,""),"")</f>
         <v>1.1864406779661016</v>
       </c>
@@ -9843,7 +9872,7 @@
         <f>IF('mins network'!E11&gt;270,IFERROR(('pass network'!E11/'mins network'!E11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="17">
         <f>IF('mins network'!F11&gt;270,IFERROR(('pass network'!F11/'mins network'!F11)*90,""),"")</f>
         <v>5.0904977375565608</v>
       </c>
@@ -9867,7 +9896,7 @@
         <f>IF('mins network'!K11&gt;270,IFERROR(('pass network'!K11/'mins network'!K11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="18">
         <f>IF('mins network'!L11&gt;270,IFERROR(('pass network'!L11/'mins network'!L11)*90,""),"")</f>
         <v>1.9077306733167083</v>
       </c>
@@ -9875,7 +9904,7 @@
         <f>IF('mins network'!M11&gt;270,IFERROR(('pass network'!M11/'mins network'!M11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="17">
         <f>IF('mins network'!N11&gt;270,IFERROR(('pass network'!N11/'mins network'!N11)*90,""),"")</f>
         <v>4.0080971659919022</v>
       </c>
@@ -9891,11 +9920,11 @@
         <f>IF('mins network'!Q11&gt;270,IFERROR(('pass network'!Q11/'mins network'!Q11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="18">
         <f>IF('mins network'!R11&gt;270,IFERROR(('pass network'!R11/'mins network'!R11)*90,""),"")</f>
         <v>2.8701594533029615</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="17">
         <f>IF('mins network'!S11&gt;270,IFERROR(('pass network'!S11/'mins network'!S11)*90,""),"")</f>
         <v>1.875</v>
       </c>
@@ -9915,23 +9944,26 @@
         <f>IF('mins network'!W11&gt;270,IFERROR(('pass network'!W11/'mins network'!W11)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="18">
         <f>IF('mins network'!X11&gt;270,IFERROR(('pass network'!X11/'mins network'!X11)*90,""),"")</f>
         <v>4.5478723404255312</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="14">
+        <v>0.69651741293532299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="19">
         <f>IF('mins network'!C12&gt;270,IFERROR(('pass network'!C12/'mins network'!C12)*90,""),"")</f>
         <v>0.71005917159763321</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="20">
         <f>IF('mins network'!D12&gt;270,IFERROR(('pass network'!D12/'mins network'!D12)*90,""),"")</f>
         <v>0.49792531120331951</v>
       </c>
@@ -9939,31 +9971,31 @@
         <f>IF('mins network'!E12&gt;270,IFERROR(('pass network'!E12/'mins network'!E12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="19">
         <f>IF('mins network'!F12&gt;270,IFERROR(('pass network'!F12/'mins network'!F12)*90,""),"")</f>
         <v>0.5393258426966292</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="22">
         <f>IF('mins network'!G12&gt;270,IFERROR(('pass network'!G12/'mins network'!G12)*90,""),"")</f>
         <v>6.0714285714285712</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="22" t="str">
         <f>IF('mins network'!H12&gt;270,IFERROR(('pass network'!H12/'mins network'!H12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="22">
         <f>IF('mins network'!I12&gt;270,IFERROR(('pass network'!I12/'mins network'!I12)*90,""),"")</f>
         <v>2.7418126428027416</v>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="J12" s="22" t="str">
         <f>IF('mins network'!J12&gt;270,IFERROR(('pass network'!J12/'mins network'!J12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="22">
         <f>IF('mins network'!K12&gt;270,IFERROR(('pass network'!K12/'mins network'!K12)*90,""),"")</f>
         <v>2.8054862842892767</v>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="20" t="str">
         <f>IF('mins network'!L12&gt;270,IFERROR(('pass network'!L12/'mins network'!L12)*90,""),"")</f>
         <v/>
       </c>
@@ -9971,52 +10003,55 @@
         <f>IF('mins network'!M12&gt;270,IFERROR(('pass network'!M12/'mins network'!M12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="19">
         <f>IF('mins network'!N12&gt;270,IFERROR(('pass network'!N12/'mins network'!N12)*90,""),"")</f>
         <v>3.6421725239616616</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="22">
         <f>IF('mins network'!O12&gt;270,IFERROR(('pass network'!O12/'mins network'!O12)*90,""),"")</f>
         <v>5.629139072847682</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="22">
         <f>IF('mins network'!P12&gt;270,IFERROR(('pass network'!P12/'mins network'!P12)*90,""),"")</f>
         <v>5.625</v>
       </c>
-      <c r="Q12" s="11" t="str">
+      <c r="Q12" s="22" t="str">
         <f>IF('mins network'!Q12&gt;270,IFERROR(('pass network'!Q12/'mins network'!Q12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="20">
         <f>IF('mins network'!R12&gt;270,IFERROR(('pass network'!R12/'mins network'!R12)*90,""),"")</f>
         <v>3.9605462822458271</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="19">
         <f>IF('mins network'!S12&gt;270,IFERROR(('pass network'!S12/'mins network'!S12)*90,""),"")</f>
         <v>9.9630996309963091</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="22">
         <f>IF('mins network'!T12&gt;270,IFERROR(('pass network'!T12/'mins network'!T12)*90,""),"")</f>
         <v>17.086092715231789</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="22">
         <f>IF('mins network'!U12&gt;270,IFERROR(('pass network'!U12/'mins network'!U12)*90,""),"")</f>
         <v>2.903225806451613</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="22">
         <f>IF('mins network'!V12&gt;270,IFERROR(('pass network'!V12/'mins network'!V12)*90,""),"")</f>
         <v>3.9589442815249267</v>
       </c>
-      <c r="W12" s="11" t="str">
+      <c r="W12" s="22" t="str">
         <f>IF('mins network'!W12&gt;270,IFERROR(('pass network'!W12/'mins network'!W12)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="20">
         <f>IF('mins network'!X12&gt;270,IFERROR(('pass network'!X12/'mins network'!X12)*90,""),"")</f>
         <v>3.4356846473029048</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="14">
+        <v>0.77937336814621405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -10111,19 +10146,20 @@
         <f>IF('mins network'!X13&gt;270,IFERROR(('pass network'!X13/'mins network'!X13)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="15">
         <f>IF('mins network'!C14&gt;270,IFERROR(('pass network'!C14/'mins network'!C14)*90,""),"")</f>
         <v>0.39867109634551495</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="16">
         <f>IF('mins network'!D14&gt;270,IFERROR(('pass network'!D14/'mins network'!D14)*90,""),"")</f>
         <v>0.42654028436018959</v>
       </c>
@@ -10131,31 +10167,31 @@
         <f>IF('mins network'!E14&gt;270,IFERROR(('pass network'!E14/'mins network'!E14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="15">
         <f>IF('mins network'!F14&gt;270,IFERROR(('pass network'!F14/'mins network'!F14)*90,""),"")</f>
         <v>6.8322981366459636</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="21">
         <f>IF('mins network'!G14&gt;270,IFERROR(('pass network'!G14/'mins network'!G14)*90,""),"")</f>
         <v>4.3322981366459627</v>
       </c>
-      <c r="H14" s="11" t="str">
+      <c r="H14" s="21" t="str">
         <f>IF('mins network'!H14&gt;270,IFERROR(('pass network'!H14/'mins network'!H14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="21">
         <f>IF('mins network'!I14&gt;270,IFERROR(('pass network'!I14/'mins network'!I14)*90,""),"")</f>
         <v>5.1689189189189193</v>
       </c>
-      <c r="J14" s="11" t="str">
+      <c r="J14" s="21" t="str">
         <f>IF('mins network'!J14&gt;270,IFERROR(('pass network'!J14/'mins network'!J14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="21">
         <f>IF('mins network'!K14&gt;270,IFERROR(('pass network'!K14/'mins network'!K14)*90,""),"")</f>
         <v>4.0080971659919022</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="16">
         <f>IF('mins network'!L14&gt;270,IFERROR(('pass network'!L14/'mins network'!L14)*90,""),"")</f>
         <v>4.1214057507987221</v>
       </c>
@@ -10163,63 +10199,66 @@
         <f>IF('mins network'!M14&gt;270,IFERROR(('pass network'!M14/'mins network'!M14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="N14" s="15" t="str">
         <f>IF('mins network'!N14&gt;270,IFERROR(('pass network'!N14/'mins network'!N14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="21">
         <f>IF('mins network'!O14&gt;270,IFERROR(('pass network'!O14/'mins network'!O14)*90,""),"")</f>
         <v>8.3706720977596731</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="21">
         <f>IF('mins network'!P14&gt;270,IFERROR(('pass network'!P14/'mins network'!P14)*90,""),"")</f>
         <v>3.2028469750889683</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="21">
         <f>IF('mins network'!Q14&gt;270,IFERROR(('pass network'!Q14/'mins network'!Q14)*90,""),"")</f>
         <v>4.704890387858347</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="16">
         <f>IF('mins network'!R14&gt;270,IFERROR(('pass network'!R14/'mins network'!R14)*90,""),"")</f>
         <v>3.8908575478384124</v>
       </c>
-      <c r="S14" s="11" t="str">
+      <c r="S14" s="15" t="str">
         <f>IF('mins network'!S14&gt;270,IFERROR(('pass network'!S14/'mins network'!S14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="21">
         <f>IF('mins network'!T14&gt;270,IFERROR(('pass network'!T14/'mins network'!T14)*90,""),"")</f>
         <v>5.2941176470588234</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="21">
         <f>IF('mins network'!U14&gt;270,IFERROR(('pass network'!U14/'mins network'!U14)*90,""),"")</f>
         <v>3.7314906219151034</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="21">
         <f>IF('mins network'!V14&gt;270,IFERROR(('pass network'!V14/'mins network'!V14)*90,""),"")</f>
         <v>2.3841059602649008</v>
       </c>
-      <c r="W14" s="11" t="str">
+      <c r="W14" s="21" t="str">
         <f>IF('mins network'!W14&gt;270,IFERROR(('pass network'!W14/'mins network'!W14)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="16">
         <f>IF('mins network'!X14&gt;270,IFERROR(('pass network'!X14/'mins network'!X14)*90,""),"")</f>
         <v>4.7295208655332308</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y14" s="14">
+        <v>0.74949899799599196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="17">
         <f>IF('mins network'!C15&gt;270,IFERROR(('pass network'!C15/'mins network'!C15)*90,""),"")</f>
         <v>0.45408678102926342</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="18">
         <f>IF('mins network'!D15&gt;270,IFERROR(('pass network'!D15/'mins network'!D15)*90,""),"")</f>
         <v>2.2294654498044326</v>
       </c>
@@ -10227,7 +10266,7 @@
         <f>IF('mins network'!E15&gt;270,IFERROR(('pass network'!E15/'mins network'!E15)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="17">
         <f>IF('mins network'!F15&gt;270,IFERROR(('pass network'!F15/'mins network'!F15)*90,""),"")</f>
         <v>5.3560042507970245</v>
       </c>
@@ -10251,7 +10290,7 @@
         <f>IF('mins network'!K15&gt;270,IFERROR(('pass network'!K15/'mins network'!K15)*90,""),"")</f>
         <v>5.6497797356828192</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="18">
         <f>IF('mins network'!L15&gt;270,IFERROR(('pass network'!L15/'mins network'!L15)*90,""),"")</f>
         <v>5.0331125827814569</v>
       </c>
@@ -10259,7 +10298,7 @@
         <f>IF('mins network'!M15&gt;270,IFERROR(('pass network'!M15/'mins network'!M15)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="17">
         <f>IF('mins network'!N15&gt;270,IFERROR(('pass network'!N15/'mins network'!N15)*90,""),"")</f>
         <v>7.1486761710794298</v>
       </c>
@@ -10275,11 +10314,11 @@
         <f>IF('mins network'!Q15&gt;270,IFERROR(('pass network'!Q15/'mins network'!Q15)*90,""),"")</f>
         <v>4.2495784148397977</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="18">
         <f>IF('mins network'!R15&gt;270,IFERROR(('pass network'!R15/'mins network'!R15)*90,""),"")</f>
         <v>2.674230145867099</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="17">
         <f>IF('mins network'!S15&gt;270,IFERROR(('pass network'!S15/'mins network'!S15)*90,""),"")</f>
         <v>5.833333333333333</v>
       </c>
@@ -10299,23 +10338,26 @@
         <f>IF('mins network'!W15&gt;270,IFERROR(('pass network'!W15/'mins network'!W15)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="18">
         <f>IF('mins network'!X15&gt;270,IFERROR(('pass network'!X15/'mins network'!X15)*90,""),"")</f>
         <v>4.2211928199189348</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="14">
+        <v>0.82597173144876301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="17" t="str">
         <f>IF('mins network'!C16&gt;270,IFERROR(('pass network'!C16/'mins network'!C16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="18" t="str">
         <f>IF('mins network'!D16&gt;270,IFERROR(('pass network'!D16/'mins network'!D16)*90,""),"")</f>
         <v/>
       </c>
@@ -10323,7 +10365,7 @@
         <f>IF('mins network'!E16&gt;270,IFERROR(('pass network'!E16/'mins network'!E16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="17">
         <f>IF('mins network'!F16&gt;270,IFERROR(('pass network'!F16/'mins network'!F16)*90,""),"")</f>
         <v>1.2203389830508473</v>
       </c>
@@ -10347,7 +10389,7 @@
         <f>IF('mins network'!K16&gt;270,IFERROR(('pass network'!K16/'mins network'!K16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="18">
         <f>IF('mins network'!L16&gt;270,IFERROR(('pass network'!L16/'mins network'!L16)*90,""),"")</f>
         <v>6.25</v>
       </c>
@@ -10355,7 +10397,7 @@
         <f>IF('mins network'!M16&gt;270,IFERROR(('pass network'!M16/'mins network'!M16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="17">
         <f>IF('mins network'!N16&gt;270,IFERROR(('pass network'!N16/'mins network'!N16)*90,""),"")</f>
         <v>4.4839857651245554</v>
       </c>
@@ -10371,11 +10413,11 @@
         <f>IF('mins network'!Q16&gt;270,IFERROR(('pass network'!Q16/'mins network'!Q16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="18">
         <f>IF('mins network'!R16&gt;270,IFERROR(('pass network'!R16/'mins network'!R16)*90,""),"")</f>
         <v>2.4406779661016946</v>
       </c>
-      <c r="S16" s="11" t="str">
+      <c r="S16" s="17" t="str">
         <f>IF('mins network'!S16&gt;270,IFERROR(('pass network'!S16/'mins network'!S16)*90,""),"")</f>
         <v/>
       </c>
@@ -10395,23 +10437,26 @@
         <f>IF('mins network'!W16&gt;270,IFERROR(('pass network'!W16/'mins network'!W16)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="18">
         <f>IF('mins network'!X16&gt;270,IFERROR(('pass network'!X16/'mins network'!X16)*90,""),"")</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="14">
+        <v>0.65573770491803296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="17">
         <f>IF('mins network'!C17&gt;270,IFERROR(('pass network'!C17/'mins network'!C17)*90,""),"")</f>
         <v>1.3152400835073068</v>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="18" t="str">
         <f>IF('mins network'!D17&gt;270,IFERROR(('pass network'!D17/'mins network'!D17)*90,""),"")</f>
         <v/>
       </c>
@@ -10419,7 +10464,7 @@
         <f>IF('mins network'!E17&gt;270,IFERROR(('pass network'!E17/'mins network'!E17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="17">
         <f>IF('mins network'!F17&gt;270,IFERROR(('pass network'!F17/'mins network'!F17)*90,""),"")</f>
         <v>10.472175379426645</v>
       </c>
@@ -10443,7 +10488,7 @@
         <f>IF('mins network'!K17&gt;270,IFERROR(('pass network'!K17/'mins network'!K17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L17" s="11" t="str">
+      <c r="L17" s="18" t="str">
         <f>IF('mins network'!L17&gt;270,IFERROR(('pass network'!L17/'mins network'!L17)*90,""),"")</f>
         <v/>
       </c>
@@ -10451,7 +10496,7 @@
         <f>IF('mins network'!M17&gt;270,IFERROR(('pass network'!M17/'mins network'!M17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="17">
         <f>IF('mins network'!N17&gt;270,IFERROR(('pass network'!N17/'mins network'!N17)*90,""),"")</f>
         <v>4.704890387858347</v>
       </c>
@@ -10467,11 +10512,11 @@
         <f>IF('mins network'!Q17&gt;270,IFERROR(('pass network'!Q17/'mins network'!Q17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="18">
         <f>IF('mins network'!R17&gt;270,IFERROR(('pass network'!R17/'mins network'!R17)*90,""),"")</f>
         <v>4.0106951871657754</v>
       </c>
-      <c r="S17" s="11" t="str">
+      <c r="S17" s="17" t="str">
         <f>IF('mins network'!S17&gt;270,IFERROR(('pass network'!S17/'mins network'!S17)*90,""),"")</f>
         <v/>
       </c>
@@ -10491,23 +10536,26 @@
         <f>IF('mins network'!W17&gt;270,IFERROR(('pass network'!W17/'mins network'!W17)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="18">
         <f>IF('mins network'!X17&gt;270,IFERROR(('pass network'!X17/'mins network'!X17)*90,""),"")</f>
         <v>5.7065217391304355</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="14">
+        <v>0.77717391304347805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="19">
         <f>IF('mins network'!C18&gt;270,IFERROR(('pass network'!C18/'mins network'!C18)*90,""),"")</f>
         <v>0.57446808510638292</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="20">
         <f>IF('mins network'!D18&gt;270,IFERROR(('pass network'!D18/'mins network'!D18)*90,""),"")</f>
         <v>0.23809523809523808</v>
       </c>
@@ -10515,31 +10563,31 @@
         <f>IF('mins network'!E18&gt;270,IFERROR(('pass network'!E18/'mins network'!E18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="19">
         <f>IF('mins network'!F18&gt;270,IFERROR(('pass network'!F18/'mins network'!F18)*90,""),"")</f>
         <v>5.5879120879120876</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="22">
         <f>IF('mins network'!G18&gt;270,IFERROR(('pass network'!G18/'mins network'!G18)*90,""),"")</f>
         <v>4.5590994371482179</v>
       </c>
-      <c r="H18" s="11" t="str">
+      <c r="H18" s="22" t="str">
         <f>IF('mins network'!H18&gt;270,IFERROR(('pass network'!H18/'mins network'!H18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="22">
         <f>IF('mins network'!I18&gt;270,IFERROR(('pass network'!I18/'mins network'!I18)*90,""),"")</f>
         <v>4.6051167964404893</v>
       </c>
-      <c r="J18" s="11" t="str">
+      <c r="J18" s="22" t="str">
         <f>IF('mins network'!J18&gt;270,IFERROR(('pass network'!J18/'mins network'!J18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="22">
         <f>IF('mins network'!K18&gt;270,IFERROR(('pass network'!K18/'mins network'!K18)*90,""),"")</f>
         <v>3.1776765375854215</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="20">
         <f>IF('mins network'!L18&gt;270,IFERROR(('pass network'!L18/'mins network'!L18)*90,""),"")</f>
         <v>3.687405159332322</v>
       </c>
@@ -10547,63 +10595,66 @@
         <f>IF('mins network'!M18&gt;270,IFERROR(('pass network'!M18/'mins network'!M18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="19">
         <f>IF('mins network'!N18&gt;270,IFERROR(('pass network'!N18/'mins network'!N18)*90,""),"")</f>
         <v>4.2097802976612337</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="22">
         <f>IF('mins network'!O18&gt;270,IFERROR(('pass network'!O18/'mins network'!O18)*90,""),"")</f>
         <v>4.5218800648298219</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="22">
         <f>IF('mins network'!P18&gt;270,IFERROR(('pass network'!P18/'mins network'!P18)*90,""),"")</f>
         <v>3.9661016949152543</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="22">
         <f>IF('mins network'!Q18&gt;270,IFERROR(('pass network'!Q18/'mins network'!Q18)*90,""),"")</f>
         <v>5.2941176470588234</v>
       </c>
-      <c r="R18" s="11" t="str">
+      <c r="R18" s="20" t="str">
         <f>IF('mins network'!R18&gt;270,IFERROR(('pass network'!R18/'mins network'!R18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="19">
         <f>IF('mins network'!S18&gt;270,IFERROR(('pass network'!S18/'mins network'!S18)*90,""),"")</f>
         <v>3.9272727272727277</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="22">
         <f>IF('mins network'!T18&gt;270,IFERROR(('pass network'!T18/'mins network'!T18)*90,""),"")</f>
         <v>4.0316205533596836</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="22">
         <f>IF('mins network'!U18&gt;270,IFERROR(('pass network'!U18/'mins network'!U18)*90,""),"")</f>
         <v>2.0852017937219731</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="22">
         <f>IF('mins network'!V18&gt;270,IFERROR(('pass network'!V18/'mins network'!V18)*90,""),"")</f>
         <v>1.6423357664233575</v>
       </c>
-      <c r="W18" s="11" t="str">
+      <c r="W18" s="22" t="str">
         <f>IF('mins network'!W18&gt;270,IFERROR(('pass network'!W18/'mins network'!W18)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="20">
         <f>IF('mins network'!X18&gt;270,IFERROR(('pass network'!X18/'mins network'!X18)*90,""),"")</f>
         <v>3.9459459459459456</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="14">
+        <v>0.82224645583424205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11" t="str">
+      <c r="C19" s="15" t="str">
         <f>IF('mins network'!C19&gt;270,IFERROR(('pass network'!C19/'mins network'!C19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF('mins network'!D19&gt;270,IFERROR(('pass network'!D19/'mins network'!D19)*90,""),"")</f>
         <v/>
       </c>
@@ -10611,31 +10662,31 @@
         <f>IF('mins network'!E19&gt;270,IFERROR(('pass network'!E19/'mins network'!E19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="15">
         <f>IF('mins network'!F19&gt;270,IFERROR(('pass network'!F19/'mins network'!F19)*90,""),"")</f>
         <v>0.28125</v>
       </c>
-      <c r="G19" s="11" t="str">
+      <c r="G19" s="21" t="str">
         <f>IF('mins network'!G19&gt;270,IFERROR(('pass network'!G19/'mins network'!G19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="H19" s="11" t="str">
+      <c r="H19" s="21" t="str">
         <f>IF('mins network'!H19&gt;270,IFERROR(('pass network'!H19/'mins network'!H19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="21">
         <f>IF('mins network'!I19&gt;270,IFERROR(('pass network'!I19/'mins network'!I19)*90,""),"")</f>
         <v>0.86816720257234736</v>
       </c>
-      <c r="J19" s="11" t="str">
+      <c r="J19" s="21" t="str">
         <f>IF('mins network'!J19&gt;270,IFERROR(('pass network'!J19/'mins network'!J19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="21">
         <f>IF('mins network'!K19&gt;270,IFERROR(('pass network'!K19/'mins network'!K19)*90,""),"")</f>
         <v>1.25</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="16">
         <f>IF('mins network'!L19&gt;270,IFERROR(('pass network'!L19/'mins network'!L19)*90,""),"")</f>
         <v>7.6383763837638377</v>
       </c>
@@ -10643,63 +10694,66 @@
         <f>IF('mins network'!M19&gt;270,IFERROR(('pass network'!M19/'mins network'!M19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N19" s="11" t="str">
+      <c r="N19" s="15" t="str">
         <f>IF('mins network'!N19&gt;270,IFERROR(('pass network'!N19/'mins network'!N19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="21">
         <f>IF('mins network'!O19&gt;270,IFERROR(('pass network'!O19/'mins network'!O19)*90,""),"")</f>
         <v>3.6111111111111107</v>
       </c>
-      <c r="P19" s="11" t="str">
+      <c r="P19" s="21" t="str">
         <f>IF('mins network'!P19&gt;270,IFERROR(('pass network'!P19/'mins network'!P19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="11" t="str">
+      <c r="Q19" s="21" t="str">
         <f>IF('mins network'!Q19&gt;270,IFERROR(('pass network'!Q19/'mins network'!Q19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="16">
         <f>IF('mins network'!R19&gt;270,IFERROR(('pass network'!R19/'mins network'!R19)*90,""),"")</f>
         <v>3.6</v>
       </c>
-      <c r="S19" s="11" t="str">
+      <c r="S19" s="15" t="str">
         <f>IF('mins network'!S19&gt;270,IFERROR(('pass network'!S19/'mins network'!S19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="T19" s="11" t="str">
+      <c r="T19" s="21" t="str">
         <f>IF('mins network'!T19&gt;270,IFERROR(('pass network'!T19/'mins network'!T19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="U19" s="11" t="str">
+      <c r="U19" s="21" t="str">
         <f>IF('mins network'!U19&gt;270,IFERROR(('pass network'!U19/'mins network'!U19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="V19" s="11" t="str">
+      <c r="V19" s="21" t="str">
         <f>IF('mins network'!V19&gt;270,IFERROR(('pass network'!V19/'mins network'!V19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="W19" s="11" t="str">
+      <c r="W19" s="21" t="str">
         <f>IF('mins network'!W19&gt;270,IFERROR(('pass network'!W19/'mins network'!W19)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="16">
         <f>IF('mins network'!X19&gt;270,IFERROR(('pass network'!X19/'mins network'!X19)*90,""),"")</f>
         <v>5.2777777777777777</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="14">
+        <v>0.75384615384615405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="17">
         <f>IF('mins network'!C20&gt;270,IFERROR(('pass network'!C20/'mins network'!C20)*90,""),"")</f>
         <v>0</v>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="18" t="str">
         <f>IF('mins network'!D20&gt;270,IFERROR(('pass network'!D20/'mins network'!D20)*90,""),"")</f>
         <v/>
       </c>
@@ -10707,7 +10761,7 @@
         <f>IF('mins network'!E20&gt;270,IFERROR(('pass network'!E20/'mins network'!E20)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="17">
         <f>IF('mins network'!F20&gt;270,IFERROR(('pass network'!F20/'mins network'!F20)*90,""),"")</f>
         <v>0.6758448060075094</v>
       </c>
@@ -10731,7 +10785,7 @@
         <f>IF('mins network'!K20&gt;270,IFERROR(('pass network'!K20/'mins network'!K20)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="18">
         <f>IF('mins network'!L20&gt;270,IFERROR(('pass network'!L20/'mins network'!L20)*90,""),"")</f>
         <v>8.741721854304636</v>
       </c>
@@ -10739,7 +10793,7 @@
         <f>IF('mins network'!M20&gt;270,IFERROR(('pass network'!M20/'mins network'!M20)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="17">
         <f>IF('mins network'!N20&gt;270,IFERROR(('pass network'!N20/'mins network'!N20)*90,""),"")</f>
         <v>4.0550688360450557</v>
       </c>
@@ -10755,11 +10809,11 @@
         <f>IF('mins network'!Q20&gt;270,IFERROR(('pass network'!Q20/'mins network'!Q20)*90,""),"")</f>
         <v>1.2529002320185614</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="18">
         <f>IF('mins network'!R20&gt;270,IFERROR(('pass network'!R20/'mins network'!R20)*90,""),"")</f>
         <v>4.3873517786561269</v>
       </c>
-      <c r="S20" s="11" t="str">
+      <c r="S20" s="17" t="str">
         <f>IF('mins network'!S20&gt;270,IFERROR(('pass network'!S20/'mins network'!S20)*90,""),"")</f>
         <v/>
       </c>
@@ -10779,23 +10833,26 @@
         <f>IF('mins network'!W20&gt;270,IFERROR(('pass network'!W20/'mins network'!W20)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="18">
         <f>IF('mins network'!X20&gt;270,IFERROR(('pass network'!X20/'mins network'!X20)*90,""),"")</f>
         <v>3.0483870967741939</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="14">
+        <v>0.69784172661870503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="17">
         <f>IF('mins network'!C21&gt;270,IFERROR(('pass network'!C21/'mins network'!C21)*90,""),"")</f>
         <v>0.91172214182344424</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="18">
         <f>IF('mins network'!D21&gt;270,IFERROR(('pass network'!D21/'mins network'!D21)*90,""),"")</f>
         <v>0</v>
       </c>
@@ -10803,7 +10860,7 @@
         <f>IF('mins network'!E21&gt;270,IFERROR(('pass network'!E21/'mins network'!E21)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="17">
         <f>IF('mins network'!F21&gt;270,IFERROR(('pass network'!F21/'mins network'!F21)*90,""),"")</f>
         <v>1.6447368421052631</v>
       </c>
@@ -10827,7 +10884,7 @@
         <f>IF('mins network'!K21&gt;270,IFERROR(('pass network'!K21/'mins network'!K21)*90,""),"")</f>
         <v>1.5940054495912808</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="18">
         <f>IF('mins network'!L21&gt;270,IFERROR(('pass network'!L21/'mins network'!L21)*90,""),"")</f>
         <v>0.8428720083246618</v>
       </c>
@@ -10835,7 +10892,7 @@
         <f>IF('mins network'!M21&gt;270,IFERROR(('pass network'!M21/'mins network'!M21)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="17">
         <f>IF('mins network'!N21&gt;270,IFERROR(('pass network'!N21/'mins network'!N21)*90,""),"")</f>
         <v>1.9545903257650543</v>
       </c>
@@ -10851,11 +10908,11 @@
         <f>IF('mins network'!Q21&gt;270,IFERROR(('pass network'!Q21/'mins network'!Q21)*90,""),"")</f>
         <v>0.43165467625899279</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="18">
         <f>IF('mins network'!R21&gt;270,IFERROR(('pass network'!R21/'mins network'!R21)*90,""),"")</f>
         <v>2.4887892376681613</v>
       </c>
-      <c r="S21" s="11" t="str">
+      <c r="S21" s="17" t="str">
         <f>IF('mins network'!S21&gt;270,IFERROR(('pass network'!S21/'mins network'!S21)*90,""),"")</f>
         <v/>
       </c>
@@ -10875,23 +10932,26 @@
         <f>IF('mins network'!W21&gt;270,IFERROR(('pass network'!W21/'mins network'!W21)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="18">
         <f>IF('mins network'!X21&gt;270,IFERROR(('pass network'!X21/'mins network'!X21)*90,""),"")</f>
         <v>2.5714285714285712</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="14">
+        <v>0.74715261958997703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="17">
         <f>IF('mins network'!C22&gt;270,IFERROR(('pass network'!C22/'mins network'!C22)*90,""),"")</f>
         <v>0</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="18">
         <f>IF('mins network'!D22&gt;270,IFERROR(('pass network'!D22/'mins network'!D22)*90,""),"")</f>
         <v>0</v>
       </c>
@@ -10899,7 +10959,7 @@
         <f>IF('mins network'!E22&gt;270,IFERROR(('pass network'!E22/'mins network'!E22)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="17">
         <f>IF('mins network'!F22&gt;270,IFERROR(('pass network'!F22/'mins network'!F22)*90,""),"")</f>
         <v>0.33613445378151263</v>
       </c>
@@ -10923,7 +10983,7 @@
         <f>IF('mins network'!K22&gt;270,IFERROR(('pass network'!K22/'mins network'!K22)*90,""),"")</f>
         <v>0.33707865168539325</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="18">
         <f>IF('mins network'!L22&gt;270,IFERROR(('pass network'!L22/'mins network'!L22)*90,""),"")</f>
         <v>1.3196480938416424</v>
       </c>
@@ -10931,7 +10991,7 @@
         <f>IF('mins network'!M22&gt;270,IFERROR(('pass network'!M22/'mins network'!M22)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="17">
         <f>IF('mins network'!N22&gt;270,IFERROR(('pass network'!N22/'mins network'!N22)*90,""),"")</f>
         <v>1.3907284768211921</v>
       </c>
@@ -10947,11 +11007,11 @@
         <f>IF('mins network'!Q22&gt;270,IFERROR(('pass network'!Q22/'mins network'!Q22)*90,""),"")</f>
         <v>0.20408163265306123</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="18">
         <f>IF('mins network'!R22&gt;270,IFERROR(('pass network'!R22/'mins network'!R22)*90,""),"")</f>
         <v>1.2317518248175183</v>
       </c>
-      <c r="S22" s="11" t="str">
+      <c r="S22" s="17" t="str">
         <f>IF('mins network'!S22&gt;270,IFERROR(('pass network'!S22/'mins network'!S22)*90,""),"")</f>
         <v/>
       </c>
@@ -10971,23 +11031,26 @@
         <f>IF('mins network'!W22&gt;270,IFERROR(('pass network'!W22/'mins network'!W22)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="18">
         <f>IF('mins network'!X22&gt;270,IFERROR(('pass network'!X22/'mins network'!X22)*90,""),"")</f>
         <v>2.7329842931937174</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="14">
+        <v>0.58419243986254299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="11" t="str">
+      <c r="C23" s="17" t="str">
         <f>IF('mins network'!C23&gt;270,IFERROR(('pass network'!C23/'mins network'!C23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="18" t="str">
         <f>IF('mins network'!D23&gt;270,IFERROR(('pass network'!D23/'mins network'!D23)*90,""),"")</f>
         <v/>
       </c>
@@ -10995,7 +11058,7 @@
         <f>IF('mins network'!E23&gt;270,IFERROR(('pass network'!E23/'mins network'!E23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="17" t="str">
         <f>IF('mins network'!F23&gt;270,IFERROR(('pass network'!F23/'mins network'!F23)*90,""),"")</f>
         <v/>
       </c>
@@ -11019,7 +11082,7 @@
         <f>IF('mins network'!K23&gt;270,IFERROR(('pass network'!K23/'mins network'!K23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="18" t="str">
         <f>IF('mins network'!L23&gt;270,IFERROR(('pass network'!L23/'mins network'!L23)*90,""),"")</f>
         <v/>
       </c>
@@ -11027,7 +11090,7 @@
         <f>IF('mins network'!M23&gt;270,IFERROR(('pass network'!M23/'mins network'!M23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N23" s="11" t="str">
+      <c r="N23" s="17" t="str">
         <f>IF('mins network'!N23&gt;270,IFERROR(('pass network'!N23/'mins network'!N23)*90,""),"")</f>
         <v/>
       </c>
@@ -11043,11 +11106,11 @@
         <f>IF('mins network'!Q23&gt;270,IFERROR(('pass network'!Q23/'mins network'!Q23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="R23" s="11" t="str">
+      <c r="R23" s="18" t="str">
         <f>IF('mins network'!R23&gt;270,IFERROR(('pass network'!R23/'mins network'!R23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="S23" s="11" t="str">
+      <c r="S23" s="17" t="str">
         <f>IF('mins network'!S23&gt;270,IFERROR(('pass network'!S23/'mins network'!S23)*90,""),"")</f>
         <v/>
       </c>
@@ -11067,23 +11130,24 @@
         <f>IF('mins network'!W23&gt;270,IFERROR(('pass network'!W23/'mins network'!W23)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X23" s="11" t="str">
+      <c r="X23" s="18" t="str">
         <f>IF('mins network'!X23&gt;270,IFERROR(('pass network'!X23/'mins network'!X23)*90,""),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y23" s="14"/>
+    </row>
+    <row r="24" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="19">
         <f>IF('mins network'!C24&gt;270,IFERROR(('pass network'!C24/'mins network'!C24)*90,""),"")</f>
         <v>0</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="20">
         <f>IF('mins network'!D24&gt;270,IFERROR(('pass network'!D24/'mins network'!D24)*90,""),"")</f>
         <v>0</v>
       </c>
@@ -11091,31 +11155,31 @@
         <f>IF('mins network'!E24&gt;270,IFERROR(('pass network'!E24/'mins network'!E24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="19">
         <f>IF('mins network'!F24&gt;270,IFERROR(('pass network'!F24/'mins network'!F24)*90,""),"")</f>
         <v>3.6993540810334702</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="22">
         <f>IF('mins network'!G24&gt;270,IFERROR(('pass network'!G24/'mins network'!G24)*90,""),"")</f>
         <v>0.66852367688022285</v>
       </c>
-      <c r="H24" s="11" t="str">
+      <c r="H24" s="22" t="str">
         <f>IF('mins network'!H24&gt;270,IFERROR(('pass network'!H24/'mins network'!H24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="22">
         <f>IF('mins network'!I24&gt;270,IFERROR(('pass network'!I24/'mins network'!I24)*90,""),"")</f>
         <v>1.4455681142177275</v>
       </c>
-      <c r="J24" s="11" t="str">
+      <c r="J24" s="22" t="str">
         <f>IF('mins network'!J24&gt;270,IFERROR(('pass network'!J24/'mins network'!J24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="22">
         <f>IF('mins network'!K24&gt;270,IFERROR(('pass network'!K24/'mins network'!K24)*90,""),"")</f>
         <v>3.8297872340425529</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="20">
         <f>IF('mins network'!L24&gt;270,IFERROR(('pass network'!L24/'mins network'!L24)*90,""),"")</f>
         <v>2.5394190871369293</v>
       </c>
@@ -11123,55 +11187,129 @@
         <f>IF('mins network'!M24&gt;270,IFERROR(('pass network'!M24/'mins network'!M24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="19">
         <f>IF('mins network'!N24&gt;270,IFERROR(('pass network'!N24/'mins network'!N24)*90,""),"")</f>
         <v>3.6862442040185472</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="22">
         <f>IF('mins network'!O24&gt;270,IFERROR(('pass network'!O24/'mins network'!O24)*90,""),"")</f>
         <v>4.5338737695425593</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="22">
         <f>IF('mins network'!P24&gt;270,IFERROR(('pass network'!P24/'mins network'!P24)*90,""),"")</f>
         <v>2.5</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="22">
         <f>IF('mins network'!Q24&gt;270,IFERROR(('pass network'!Q24/'mins network'!Q24)*90,""),"")</f>
         <v>5.8695652173913038</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="20">
         <f>IF('mins network'!R24&gt;270,IFERROR(('pass network'!R24/'mins network'!R24)*90,""),"")</f>
         <v>3.5675675675675675</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="19">
         <f>IF('mins network'!S24&gt;270,IFERROR(('pass network'!S24/'mins network'!S24)*90,""),"")</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="22">
         <f>IF('mins network'!T24&gt;270,IFERROR(('pass network'!T24/'mins network'!T24)*90,""),"")</f>
         <v>1.596774193548387</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="22">
         <f>IF('mins network'!U24&gt;270,IFERROR(('pass network'!U24/'mins network'!U24)*90,""),"")</f>
         <v>2.4244897959183676</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="22">
         <f>IF('mins network'!V24&gt;270,IFERROR(('pass network'!V24/'mins network'!V24)*90,""),"")</f>
         <v>3.9581151832460733</v>
       </c>
-      <c r="W24" s="11" t="str">
+      <c r="W24" s="22" t="str">
         <f>IF('mins network'!W24&gt;270,IFERROR(('pass network'!W24/'mins network'!W24)*90,""),"")</f>
         <v/>
       </c>
-      <c r="X24" s="11" t="str">
+      <c r="X24" s="20" t="str">
         <f>IF('mins network'!X24&gt;270,IFERROR(('pass network'!X24/'mins network'!X24)*90,""),"")</f>
         <v/>
+      </c>
+      <c r="Y24" s="14">
+        <v>0.77729885057471304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.84821428571428603</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <v>0.82696629213483097</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.84626865671641804</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
+        <v>0.86410256410256403</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
+        <v>0.69651741293532299</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0.77937336814621405</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14">
+        <v>0.74949899799599196</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.82597173144876301</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0.65573770491803296</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0.82224645583424205</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0.75384615384615405</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0.69784172661870503</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0.74715261958997703</v>
+      </c>
+      <c r="V25" s="14">
+        <v>0.58419243986254299</v>
+      </c>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14">
+        <v>0.77729885057471304</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:X24">
-    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
       <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:X24">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:X24">
@@ -11184,7 +11322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D24">
+  <conditionalFormatting sqref="C6:X6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -11194,7 +11332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F24">
+  <conditionalFormatting sqref="C7:X7">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -11204,7 +11342,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G24">
+  <conditionalFormatting sqref="C9:X9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -11214,7 +11352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J24">
+  <conditionalFormatting sqref="C11:X11">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -11224,7 +11362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I24">
+  <conditionalFormatting sqref="C12:X12">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -11234,7 +11372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L24">
+  <conditionalFormatting sqref="C14:X14">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -11244,7 +11382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N24">
+  <conditionalFormatting sqref="C15:X15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -11254,7 +11392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O24">
+  <conditionalFormatting sqref="C16:X16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -11264,7 +11402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P24">
+  <conditionalFormatting sqref="C17:X17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -11274,7 +11412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q24">
+  <conditionalFormatting sqref="C18:X18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -11284,7 +11422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R24">
+  <conditionalFormatting sqref="C19:X19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -11294,7 +11432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S24">
+  <conditionalFormatting sqref="C20:X20">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -11304,7 +11442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T24">
+  <conditionalFormatting sqref="C21:X21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11314,7 +11452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U24">
+  <conditionalFormatting sqref="C22:X22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11324,8 +11462,2586 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C25:X25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="22" width="8.33203125" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="65" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>IF('mins network'!C3&gt;270,IFERROR(('pass network'!C3/'mins network'!C3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f>IF('mins network'!D3&gt;270,IFERROR(('pass network'!D3/'mins network'!D3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f>IF('mins network'!E3&gt;270,IFERROR(('pass network'!E3/'mins network'!E3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F3" s="15">
+        <f>IF('mins network'!F3&gt;270,IFERROR(('pass network'!F3/'mins network'!F3)*90,""),"")</f>
+        <v>5.6813627254509012</v>
+      </c>
+      <c r="G3" s="21">
+        <f>IF('mins network'!G3&gt;270,IFERROR(('pass network'!G3/'mins network'!G3)*90,""),"")</f>
+        <v>4.0785498489425978</v>
+      </c>
+      <c r="H3" s="21" t="str">
+        <f>IF('mins network'!H3&gt;270,IFERROR(('pass network'!H3/'mins network'!H3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I3" s="21">
+        <f>IF('mins network'!I3&gt;270,IFERROR(('pass network'!I3/'mins network'!I3)*90,""),"")</f>
+        <v>7.1242484969939879</v>
+      </c>
+      <c r="J3" s="21" t="str">
+        <f>IF('mins network'!J3&gt;270,IFERROR(('pass network'!J3/'mins network'!J3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K3" s="21">
+        <f>IF('mins network'!K3&gt;270,IFERROR(('pass network'!K3/'mins network'!K3)*90,""),"")</f>
+        <v>1.171875</v>
+      </c>
+      <c r="L3" s="16">
+        <f>IF('mins network'!L3&gt;270,IFERROR(('pass network'!L3/'mins network'!L3)*90,""),"")</f>
+        <v>1.2426035502958579</v>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f>IF('mins network'!M3&gt;270,IFERROR(('pass network'!M3/'mins network'!M3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N3" s="15">
+        <f>IF('mins network'!N3&gt;270,IFERROR(('pass network'!N3/'mins network'!N3)*90,""),"")</f>
+        <v>1.9933554817275749</v>
+      </c>
+      <c r="O3" s="21">
+        <f>IF('mins network'!O3&gt;270,IFERROR(('pass network'!O3/'mins network'!O3)*90,""),"")</f>
+        <v>0.54490413723511599</v>
+      </c>
+      <c r="P3" s="21" t="str">
+        <f>IF('mins network'!P3&gt;270,IFERROR(('pass network'!P3/'mins network'!P3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q3" s="21">
+        <f>IF('mins network'!Q3&gt;270,IFERROR(('pass network'!Q3/'mins network'!Q3)*90,""),"")</f>
+        <v>1.1273486430062631</v>
+      </c>
+      <c r="R3" s="16">
+        <f>IF('mins network'!R3&gt;270,IFERROR(('pass network'!R3/'mins network'!R3)*90,""),"")</f>
+        <v>0.57446808510638292</v>
+      </c>
+      <c r="S3" s="15" t="str">
+        <f>IF('mins network'!S3&gt;270,IFERROR(('pass network'!S3/'mins network'!S3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T3" s="21">
+        <f>IF('mins network'!T3&gt;270,IFERROR(('pass network'!T3/'mins network'!T3)*90,""),"")</f>
+        <v>0.27950310559006208</v>
+      </c>
+      <c r="U3" s="21">
+        <f>IF('mins network'!U3&gt;270,IFERROR(('pass network'!U3/'mins network'!U3)*90,""),"")</f>
+        <v>0.39073806078147616</v>
+      </c>
+      <c r="V3" s="21">
+        <f>IF('mins network'!V3&gt;270,IFERROR(('pass network'!V3/'mins network'!V3)*90,""),"")</f>
+        <v>0.27149321266968329</v>
+      </c>
+      <c r="W3" s="21" t="str">
+        <f>IF('mins network'!W3&gt;270,IFERROR(('pass network'!W3/'mins network'!W3)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X3" s="16">
+        <f>IF('mins network'!X3&gt;270,IFERROR(('pass network'!X3/'mins network'!X3)*90,""),"")</f>
+        <v>0.76086956521739124</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0.76767676767676796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>IF('mins network'!C4&gt;270,IFERROR(('pass network'!C4/'mins network'!C4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f>IF('mins network'!D4&gt;270,IFERROR(('pass network'!D4/'mins network'!D4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f>IF('mins network'!E4&gt;270,IFERROR(('pass network'!E4/'mins network'!E4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F4" s="19">
+        <f>IF('mins network'!F4&gt;270,IFERROR(('pass network'!F4/'mins network'!F4)*90,""),"")</f>
+        <v>6.2364130434782608</v>
+      </c>
+      <c r="G4" s="22">
+        <f>IF('mins network'!G4&gt;270,IFERROR(('pass network'!G4/'mins network'!G4)*90,""),"")</f>
+        <v>13.00578034682081</v>
+      </c>
+      <c r="H4" s="22" t="str">
+        <f>IF('mins network'!H4&gt;270,IFERROR(('pass network'!H4/'mins network'!H4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I4" s="22">
+        <f>IF('mins network'!I4&gt;270,IFERROR(('pass network'!I4/'mins network'!I4)*90,""),"")</f>
+        <v>8.4453781512605044</v>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>IF('mins network'!J4&gt;270,IFERROR(('pass network'!J4/'mins network'!J4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="22">
+        <f>IF('mins network'!K4&gt;270,IFERROR(('pass network'!K4/'mins network'!K4)*90,""),"")</f>
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="L4" s="20">
+        <f>IF('mins network'!L4&gt;270,IFERROR(('pass network'!L4/'mins network'!L4)*90,""),"")</f>
+        <v>0.62240663900414939</v>
+      </c>
+      <c r="M4" s="11" t="str">
+        <f>IF('mins network'!M4&gt;270,IFERROR(('pass network'!M4/'mins network'!M4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N4" s="19">
+        <f>IF('mins network'!N4&gt;270,IFERROR(('pass network'!N4/'mins network'!N4)*90,""),"")</f>
+        <v>2.3459715639810423</v>
+      </c>
+      <c r="O4" s="22">
+        <f>IF('mins network'!O4&gt;270,IFERROR(('pass network'!O4/'mins network'!O4)*90,""),"")</f>
+        <v>1.2907431551499347</v>
+      </c>
+      <c r="P4" s="22" t="str">
+        <f>IF('mins network'!P4&gt;270,IFERROR(('pass network'!P4/'mins network'!P4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q4" s="22" t="str">
+        <f>IF('mins network'!Q4&gt;270,IFERROR(('pass network'!Q4/'mins network'!Q4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R4" s="20">
+        <f>IF('mins network'!R4&gt;270,IFERROR(('pass network'!R4/'mins network'!R4)*90,""),"")</f>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="S4" s="19" t="str">
+        <f>IF('mins network'!S4&gt;270,IFERROR(('pass network'!S4/'mins network'!S4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T4" s="22" t="str">
+        <f>IF('mins network'!T4&gt;270,IFERROR(('pass network'!T4/'mins network'!T4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U4" s="22">
+        <f>IF('mins network'!U4&gt;270,IFERROR(('pass network'!U4/'mins network'!U4)*90,""),"")</f>
+        <v>0.70754716981132071</v>
+      </c>
+      <c r="V4" s="22">
+        <f>IF('mins network'!V4&gt;270,IFERROR(('pass network'!V4/'mins network'!V4)*90,""),"")</f>
+        <v>0.52325581395348841</v>
+      </c>
+      <c r="W4" s="22" t="str">
+        <f>IF('mins network'!W4&gt;270,IFERROR(('pass network'!W4/'mins network'!W4)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X4" s="20">
+        <f>IF('mins network'!X4&gt;270,IFERROR(('pass network'!X4/'mins network'!X4)*90,""),"")</f>
+        <v>0.23468057366362449</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0.84821428571428603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f>IF('mins network'!C5&gt;270,IFERROR(('pass network'!C5/'mins network'!C5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f>IF('mins network'!D5&gt;270,IFERROR(('pass network'!D5/'mins network'!D5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>IF('mins network'!E5&gt;270,IFERROR(('pass network'!E5/'mins network'!E5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>IF('mins network'!F5&gt;270,IFERROR(('pass network'!F5/'mins network'!F5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f>IF('mins network'!G5&gt;270,IFERROR(('pass network'!G5/'mins network'!G5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f>IF('mins network'!H5&gt;270,IFERROR(('pass network'!H5/'mins network'!H5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f>IF('mins network'!I5&gt;270,IFERROR(('pass network'!I5/'mins network'!I5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="J5" s="11" t="str">
+        <f>IF('mins network'!J5&gt;270,IFERROR(('pass network'!J5/'mins network'!J5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K5" s="11" t="str">
+        <f>IF('mins network'!K5&gt;270,IFERROR(('pass network'!K5/'mins network'!K5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f>IF('mins network'!L5&gt;270,IFERROR(('pass network'!L5/'mins network'!L5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f>IF('mins network'!M5&gt;270,IFERROR(('pass network'!M5/'mins network'!M5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N5" s="11" t="str">
+        <f>IF('mins network'!N5&gt;270,IFERROR(('pass network'!N5/'mins network'!N5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="O5" s="11" t="str">
+        <f>IF('mins network'!O5&gt;270,IFERROR(('pass network'!O5/'mins network'!O5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="P5" s="11" t="str">
+        <f>IF('mins network'!P5&gt;270,IFERROR(('pass network'!P5/'mins network'!P5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q5" s="11" t="str">
+        <f>IF('mins network'!Q5&gt;270,IFERROR(('pass network'!Q5/'mins network'!Q5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R5" s="11" t="str">
+        <f>IF('mins network'!R5&gt;270,IFERROR(('pass network'!R5/'mins network'!R5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f>IF('mins network'!S5&gt;270,IFERROR(('pass network'!S5/'mins network'!S5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T5" s="11" t="str">
+        <f>IF('mins network'!T5&gt;270,IFERROR(('pass network'!T5/'mins network'!T5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U5" s="11" t="str">
+        <f>IF('mins network'!U5&gt;270,IFERROR(('pass network'!U5/'mins network'!U5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="V5" s="11" t="str">
+        <f>IF('mins network'!V5&gt;270,IFERROR(('pass network'!V5/'mins network'!V5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="W5" s="11" t="str">
+        <f>IF('mins network'!W5&gt;270,IFERROR(('pass network'!W5/'mins network'!W5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X5" s="11" t="str">
+        <f>IF('mins network'!X5&gt;270,IFERROR(('pass network'!X5/'mins network'!X5)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15">
+        <f>IF('mins network'!C6&gt;270,IFERROR(('pass network'!C6/'mins network'!C6)*90,""),"")</f>
+        <v>3.9679358717434874</v>
+      </c>
+      <c r="D6" s="16">
+        <f>IF('mins network'!D6&gt;270,IFERROR(('pass network'!D6/'mins network'!D6)*90,""),"")</f>
+        <v>5.2581521739130439</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>IF('mins network'!E6&gt;270,IFERROR(('pass network'!E6/'mins network'!E6)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="15" t="str">
+        <f>IF('mins network'!F6&gt;270,IFERROR(('pass network'!F6/'mins network'!F6)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="21">
+        <f>IF('mins network'!G6&gt;270,IFERROR(('pass network'!G6/'mins network'!G6)*90,""),"")</f>
+        <v>2.9059829059829063</v>
+      </c>
+      <c r="H6" s="21" t="str">
+        <f>IF('mins network'!H6&gt;270,IFERROR(('pass network'!H6/'mins network'!H6)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="21">
+        <f>IF('mins network'!I6&gt;270,IFERROR(('pass network'!I6/'mins network'!I6)*90,""),"")</f>
+        <v>9.2156862745098049</v>
+      </c>
+      <c r="J6" s="21" t="str">
+        <f>IF('mins network'!J6&gt;270,IFERROR(('pass network'!J6/'mins network'!J6)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K6" s="21">
+        <f>IF('mins network'!K6&gt;270,IFERROR(('pass network'!K6/'mins network'!K6)*90,""),"")</f>
+        <v>7.8393665158371038</v>
+      </c>
+      <c r="L6" s="16">
+        <f>IF('mins network'!L6&gt;270,IFERROR(('pass network'!L6/'mins network'!L6)*90,""),"")</f>
+        <v>1.4157303370786518</v>
+      </c>
+      <c r="M6" s="11" t="str">
+        <f>IF('mins network'!M6&gt;270,IFERROR(('pass network'!M6/'mins network'!M6)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N6" s="15">
+        <f>IF('mins network'!N6&gt;270,IFERROR(('pass network'!N6/'mins network'!N6)*90,""),"")</f>
+        <v>9.378881987577639</v>
+      </c>
+      <c r="O6" s="21">
+        <f>IF('mins network'!O6&gt;270,IFERROR(('pass network'!O6/'mins network'!O6)*90,""),"")</f>
+        <v>6.3124335812964931</v>
+      </c>
+      <c r="P6" s="21">
+        <f>IF('mins network'!P6&gt;270,IFERROR(('pass network'!P6/'mins network'!P6)*90,""),"")</f>
+        <v>3.3559322033898309</v>
+      </c>
+      <c r="Q6" s="21">
+        <f>IF('mins network'!Q6&gt;270,IFERROR(('pass network'!Q6/'mins network'!Q6)*90,""),"")</f>
+        <v>9.8650927487352451</v>
+      </c>
+      <c r="R6" s="16">
+        <f>IF('mins network'!R6&gt;270,IFERROR(('pass network'!R6/'mins network'!R6)*90,""),"")</f>
+        <v>5.4890109890109891</v>
+      </c>
+      <c r="S6" s="15">
+        <f>IF('mins network'!S6&gt;270,IFERROR(('pass network'!S6/'mins network'!S6)*90,""),"")</f>
+        <v>0.5625</v>
+      </c>
+      <c r="T6" s="21">
+        <f>IF('mins network'!T6&gt;270,IFERROR(('pass network'!T6/'mins network'!T6)*90,""),"")</f>
+        <v>1.1264080100125156</v>
+      </c>
+      <c r="U6" s="21">
+        <f>IF('mins network'!U6&gt;270,IFERROR(('pass network'!U6/'mins network'!U6)*90,""),"")</f>
+        <v>2.5657894736842102</v>
+      </c>
+      <c r="V6" s="21">
+        <f>IF('mins network'!V6&gt;270,IFERROR(('pass network'!V6/'mins network'!V6)*90,""),"")</f>
+        <v>1.0924369747899161</v>
+      </c>
+      <c r="W6" s="21" t="str">
+        <f>IF('mins network'!W6&gt;270,IFERROR(('pass network'!W6/'mins network'!W6)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X6" s="16">
+        <f>IF('mins network'!X6&gt;270,IFERROR(('pass network'!X6/'mins network'!X6)*90,""),"")</f>
+        <v>6.5002935995302407</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0.82696629213483097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="17">
+        <f>IF('mins network'!C7&gt;270,IFERROR(('pass network'!C7/'mins network'!C7)*90,""),"")</f>
+        <v>5.4380664652567976</v>
+      </c>
+      <c r="D7" s="18">
+        <f>IF('mins network'!D7&gt;270,IFERROR(('pass network'!D7/'mins network'!D7)*90,""),"")</f>
+        <v>9.104046242774567</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>IF('mins network'!E7&gt;270,IFERROR(('pass network'!E7/'mins network'!E7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="17">
+        <f>IF('mins network'!F7&gt;270,IFERROR(('pass network'!F7/'mins network'!F7)*90,""),"")</f>
+        <v>3.5897435897435899</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f>IF('mins network'!G7&gt;270,IFERROR(('pass network'!G7/'mins network'!G7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f>IF('mins network'!H7&gt;270,IFERROR(('pass network'!H7/'mins network'!H7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="11">
+        <f>IF('mins network'!I7&gt;270,IFERROR(('pass network'!I7/'mins network'!I7)*90,""),"")</f>
+        <v>9.3404461687681852</v>
+      </c>
+      <c r="J7" s="11" t="str">
+        <f>IF('mins network'!J7&gt;270,IFERROR(('pass network'!J7/'mins network'!J7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="11">
+        <f>IF('mins network'!K7&gt;270,IFERROR(('pass network'!K7/'mins network'!K7)*90,""),"")</f>
+        <v>2.4283305227655987</v>
+      </c>
+      <c r="L7" s="18">
+        <f>IF('mins network'!L7&gt;270,IFERROR(('pass network'!L7/'mins network'!L7)*90,""),"")</f>
+        <v>4.6428571428571423</v>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>IF('mins network'!M7&gt;270,IFERROR(('pass network'!M7/'mins network'!M7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="17">
+        <f>IF('mins network'!N7&gt;270,IFERROR(('pass network'!N7/'mins network'!N7)*90,""),"")</f>
+        <v>8.804347826086957</v>
+      </c>
+      <c r="O7" s="11">
+        <f>IF('mins network'!O7&gt;270,IFERROR(('pass network'!O7/'mins network'!O7)*90,""),"")</f>
+        <v>5.1476014760147599</v>
+      </c>
+      <c r="P7" s="11">
+        <f>IF('mins network'!P7&gt;270,IFERROR(('pass network'!P7/'mins network'!P7)*90,""),"")</f>
+        <v>3.3559322033898309</v>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>IF('mins network'!Q7&gt;270,IFERROR(('pass network'!Q7/'mins network'!Q7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R7" s="18">
+        <f>IF('mins network'!R7&gt;270,IFERROR(('pass network'!R7/'mins network'!R7)*90,""),"")</f>
+        <v>4.3902439024390247</v>
+      </c>
+      <c r="S7" s="17" t="str">
+        <f>IF('mins network'!S7&gt;270,IFERROR(('pass network'!S7/'mins network'!S7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>IF('mins network'!T7&gt;270,IFERROR(('pass network'!T7/'mins network'!T7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U7" s="11">
+        <f>IF('mins network'!U7&gt;270,IFERROR(('pass network'!U7/'mins network'!U7)*90,""),"")</f>
+        <v>1.8848167539267018</v>
+      </c>
+      <c r="V7" s="11">
+        <f>IF('mins network'!V7&gt;270,IFERROR(('pass network'!V7/'mins network'!V7)*90,""),"")</f>
+        <v>2.4087591240875912</v>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>IF('mins network'!W7&gt;270,IFERROR(('pass network'!W7/'mins network'!W7)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X7" s="18">
+        <f>IF('mins network'!X7&gt;270,IFERROR(('pass network'!X7/'mins network'!X7)*90,""),"")</f>
+        <v>1.4206128133704734</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0.84626865671641804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>IF('mins network'!C8&gt;270,IFERROR(('pass network'!C8/'mins network'!C8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>IF('mins network'!D8&gt;270,IFERROR(('pass network'!D8/'mins network'!D8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>IF('mins network'!E8&gt;270,IFERROR(('pass network'!E8/'mins network'!E8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="17" t="str">
+        <f>IF('mins network'!F8&gt;270,IFERROR(('pass network'!F8/'mins network'!F8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f>IF('mins network'!G8&gt;270,IFERROR(('pass network'!G8/'mins network'!G8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f>IF('mins network'!H8&gt;270,IFERROR(('pass network'!H8/'mins network'!H8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f>IF('mins network'!I8&gt;270,IFERROR(('pass network'!I8/'mins network'!I8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="J8" s="11" t="str">
+        <f>IF('mins network'!J8&gt;270,IFERROR(('pass network'!J8/'mins network'!J8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="11" t="str">
+        <f>IF('mins network'!K8&gt;270,IFERROR(('pass network'!K8/'mins network'!K8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="18" t="str">
+        <f>IF('mins network'!L8&gt;270,IFERROR(('pass network'!L8/'mins network'!L8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f>IF('mins network'!M8&gt;270,IFERROR(('pass network'!M8/'mins network'!M8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="17" t="str">
+        <f>IF('mins network'!N8&gt;270,IFERROR(('pass network'!N8/'mins network'!N8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="11" t="str">
+        <f>IF('mins network'!O8&gt;270,IFERROR(('pass network'!O8/'mins network'!O8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="11" t="str">
+        <f>IF('mins network'!P8&gt;270,IFERROR(('pass network'!P8/'mins network'!P8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="11" t="str">
+        <f>IF('mins network'!Q8&gt;270,IFERROR(('pass network'!Q8/'mins network'!Q8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R8" s="18" t="str">
+        <f>IF('mins network'!R8&gt;270,IFERROR(('pass network'!R8/'mins network'!R8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="S8" s="17" t="str">
+        <f>IF('mins network'!S8&gt;270,IFERROR(('pass network'!S8/'mins network'!S8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T8" s="11" t="str">
+        <f>IF('mins network'!T8&gt;270,IFERROR(('pass network'!T8/'mins network'!T8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U8" s="11" t="str">
+        <f>IF('mins network'!U8&gt;270,IFERROR(('pass network'!U8/'mins network'!U8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="V8" s="11" t="str">
+        <f>IF('mins network'!V8&gt;270,IFERROR(('pass network'!V8/'mins network'!V8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="W8" s="11" t="str">
+        <f>IF('mins network'!W8&gt;270,IFERROR(('pass network'!W8/'mins network'!W8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X8" s="18" t="str">
+        <f>IF('mins network'!X8&gt;270,IFERROR(('pass network'!X8/'mins network'!X8)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="17">
+        <f>IF('mins network'!C9&gt;270,IFERROR(('pass network'!C9/'mins network'!C9)*90,""),"")</f>
+        <v>4.5991983967935877</v>
+      </c>
+      <c r="D9" s="18">
+        <f>IF('mins network'!D9&gt;270,IFERROR(('pass network'!D9/'mins network'!D9)*90,""),"")</f>
+        <v>6.5546218487394965</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>IF('mins network'!E9&gt;270,IFERROR(('pass network'!E9/'mins network'!E9)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="17">
+        <f>IF('mins network'!F9&gt;270,IFERROR(('pass network'!F9/'mins network'!F9)*90,""),"")</f>
+        <v>9.7549019607843128</v>
+      </c>
+      <c r="G9" s="11">
+        <f>IF('mins network'!G9&gt;270,IFERROR(('pass network'!G9/'mins network'!G9)*90,""),"")</f>
+        <v>9.0785645004849655</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f>IF('mins network'!H9&gt;270,IFERROR(('pass network'!H9/'mins network'!H9)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f>IF('mins network'!I9&gt;270,IFERROR(('pass network'!I9/'mins network'!I9)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="J9" s="11" t="str">
+        <f>IF('mins network'!J9&gt;270,IFERROR(('pass network'!J9/'mins network'!J9)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="11">
+        <f>IF('mins network'!K9&gt;270,IFERROR(('pass network'!K9/'mins network'!K9)*90,""),"")</f>
+        <v>1.7749419953596286</v>
+      </c>
+      <c r="L9" s="18">
+        <f>IF('mins network'!L9&gt;270,IFERROR(('pass network'!L9/'mins network'!L9)*90,""),"")</f>
+        <v>3.8385376999238385</v>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f>IF('mins network'!M9&gt;270,IFERROR(('pass network'!M9/'mins network'!M9)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="17">
+        <f>IF('mins network'!N9&gt;270,IFERROR(('pass network'!N9/'mins network'!N9)*90,""),"")</f>
+        <v>7.9662162162162158</v>
+      </c>
+      <c r="O9" s="11">
+        <f>IF('mins network'!O9&gt;270,IFERROR(('pass network'!O9/'mins network'!O9)*90,""),"")</f>
+        <v>4.209677419354839</v>
+      </c>
+      <c r="P9" s="11">
+        <f>IF('mins network'!P9&gt;270,IFERROR(('pass network'!P9/'mins network'!P9)*90,""),"")</f>
+        <v>0.64056939501779353</v>
+      </c>
+      <c r="Q9" s="11">
+        <f>IF('mins network'!Q9&gt;270,IFERROR(('pass network'!Q9/'mins network'!Q9)*90,""),"")</f>
+        <v>2.2765598650927488</v>
+      </c>
+      <c r="R9" s="18">
+        <f>IF('mins network'!R9&gt;270,IFERROR(('pass network'!R9/'mins network'!R9)*90,""),"")</f>
+        <v>5.806451612903226</v>
+      </c>
+      <c r="S9" s="17">
+        <f>IF('mins network'!S9&gt;270,IFERROR(('pass network'!S9/'mins network'!S9)*90,""),"")</f>
+        <v>0.86816720257234736</v>
+      </c>
+      <c r="T9" s="11">
+        <f>IF('mins network'!T9&gt;270,IFERROR(('pass network'!T9/'mins network'!T9)*90,""),"")</f>
+        <v>3.7171464330413015</v>
+      </c>
+      <c r="U9" s="11">
+        <f>IF('mins network'!U9&gt;270,IFERROR(('pass network'!U9/'mins network'!U9)*90,""),"")</f>
+        <v>2.9713866471019807</v>
+      </c>
+      <c r="V9" s="11">
+        <f>IF('mins network'!V9&gt;270,IFERROR(('pass network'!V9/'mins network'!V9)*90,""),"")</f>
+        <v>3.1261425959780622</v>
+      </c>
+      <c r="W9" s="11" t="str">
+        <f>IF('mins network'!W9&gt;270,IFERROR(('pass network'!W9/'mins network'!W9)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X9" s="18">
+        <f>IF('mins network'!X9&gt;270,IFERROR(('pass network'!X9/'mins network'!X9)*90,""),"")</f>
+        <v>2.5163593099345629</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0.86410256410256403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f>IF('mins network'!C10&gt;270,IFERROR(('pass network'!C10/'mins network'!C10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f>IF('mins network'!D10&gt;270,IFERROR(('pass network'!D10/'mins network'!D10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>IF('mins network'!E10&gt;270,IFERROR(('pass network'!E10/'mins network'!E10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="17" t="str">
+        <f>IF('mins network'!F10&gt;270,IFERROR(('pass network'!F10/'mins network'!F10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f>IF('mins network'!G10&gt;270,IFERROR(('pass network'!G10/'mins network'!G10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f>IF('mins network'!H10&gt;270,IFERROR(('pass network'!H10/'mins network'!H10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f>IF('mins network'!I10&gt;270,IFERROR(('pass network'!I10/'mins network'!I10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f>IF('mins network'!J10&gt;270,IFERROR(('pass network'!J10/'mins network'!J10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f>IF('mins network'!K10&gt;270,IFERROR(('pass network'!K10/'mins network'!K10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="18" t="str">
+        <f>IF('mins network'!L10&gt;270,IFERROR(('pass network'!L10/'mins network'!L10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="11" t="str">
+        <f>IF('mins network'!M10&gt;270,IFERROR(('pass network'!M10/'mins network'!M10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="17" t="str">
+        <f>IF('mins network'!N10&gt;270,IFERROR(('pass network'!N10/'mins network'!N10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="11" t="str">
+        <f>IF('mins network'!O10&gt;270,IFERROR(('pass network'!O10/'mins network'!O10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="11" t="str">
+        <f>IF('mins network'!P10&gt;270,IFERROR(('pass network'!P10/'mins network'!P10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="11" t="str">
+        <f>IF('mins network'!Q10&gt;270,IFERROR(('pass network'!Q10/'mins network'!Q10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R10" s="18" t="str">
+        <f>IF('mins network'!R10&gt;270,IFERROR(('pass network'!R10/'mins network'!R10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="S10" s="17" t="str">
+        <f>IF('mins network'!S10&gt;270,IFERROR(('pass network'!S10/'mins network'!S10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T10" s="11" t="str">
+        <f>IF('mins network'!T10&gt;270,IFERROR(('pass network'!T10/'mins network'!T10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U10" s="11" t="str">
+        <f>IF('mins network'!U10&gt;270,IFERROR(('pass network'!U10/'mins network'!U10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="V10" s="11" t="str">
+        <f>IF('mins network'!V10&gt;270,IFERROR(('pass network'!V10/'mins network'!V10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="W10" s="11" t="str">
+        <f>IF('mins network'!W10&gt;270,IFERROR(('pass network'!W10/'mins network'!W10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X10" s="18" t="str">
+        <f>IF('mins network'!X10&gt;270,IFERROR(('pass network'!X10/'mins network'!X10)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="17">
+        <f>IF('mins network'!C11&gt;270,IFERROR(('pass network'!C11/'mins network'!C11)*90,""),"")</f>
+        <v>0.234375</v>
+      </c>
+      <c r="D11" s="18">
+        <f>IF('mins network'!D11&gt;270,IFERROR(('pass network'!D11/'mins network'!D11)*90,""),"")</f>
+        <v>1.1864406779661016</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>IF('mins network'!E11&gt;270,IFERROR(('pass network'!E11/'mins network'!E11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="17">
+        <f>IF('mins network'!F11&gt;270,IFERROR(('pass network'!F11/'mins network'!F11)*90,""),"")</f>
+        <v>5.0904977375565608</v>
+      </c>
+      <c r="G11" s="11">
+        <f>IF('mins network'!G11&gt;270,IFERROR(('pass network'!G11/'mins network'!G11)*90,""),"")</f>
+        <v>1.0623946037099494</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>IF('mins network'!H11&gt;270,IFERROR(('pass network'!H11/'mins network'!H11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="11">
+        <f>IF('mins network'!I11&gt;270,IFERROR(('pass network'!I11/'mins network'!I11)*90,""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>IF('mins network'!J11&gt;270,IFERROR(('pass network'!J11/'mins network'!J11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>IF('mins network'!K11&gt;270,IFERROR(('pass network'!K11/'mins network'!K11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="18">
+        <f>IF('mins network'!L11&gt;270,IFERROR(('pass network'!L11/'mins network'!L11)*90,""),"")</f>
+        <v>1.9077306733167083</v>
+      </c>
+      <c r="M11" s="11" t="str">
+        <f>IF('mins network'!M11&gt;270,IFERROR(('pass network'!M11/'mins network'!M11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N11" s="17">
+        <f>IF('mins network'!N11&gt;270,IFERROR(('pass network'!N11/'mins network'!N11)*90,""),"")</f>
+        <v>4.0080971659919022</v>
+      </c>
+      <c r="O11" s="11">
+        <f>IF('mins network'!O11&gt;270,IFERROR(('pass network'!O11/'mins network'!O11)*90,""),"")</f>
+        <v>5.0550660792951545</v>
+      </c>
+      <c r="P11" s="11" t="str">
+        <f>IF('mins network'!P11&gt;270,IFERROR(('pass network'!P11/'mins network'!P11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="11" t="str">
+        <f>IF('mins network'!Q11&gt;270,IFERROR(('pass network'!Q11/'mins network'!Q11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="18">
+        <f>IF('mins network'!R11&gt;270,IFERROR(('pass network'!R11/'mins network'!R11)*90,""),"")</f>
+        <v>2.8701594533029615</v>
+      </c>
+      <c r="S11" s="17">
+        <f>IF('mins network'!S11&gt;270,IFERROR(('pass network'!S11/'mins network'!S11)*90,""),"")</f>
+        <v>1.875</v>
+      </c>
+      <c r="T11" s="11" t="str">
+        <f>IF('mins network'!T11&gt;270,IFERROR(('pass network'!T11/'mins network'!T11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U11" s="11">
+        <f>IF('mins network'!U11&gt;270,IFERROR(('pass network'!U11/'mins network'!U11)*90,""),"")</f>
+        <v>2.3297002724795641</v>
+      </c>
+      <c r="V11" s="11">
+        <f>IF('mins network'!V11&gt;270,IFERROR(('pass network'!V11/'mins network'!V11)*90,""),"")</f>
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="W11" s="11" t="str">
+        <f>IF('mins network'!W11&gt;270,IFERROR(('pass network'!W11/'mins network'!W11)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X11" s="18">
+        <f>IF('mins network'!X11&gt;270,IFERROR(('pass network'!X11/'mins network'!X11)*90,""),"")</f>
+        <v>4.5478723404255312</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0.69651741293532299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19">
+        <f>IF('mins network'!C12&gt;270,IFERROR(('pass network'!C12/'mins network'!C12)*90,""),"")</f>
+        <v>0.71005917159763321</v>
+      </c>
+      <c r="D12" s="20">
+        <f>IF('mins network'!D12&gt;270,IFERROR(('pass network'!D12/'mins network'!D12)*90,""),"")</f>
+        <v>0.49792531120331951</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f>IF('mins network'!E12&gt;270,IFERROR(('pass network'!E12/'mins network'!E12)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="19">
+        <f>IF('mins network'!F12&gt;270,IFERROR(('pass network'!F12/'mins network'!F12)*90,""),"")</f>
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="G12" s="22">
+        <f>IF('mins network'!G12&gt;270,IFERROR(('pass network'!G12/'mins network'!G12)*90,""),"")</f>
+        <v>6.0714285714285712</v>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f>IF('mins network'!H12&gt;270,IFERROR(('pass network'!H12/'mins network'!H12)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="22">
+        <f>IF('mins network'!I12&gt;270,IFERROR(('pass network'!I12/'mins network'!I12)*90,""),"")</f>
+        <v>2.7418126428027416</v>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f>IF('mins network'!J12&gt;270,IFERROR(('pass network'!J12/'mins network'!J12)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="22">
+        <f>IF('mins network'!K12&gt;270,IFERROR(('pass network'!K12/'mins network'!K12)*90,""),"")</f>
+        <v>2.8054862842892767</v>
+      </c>
+      <c r="L12" s="20" t="str">
+        <f>IF('mins network'!L12&gt;270,IFERROR(('pass network'!L12/'mins network'!L12)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="11" t="str">
+        <f>IF('mins network'!M12&gt;270,IFERROR(('pass network'!M12/'mins network'!M12)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N12" s="19">
+        <f>IF('mins network'!N12&gt;270,IFERROR(('pass network'!N12/'mins network'!N12)*90,""),"")</f>
+        <v>3.6421725239616616</v>
+      </c>
+      <c r="O12" s="22">
+        <f>IF('mins network'!O12&gt;270,IFERROR(('pass network'!O12/'mins network'!O12)*90,""),"")</f>
+        <v>5.629139072847682</v>
+      </c>
+      <c r="P12" s="22">
+        <f>IF('mins network'!P12&gt;270,IFERROR(('pass network'!P12/'mins network'!P12)*90,""),"")</f>
+        <v>5.625</v>
+      </c>
+      <c r="Q12" s="22" t="str">
+        <f>IF('mins network'!Q12&gt;270,IFERROR(('pass network'!Q12/'mins network'!Q12)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R12" s="20">
+        <f>IF('mins network'!R12&gt;270,IFERROR(('pass network'!R12/'mins network'!R12)*90,""),"")</f>
+        <v>3.9605462822458271</v>
+      </c>
+      <c r="S12" s="19">
+        <f>IF('mins network'!S12&gt;270,IFERROR(('pass network'!S12/'mins network'!S12)*90,""),"")</f>
+        <v>9.9630996309963091</v>
+      </c>
+      <c r="T12" s="22">
+        <f>IF('mins network'!T12&gt;270,IFERROR(('pass network'!T12/'mins network'!T12)*90,""),"")</f>
+        <v>17.086092715231789</v>
+      </c>
+      <c r="U12" s="22">
+        <f>IF('mins network'!U12&gt;270,IFERROR(('pass network'!U12/'mins network'!U12)*90,""),"")</f>
+        <v>2.903225806451613</v>
+      </c>
+      <c r="V12" s="22">
+        <f>IF('mins network'!V12&gt;270,IFERROR(('pass network'!V12/'mins network'!V12)*90,""),"")</f>
+        <v>3.9589442815249267</v>
+      </c>
+      <c r="W12" s="22" t="str">
+        <f>IF('mins network'!W12&gt;270,IFERROR(('pass network'!W12/'mins network'!W12)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X12" s="20">
+        <f>IF('mins network'!X12&gt;270,IFERROR(('pass network'!X12/'mins network'!X12)*90,""),"")</f>
+        <v>3.4356846473029048</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0.77937336814621405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>IF('mins network'!C13&gt;270,IFERROR(('pass network'!C13/'mins network'!C13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f>IF('mins network'!D13&gt;270,IFERROR(('pass network'!D13/'mins network'!D13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f>IF('mins network'!E13&gt;270,IFERROR(('pass network'!E13/'mins network'!E13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f>IF('mins network'!F13&gt;270,IFERROR(('pass network'!F13/'mins network'!F13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f>IF('mins network'!G13&gt;270,IFERROR(('pass network'!G13/'mins network'!G13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>IF('mins network'!H13&gt;270,IFERROR(('pass network'!H13/'mins network'!H13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f>IF('mins network'!I13&gt;270,IFERROR(('pass network'!I13/'mins network'!I13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="11" t="str">
+        <f>IF('mins network'!J13&gt;270,IFERROR(('pass network'!J13/'mins network'!J13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="11" t="str">
+        <f>IF('mins network'!K13&gt;270,IFERROR(('pass network'!K13/'mins network'!K13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="11" t="str">
+        <f>IF('mins network'!L13&gt;270,IFERROR(('pass network'!L13/'mins network'!L13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="11" t="str">
+        <f>IF('mins network'!M13&gt;270,IFERROR(('pass network'!M13/'mins network'!M13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="11" t="str">
+        <f>IF('mins network'!N13&gt;270,IFERROR(('pass network'!N13/'mins network'!N13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="11" t="str">
+        <f>IF('mins network'!O13&gt;270,IFERROR(('pass network'!O13/'mins network'!O13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="11" t="str">
+        <f>IF('mins network'!P13&gt;270,IFERROR(('pass network'!P13/'mins network'!P13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="11" t="str">
+        <f>IF('mins network'!Q13&gt;270,IFERROR(('pass network'!Q13/'mins network'!Q13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="11" t="str">
+        <f>IF('mins network'!R13&gt;270,IFERROR(('pass network'!R13/'mins network'!R13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="11" t="str">
+        <f>IF('mins network'!S13&gt;270,IFERROR(('pass network'!S13/'mins network'!S13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T13" s="11" t="str">
+        <f>IF('mins network'!T13&gt;270,IFERROR(('pass network'!T13/'mins network'!T13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="11" t="str">
+        <f>IF('mins network'!U13&gt;270,IFERROR(('pass network'!U13/'mins network'!U13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="V13" s="11" t="str">
+        <f>IF('mins network'!V13&gt;270,IFERROR(('pass network'!V13/'mins network'!V13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="W13" s="11" t="str">
+        <f>IF('mins network'!W13&gt;270,IFERROR(('pass network'!W13/'mins network'!W13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X13" s="11" t="str">
+        <f>IF('mins network'!X13&gt;270,IFERROR(('pass network'!X13/'mins network'!X13)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15">
+        <f>IF('mins network'!C14&gt;270,IFERROR(('pass network'!C14/'mins network'!C14)*90,""),"")</f>
+        <v>0.39867109634551495</v>
+      </c>
+      <c r="D14" s="16">
+        <f>IF('mins network'!D14&gt;270,IFERROR(('pass network'!D14/'mins network'!D14)*90,""),"")</f>
+        <v>0.42654028436018959</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>IF('mins network'!E14&gt;270,IFERROR(('pass network'!E14/'mins network'!E14)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="15">
+        <f>IF('mins network'!F14&gt;270,IFERROR(('pass network'!F14/'mins network'!F14)*90,""),"")</f>
+        <v>6.8322981366459636</v>
+      </c>
+      <c r="G14" s="21">
+        <f>IF('mins network'!G14&gt;270,IFERROR(('pass network'!G14/'mins network'!G14)*90,""),"")</f>
+        <v>4.3322981366459627</v>
+      </c>
+      <c r="H14" s="21" t="str">
+        <f>IF('mins network'!H14&gt;270,IFERROR(('pass network'!H14/'mins network'!H14)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="21">
+        <f>IF('mins network'!I14&gt;270,IFERROR(('pass network'!I14/'mins network'!I14)*90,""),"")</f>
+        <v>5.1689189189189193</v>
+      </c>
+      <c r="J14" s="21" t="str">
+        <f>IF('mins network'!J14&gt;270,IFERROR(('pass network'!J14/'mins network'!J14)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="21">
+        <f>IF('mins network'!K14&gt;270,IFERROR(('pass network'!K14/'mins network'!K14)*90,""),"")</f>
+        <v>4.0080971659919022</v>
+      </c>
+      <c r="L14" s="16">
+        <f>IF('mins network'!L14&gt;270,IFERROR(('pass network'!L14/'mins network'!L14)*90,""),"")</f>
+        <v>4.1214057507987221</v>
+      </c>
+      <c r="M14" s="11" t="str">
+        <f>IF('mins network'!M14&gt;270,IFERROR(('pass network'!M14/'mins network'!M14)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N14" s="15" t="str">
+        <f>IF('mins network'!N14&gt;270,IFERROR(('pass network'!N14/'mins network'!N14)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="21">
+        <f>IF('mins network'!O14&gt;270,IFERROR(('pass network'!O14/'mins network'!O14)*90,""),"")</f>
+        <v>8.3706720977596731</v>
+      </c>
+      <c r="P14" s="21">
+        <f>IF('mins network'!P14&gt;270,IFERROR(('pass network'!P14/'mins network'!P14)*90,""),"")</f>
+        <v>3.2028469750889683</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>IF('mins network'!Q14&gt;270,IFERROR(('pass network'!Q14/'mins network'!Q14)*90,""),"")</f>
+        <v>4.704890387858347</v>
+      </c>
+      <c r="R14" s="16">
+        <f>IF('mins network'!R14&gt;270,IFERROR(('pass network'!R14/'mins network'!R14)*90,""),"")</f>
+        <v>3.8908575478384124</v>
+      </c>
+      <c r="S14" s="15" t="str">
+        <f>IF('mins network'!S14&gt;270,IFERROR(('pass network'!S14/'mins network'!S14)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T14" s="21">
+        <f>IF('mins network'!T14&gt;270,IFERROR(('pass network'!T14/'mins network'!T14)*90,""),"")</f>
+        <v>5.2941176470588234</v>
+      </c>
+      <c r="U14" s="21">
+        <f>IF('mins network'!U14&gt;270,IFERROR(('pass network'!U14/'mins network'!U14)*90,""),"")</f>
+        <v>3.7314906219151034</v>
+      </c>
+      <c r="V14" s="21">
+        <f>IF('mins network'!V14&gt;270,IFERROR(('pass network'!V14/'mins network'!V14)*90,""),"")</f>
+        <v>2.3841059602649008</v>
+      </c>
+      <c r="W14" s="21" t="str">
+        <f>IF('mins network'!W14&gt;270,IFERROR(('pass network'!W14/'mins network'!W14)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X14" s="16">
+        <f>IF('mins network'!X14&gt;270,IFERROR(('pass network'!X14/'mins network'!X14)*90,""),"")</f>
+        <v>4.7295208655332308</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0.74949899799599196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="17">
+        <f>IF('mins network'!C15&gt;270,IFERROR(('pass network'!C15/'mins network'!C15)*90,""),"")</f>
+        <v>0.45408678102926342</v>
+      </c>
+      <c r="D15" s="18">
+        <f>IF('mins network'!D15&gt;270,IFERROR(('pass network'!D15/'mins network'!D15)*90,""),"")</f>
+        <v>2.2294654498044326</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f>IF('mins network'!E15&gt;270,IFERROR(('pass network'!E15/'mins network'!E15)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="17">
+        <f>IF('mins network'!F15&gt;270,IFERROR(('pass network'!F15/'mins network'!F15)*90,""),"")</f>
+        <v>5.3560042507970245</v>
+      </c>
+      <c r="G15" s="11">
+        <f>IF('mins network'!G15&gt;270,IFERROR(('pass network'!G15/'mins network'!G15)*90,""),"")</f>
+        <v>5.2306273062730622</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f>IF('mins network'!H15&gt;270,IFERROR(('pass network'!H15/'mins network'!H15)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="11">
+        <f>IF('mins network'!I15&gt;270,IFERROR(('pass network'!I15/'mins network'!I15)*90,""),"")</f>
+        <v>4.645161290322581</v>
+      </c>
+      <c r="J15" s="11" t="str">
+        <f>IF('mins network'!J15&gt;270,IFERROR(('pass network'!J15/'mins network'!J15)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="11">
+        <f>IF('mins network'!K15&gt;270,IFERROR(('pass network'!K15/'mins network'!K15)*90,""),"")</f>
+        <v>5.6497797356828192</v>
+      </c>
+      <c r="L15" s="18">
+        <f>IF('mins network'!L15&gt;270,IFERROR(('pass network'!L15/'mins network'!L15)*90,""),"")</f>
+        <v>5.0331125827814569</v>
+      </c>
+      <c r="M15" s="11" t="str">
+        <f>IF('mins network'!M15&gt;270,IFERROR(('pass network'!M15/'mins network'!M15)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="17">
+        <f>IF('mins network'!N15&gt;270,IFERROR(('pass network'!N15/'mins network'!N15)*90,""),"")</f>
+        <v>7.1486761710794298</v>
+      </c>
+      <c r="O15" s="11" t="str">
+        <f>IF('mins network'!O15&gt;270,IFERROR(('pass network'!O15/'mins network'!O15)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="11">
+        <f>IF('mins network'!P15&gt;270,IFERROR(('pass network'!P15/'mins network'!P15)*90,""),"")</f>
+        <v>5.1864406779661021</v>
+      </c>
+      <c r="Q15" s="11">
+        <f>IF('mins network'!Q15&gt;270,IFERROR(('pass network'!Q15/'mins network'!Q15)*90,""),"")</f>
+        <v>4.2495784148397977</v>
+      </c>
+      <c r="R15" s="18">
+        <f>IF('mins network'!R15&gt;270,IFERROR(('pass network'!R15/'mins network'!R15)*90,""),"")</f>
+        <v>2.674230145867099</v>
+      </c>
+      <c r="S15" s="17">
+        <f>IF('mins network'!S15&gt;270,IFERROR(('pass network'!S15/'mins network'!S15)*90,""),"")</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="T15" s="11">
+        <f>IF('mins network'!T15&gt;270,IFERROR(('pass network'!T15/'mins network'!T15)*90,""),"")</f>
+        <v>5</v>
+      </c>
+      <c r="U15" s="11">
+        <f>IF('mins network'!U15&gt;270,IFERROR(('pass network'!U15/'mins network'!U15)*90,""),"")</f>
+        <v>2.2141823444283646</v>
+      </c>
+      <c r="V15" s="11">
+        <f>IF('mins network'!V15&gt;270,IFERROR(('pass network'!V15/'mins network'!V15)*90,""),"")</f>
+        <v>5.0635208711433757</v>
+      </c>
+      <c r="W15" s="11" t="str">
+        <f>IF('mins network'!W15&gt;270,IFERROR(('pass network'!W15/'mins network'!W15)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X15" s="18">
+        <f>IF('mins network'!X15&gt;270,IFERROR(('pass network'!X15/'mins network'!X15)*90,""),"")</f>
+        <v>4.2211928199189348</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0.82597173144876301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f>IF('mins network'!C16&gt;270,IFERROR(('pass network'!C16/'mins network'!C16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f>IF('mins network'!D16&gt;270,IFERROR(('pass network'!D16/'mins network'!D16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f>IF('mins network'!E16&gt;270,IFERROR(('pass network'!E16/'mins network'!E16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="17">
+        <f>IF('mins network'!F16&gt;270,IFERROR(('pass network'!F16/'mins network'!F16)*90,""),"")</f>
+        <v>1.2203389830508473</v>
+      </c>
+      <c r="G16" s="11">
+        <f>IF('mins network'!G16&gt;270,IFERROR(('pass network'!G16/'mins network'!G16)*90,""),"")</f>
+        <v>1.830508474576271</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f>IF('mins network'!H16&gt;270,IFERROR(('pass network'!H16/'mins network'!H16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="11">
+        <f>IF('mins network'!I16&gt;270,IFERROR(('pass network'!I16/'mins network'!I16)*90,""),"")</f>
+        <v>1.2811387900355871</v>
+      </c>
+      <c r="J16" s="11" t="str">
+        <f>IF('mins network'!J16&gt;270,IFERROR(('pass network'!J16/'mins network'!J16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="11" t="str">
+        <f>IF('mins network'!K16&gt;270,IFERROR(('pass network'!K16/'mins network'!K16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L16" s="18">
+        <f>IF('mins network'!L16&gt;270,IFERROR(('pass network'!L16/'mins network'!L16)*90,""),"")</f>
+        <v>6.25</v>
+      </c>
+      <c r="M16" s="11" t="str">
+        <f>IF('mins network'!M16&gt;270,IFERROR(('pass network'!M16/'mins network'!M16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="17">
+        <f>IF('mins network'!N16&gt;270,IFERROR(('pass network'!N16/'mins network'!N16)*90,""),"")</f>
+        <v>4.4839857651245554</v>
+      </c>
+      <c r="O16" s="11">
+        <f>IF('mins network'!O16&gt;270,IFERROR(('pass network'!O16/'mins network'!O16)*90,""),"")</f>
+        <v>2.745762711864407</v>
+      </c>
+      <c r="P16" s="11" t="str">
+        <f>IF('mins network'!P16&gt;270,IFERROR(('pass network'!P16/'mins network'!P16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="11" t="str">
+        <f>IF('mins network'!Q16&gt;270,IFERROR(('pass network'!Q16/'mins network'!Q16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R16" s="18">
+        <f>IF('mins network'!R16&gt;270,IFERROR(('pass network'!R16/'mins network'!R16)*90,""),"")</f>
+        <v>2.4406779661016946</v>
+      </c>
+      <c r="S16" s="17" t="str">
+        <f>IF('mins network'!S16&gt;270,IFERROR(('pass network'!S16/'mins network'!S16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T16" s="11" t="str">
+        <f>IF('mins network'!T16&gt;270,IFERROR(('pass network'!T16/'mins network'!T16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U16" s="11" t="str">
+        <f>IF('mins network'!U16&gt;270,IFERROR(('pass network'!U16/'mins network'!U16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="11" t="str">
+        <f>IF('mins network'!V16&gt;270,IFERROR(('pass network'!V16/'mins network'!V16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="W16" s="11" t="str">
+        <f>IF('mins network'!W16&gt;270,IFERROR(('pass network'!W16/'mins network'!W16)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X16" s="18">
+        <f>IF('mins network'!X16&gt;270,IFERROR(('pass network'!X16/'mins network'!X16)*90,""),"")</f>
+        <v>1.25</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0.65573770491803296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="17">
+        <f>IF('mins network'!C17&gt;270,IFERROR(('pass network'!C17/'mins network'!C17)*90,""),"")</f>
+        <v>1.3152400835073068</v>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f>IF('mins network'!D17&gt;270,IFERROR(('pass network'!D17/'mins network'!D17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f>IF('mins network'!E17&gt;270,IFERROR(('pass network'!E17/'mins network'!E17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="17">
+        <f>IF('mins network'!F17&gt;270,IFERROR(('pass network'!F17/'mins network'!F17)*90,""),"")</f>
+        <v>10.472175379426645</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f>IF('mins network'!G17&gt;270,IFERROR(('pass network'!G17/'mins network'!G17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>IF('mins network'!H17&gt;270,IFERROR(('pass network'!H17/'mins network'!H17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="11">
+        <f>IF('mins network'!I17&gt;270,IFERROR(('pass network'!I17/'mins network'!I17)*90,""),"")</f>
+        <v>0.60708263069139967</v>
+      </c>
+      <c r="J17" s="11" t="str">
+        <f>IF('mins network'!J17&gt;270,IFERROR(('pass network'!J17/'mins network'!J17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="11" t="str">
+        <f>IF('mins network'!K17&gt;270,IFERROR(('pass network'!K17/'mins network'!K17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="18" t="str">
+        <f>IF('mins network'!L17&gt;270,IFERROR(('pass network'!L17/'mins network'!L17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="11" t="str">
+        <f>IF('mins network'!M17&gt;270,IFERROR(('pass network'!M17/'mins network'!M17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N17" s="17">
+        <f>IF('mins network'!N17&gt;270,IFERROR(('pass network'!N17/'mins network'!N17)*90,""),"")</f>
+        <v>4.704890387858347</v>
+      </c>
+      <c r="O17" s="11">
+        <f>IF('mins network'!O17&gt;270,IFERROR(('pass network'!O17/'mins network'!O17)*90,""),"")</f>
+        <v>6.2225969645868462</v>
+      </c>
+      <c r="P17" s="11" t="str">
+        <f>IF('mins network'!P17&gt;270,IFERROR(('pass network'!P17/'mins network'!P17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="11" t="str">
+        <f>IF('mins network'!Q17&gt;270,IFERROR(('pass network'!Q17/'mins network'!Q17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R17" s="18">
+        <f>IF('mins network'!R17&gt;270,IFERROR(('pass network'!R17/'mins network'!R17)*90,""),"")</f>
+        <v>4.0106951871657754</v>
+      </c>
+      <c r="S17" s="17" t="str">
+        <f>IF('mins network'!S17&gt;270,IFERROR(('pass network'!S17/'mins network'!S17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T17" s="11">
+        <f>IF('mins network'!T17&gt;270,IFERROR(('pass network'!T17/'mins network'!T17)*90,""),"")</f>
+        <v>2.7146171693735499</v>
+      </c>
+      <c r="U17" s="11">
+        <f>IF('mins network'!U17&gt;270,IFERROR(('pass network'!U17/'mins network'!U17)*90,""),"")</f>
+        <v>0.64748201438848929</v>
+      </c>
+      <c r="V17" s="11">
+        <f>IF('mins network'!V17&gt;270,IFERROR(('pass network'!V17/'mins network'!V17)*90,""),"")</f>
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="W17" s="11" t="str">
+        <f>IF('mins network'!W17&gt;270,IFERROR(('pass network'!W17/'mins network'!W17)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X17" s="18">
+        <f>IF('mins network'!X17&gt;270,IFERROR(('pass network'!X17/'mins network'!X17)*90,""),"")</f>
+        <v>5.7065217391304355</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0.77717391304347805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="19">
+        <f>IF('mins network'!C18&gt;270,IFERROR(('pass network'!C18/'mins network'!C18)*90,""),"")</f>
+        <v>0.57446808510638292</v>
+      </c>
+      <c r="D18" s="20">
+        <f>IF('mins network'!D18&gt;270,IFERROR(('pass network'!D18/'mins network'!D18)*90,""),"")</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f>IF('mins network'!E18&gt;270,IFERROR(('pass network'!E18/'mins network'!E18)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="19">
+        <f>IF('mins network'!F18&gt;270,IFERROR(('pass network'!F18/'mins network'!F18)*90,""),"")</f>
+        <v>5.5879120879120876</v>
+      </c>
+      <c r="G18" s="22">
+        <f>IF('mins network'!G18&gt;270,IFERROR(('pass network'!G18/'mins network'!G18)*90,""),"")</f>
+        <v>4.5590994371482179</v>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f>IF('mins network'!H18&gt;270,IFERROR(('pass network'!H18/'mins network'!H18)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="22">
+        <f>IF('mins network'!I18&gt;270,IFERROR(('pass network'!I18/'mins network'!I18)*90,""),"")</f>
+        <v>4.6051167964404893</v>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f>IF('mins network'!J18&gt;270,IFERROR(('pass network'!J18/'mins network'!J18)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K18" s="22">
+        <f>IF('mins network'!K18&gt;270,IFERROR(('pass network'!K18/'mins network'!K18)*90,""),"")</f>
+        <v>3.1776765375854215</v>
+      </c>
+      <c r="L18" s="20">
+        <f>IF('mins network'!L18&gt;270,IFERROR(('pass network'!L18/'mins network'!L18)*90,""),"")</f>
+        <v>3.687405159332322</v>
+      </c>
+      <c r="M18" s="11" t="str">
+        <f>IF('mins network'!M18&gt;270,IFERROR(('pass network'!M18/'mins network'!M18)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="19">
+        <f>IF('mins network'!N18&gt;270,IFERROR(('pass network'!N18/'mins network'!N18)*90,""),"")</f>
+        <v>4.2097802976612337</v>
+      </c>
+      <c r="O18" s="22">
+        <f>IF('mins network'!O18&gt;270,IFERROR(('pass network'!O18/'mins network'!O18)*90,""),"")</f>
+        <v>4.5218800648298219</v>
+      </c>
+      <c r="P18" s="22">
+        <f>IF('mins network'!P18&gt;270,IFERROR(('pass network'!P18/'mins network'!P18)*90,""),"")</f>
+        <v>3.9661016949152543</v>
+      </c>
+      <c r="Q18" s="22">
+        <f>IF('mins network'!Q18&gt;270,IFERROR(('pass network'!Q18/'mins network'!Q18)*90,""),"")</f>
+        <v>5.2941176470588234</v>
+      </c>
+      <c r="R18" s="20" t="str">
+        <f>IF('mins network'!R18&gt;270,IFERROR(('pass network'!R18/'mins network'!R18)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="S18" s="19">
+        <f>IF('mins network'!S18&gt;270,IFERROR(('pass network'!S18/'mins network'!S18)*90,""),"")</f>
+        <v>3.9272727272727277</v>
+      </c>
+      <c r="T18" s="22">
+        <f>IF('mins network'!T18&gt;270,IFERROR(('pass network'!T18/'mins network'!T18)*90,""),"")</f>
+        <v>4.0316205533596836</v>
+      </c>
+      <c r="U18" s="22">
+        <f>IF('mins network'!U18&gt;270,IFERROR(('pass network'!U18/'mins network'!U18)*90,""),"")</f>
+        <v>2.0852017937219731</v>
+      </c>
+      <c r="V18" s="22">
+        <f>IF('mins network'!V18&gt;270,IFERROR(('pass network'!V18/'mins network'!V18)*90,""),"")</f>
+        <v>1.6423357664233575</v>
+      </c>
+      <c r="W18" s="22" t="str">
+        <f>IF('mins network'!W18&gt;270,IFERROR(('pass network'!W18/'mins network'!W18)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X18" s="20">
+        <f>IF('mins network'!X18&gt;270,IFERROR(('pass network'!X18/'mins network'!X18)*90,""),"")</f>
+        <v>3.9459459459459456</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0.82224645583424205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="15" t="str">
+        <f>IF('mins network'!C19&gt;270,IFERROR(('pass network'!C19/'mins network'!C19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f>IF('mins network'!D19&gt;270,IFERROR(('pass network'!D19/'mins network'!D19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="11" t="str">
+        <f>IF('mins network'!E19&gt;270,IFERROR(('pass network'!E19/'mins network'!E19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="15">
+        <f>IF('mins network'!F19&gt;270,IFERROR(('pass network'!F19/'mins network'!F19)*90,""),"")</f>
+        <v>0.28125</v>
+      </c>
+      <c r="G19" s="21" t="str">
+        <f>IF('mins network'!G19&gt;270,IFERROR(('pass network'!G19/'mins network'!G19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="21" t="str">
+        <f>IF('mins network'!H19&gt;270,IFERROR(('pass network'!H19/'mins network'!H19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="21">
+        <f>IF('mins network'!I19&gt;270,IFERROR(('pass network'!I19/'mins network'!I19)*90,""),"")</f>
+        <v>0.86816720257234736</v>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f>IF('mins network'!J19&gt;270,IFERROR(('pass network'!J19/'mins network'!J19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="21">
+        <f>IF('mins network'!K19&gt;270,IFERROR(('pass network'!K19/'mins network'!K19)*90,""),"")</f>
+        <v>1.25</v>
+      </c>
+      <c r="L19" s="16">
+        <f>IF('mins network'!L19&gt;270,IFERROR(('pass network'!L19/'mins network'!L19)*90,""),"")</f>
+        <v>7.6383763837638377</v>
+      </c>
+      <c r="M19" s="11" t="str">
+        <f>IF('mins network'!M19&gt;270,IFERROR(('pass network'!M19/'mins network'!M19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N19" s="15" t="str">
+        <f>IF('mins network'!N19&gt;270,IFERROR(('pass network'!N19/'mins network'!N19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="21">
+        <f>IF('mins network'!O19&gt;270,IFERROR(('pass network'!O19/'mins network'!O19)*90,""),"")</f>
+        <v>3.6111111111111107</v>
+      </c>
+      <c r="P19" s="21" t="str">
+        <f>IF('mins network'!P19&gt;270,IFERROR(('pass network'!P19/'mins network'!P19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q19" s="21" t="str">
+        <f>IF('mins network'!Q19&gt;270,IFERROR(('pass network'!Q19/'mins network'!Q19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R19" s="16">
+        <f>IF('mins network'!R19&gt;270,IFERROR(('pass network'!R19/'mins network'!R19)*90,""),"")</f>
+        <v>3.6</v>
+      </c>
+      <c r="S19" s="15" t="str">
+        <f>IF('mins network'!S19&gt;270,IFERROR(('pass network'!S19/'mins network'!S19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T19" s="21" t="str">
+        <f>IF('mins network'!T19&gt;270,IFERROR(('pass network'!T19/'mins network'!T19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U19" s="21" t="str">
+        <f>IF('mins network'!U19&gt;270,IFERROR(('pass network'!U19/'mins network'!U19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="V19" s="21" t="str">
+        <f>IF('mins network'!V19&gt;270,IFERROR(('pass network'!V19/'mins network'!V19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="W19" s="21" t="str">
+        <f>IF('mins network'!W19&gt;270,IFERROR(('pass network'!W19/'mins network'!W19)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X19" s="16">
+        <f>IF('mins network'!X19&gt;270,IFERROR(('pass network'!X19/'mins network'!X19)*90,""),"")</f>
+        <v>5.2777777777777777</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0.75384615384615405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="17">
+        <f>IF('mins network'!C20&gt;270,IFERROR(('pass network'!C20/'mins network'!C20)*90,""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f>IF('mins network'!D20&gt;270,IFERROR(('pass network'!D20/'mins network'!D20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="11" t="str">
+        <f>IF('mins network'!E20&gt;270,IFERROR(('pass network'!E20/'mins network'!E20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="17">
+        <f>IF('mins network'!F20&gt;270,IFERROR(('pass network'!F20/'mins network'!F20)*90,""),"")</f>
+        <v>0.6758448060075094</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f>IF('mins network'!G20&gt;270,IFERROR(('pass network'!G20/'mins network'!G20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f>IF('mins network'!H20&gt;270,IFERROR(('pass network'!H20/'mins network'!H20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="11">
+        <f>IF('mins network'!I20&gt;270,IFERROR(('pass network'!I20/'mins network'!I20)*90,""),"")</f>
+        <v>1.9148936170212765</v>
+      </c>
+      <c r="J20" s="11" t="str">
+        <f>IF('mins network'!J20&gt;270,IFERROR(('pass network'!J20/'mins network'!J20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="11" t="str">
+        <f>IF('mins network'!K20&gt;270,IFERROR(('pass network'!K20/'mins network'!K20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="18">
+        <f>IF('mins network'!L20&gt;270,IFERROR(('pass network'!L20/'mins network'!L20)*90,""),"")</f>
+        <v>8.741721854304636</v>
+      </c>
+      <c r="M20" s="11" t="str">
+        <f>IF('mins network'!M20&gt;270,IFERROR(('pass network'!M20/'mins network'!M20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N20" s="17">
+        <f>IF('mins network'!N20&gt;270,IFERROR(('pass network'!N20/'mins network'!N20)*90,""),"")</f>
+        <v>4.0550688360450557</v>
+      </c>
+      <c r="O20" s="11">
+        <f>IF('mins network'!O20&gt;270,IFERROR(('pass network'!O20/'mins network'!O20)*90,""),"")</f>
+        <v>5.6818181818181825</v>
+      </c>
+      <c r="P20" s="11" t="str">
+        <f>IF('mins network'!P20&gt;270,IFERROR(('pass network'!P20/'mins network'!P20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q20" s="11">
+        <f>IF('mins network'!Q20&gt;270,IFERROR(('pass network'!Q20/'mins network'!Q20)*90,""),"")</f>
+        <v>1.2529002320185614</v>
+      </c>
+      <c r="R20" s="18">
+        <f>IF('mins network'!R20&gt;270,IFERROR(('pass network'!R20/'mins network'!R20)*90,""),"")</f>
+        <v>4.3873517786561269</v>
+      </c>
+      <c r="S20" s="17" t="str">
+        <f>IF('mins network'!S20&gt;270,IFERROR(('pass network'!S20/'mins network'!S20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T20" s="11" t="str">
+        <f>IF('mins network'!T20&gt;270,IFERROR(('pass network'!T20/'mins network'!T20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U20" s="11">
+        <f>IF('mins network'!U20&gt;270,IFERROR(('pass network'!U20/'mins network'!U20)*90,""),"")</f>
+        <v>5.8878504672897192</v>
+      </c>
+      <c r="V20" s="11">
+        <f>IF('mins network'!V20&gt;270,IFERROR(('pass network'!V20/'mins network'!V20)*90,""),"")</f>
+        <v>4.4639999999999995</v>
+      </c>
+      <c r="W20" s="11" t="str">
+        <f>IF('mins network'!W20&gt;270,IFERROR(('pass network'!W20/'mins network'!W20)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X20" s="18">
+        <f>IF('mins network'!X20&gt;270,IFERROR(('pass network'!X20/'mins network'!X20)*90,""),"")</f>
+        <v>3.0483870967741939</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0.69784172661870503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17">
+        <f>IF('mins network'!C21&gt;270,IFERROR(('pass network'!C21/'mins network'!C21)*90,""),"")</f>
+        <v>0.91172214182344424</v>
+      </c>
+      <c r="D21" s="18">
+        <f>IF('mins network'!D21&gt;270,IFERROR(('pass network'!D21/'mins network'!D21)*90,""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="str">
+        <f>IF('mins network'!E21&gt;270,IFERROR(('pass network'!E21/'mins network'!E21)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="17">
+        <f>IF('mins network'!F21&gt;270,IFERROR(('pass network'!F21/'mins network'!F21)*90,""),"")</f>
+        <v>1.6447368421052631</v>
+      </c>
+      <c r="G21" s="11">
+        <f>IF('mins network'!G21&gt;270,IFERROR(('pass network'!G21/'mins network'!G21)*90,""),"")</f>
+        <v>0.94240837696335089</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f>IF('mins network'!H21&gt;270,IFERROR(('pass network'!H21/'mins network'!H21)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="11">
+        <f>IF('mins network'!I21&gt;270,IFERROR(('pass network'!I21/'mins network'!I21)*90,""),"")</f>
+        <v>3.4996331621423336</v>
+      </c>
+      <c r="J21" s="11" t="str">
+        <f>IF('mins network'!J21&gt;270,IFERROR(('pass network'!J21/'mins network'!J21)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="11">
+        <f>IF('mins network'!K21&gt;270,IFERROR(('pass network'!K21/'mins network'!K21)*90,""),"")</f>
+        <v>1.5940054495912808</v>
+      </c>
+      <c r="L21" s="18">
+        <f>IF('mins network'!L21&gt;270,IFERROR(('pass network'!L21/'mins network'!L21)*90,""),"")</f>
+        <v>0.8428720083246618</v>
+      </c>
+      <c r="M21" s="11" t="str">
+        <f>IF('mins network'!M21&gt;270,IFERROR(('pass network'!M21/'mins network'!M21)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="17">
+        <f>IF('mins network'!N21&gt;270,IFERROR(('pass network'!N21/'mins network'!N21)*90,""),"")</f>
+        <v>1.9545903257650543</v>
+      </c>
+      <c r="O21" s="11">
+        <f>IF('mins network'!O21&gt;270,IFERROR(('pass network'!O21/'mins network'!O21)*90,""),"")</f>
+        <v>2.800289435600579</v>
+      </c>
+      <c r="P21" s="11" t="str">
+        <f>IF('mins network'!P21&gt;270,IFERROR(('pass network'!P21/'mins network'!P21)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q21" s="11">
+        <f>IF('mins network'!Q21&gt;270,IFERROR(('pass network'!Q21/'mins network'!Q21)*90,""),"")</f>
+        <v>0.43165467625899279</v>
+      </c>
+      <c r="R21" s="18">
+        <f>IF('mins network'!R21&gt;270,IFERROR(('pass network'!R21/'mins network'!R21)*90,""),"")</f>
+        <v>2.4887892376681613</v>
+      </c>
+      <c r="S21" s="17" t="str">
+        <f>IF('mins network'!S21&gt;270,IFERROR(('pass network'!S21/'mins network'!S21)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T21" s="11">
+        <f>IF('mins network'!T21&gt;270,IFERROR(('pass network'!T21/'mins network'!T21)*90,""),"")</f>
+        <v>4.8364485981308407</v>
+      </c>
+      <c r="U21" s="11" t="str">
+        <f>IF('mins network'!U21&gt;270,IFERROR(('pass network'!U21/'mins network'!U21)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="V21" s="11">
+        <f>IF('mins network'!V21&gt;270,IFERROR(('pass network'!V21/'mins network'!V21)*90,""),"")</f>
+        <v>3.0201342281879193</v>
+      </c>
+      <c r="W21" s="11" t="str">
+        <f>IF('mins network'!W21&gt;270,IFERROR(('pass network'!W21/'mins network'!W21)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X21" s="18">
+        <f>IF('mins network'!X21&gt;270,IFERROR(('pass network'!X21/'mins network'!X21)*90,""),"")</f>
+        <v>2.5714285714285712</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0.74715261958997703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="17">
+        <f>IF('mins network'!C22&gt;270,IFERROR(('pass network'!C22/'mins network'!C22)*90,""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <f>IF('mins network'!D22&gt;270,IFERROR(('pass network'!D22/'mins network'!D22)*90,""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f>IF('mins network'!E22&gt;270,IFERROR(('pass network'!E22/'mins network'!E22)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="17">
+        <f>IF('mins network'!F22&gt;270,IFERROR(('pass network'!F22/'mins network'!F22)*90,""),"")</f>
+        <v>0.33613445378151263</v>
+      </c>
+      <c r="G22" s="11">
+        <f>IF('mins network'!G22&gt;270,IFERROR(('pass network'!G22/'mins network'!G22)*90,""),"")</f>
+        <v>0.43795620437956206</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f>IF('mins network'!H22&gt;270,IFERROR(('pass network'!H22/'mins network'!H22)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="11">
+        <f>IF('mins network'!I22&gt;270,IFERROR(('pass network'!I22/'mins network'!I22)*90,""),"")</f>
+        <v>1.3162705667276051</v>
+      </c>
+      <c r="J22" s="11" t="str">
+        <f>IF('mins network'!J22&gt;270,IFERROR(('pass network'!J22/'mins network'!J22)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="11">
+        <f>IF('mins network'!K22&gt;270,IFERROR(('pass network'!K22/'mins network'!K22)*90,""),"")</f>
+        <v>0.33707865168539325</v>
+      </c>
+      <c r="L22" s="18">
+        <f>IF('mins network'!L22&gt;270,IFERROR(('pass network'!L22/'mins network'!L22)*90,""),"")</f>
+        <v>1.3196480938416424</v>
+      </c>
+      <c r="M22" s="11" t="str">
+        <f>IF('mins network'!M22&gt;270,IFERROR(('pass network'!M22/'mins network'!M22)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="17">
+        <f>IF('mins network'!N22&gt;270,IFERROR(('pass network'!N22/'mins network'!N22)*90,""),"")</f>
+        <v>1.3907284768211921</v>
+      </c>
+      <c r="O22" s="11">
+        <f>IF('mins network'!O22&gt;270,IFERROR(('pass network'!O22/'mins network'!O22)*90,""),"")</f>
+        <v>3.103448275862069</v>
+      </c>
+      <c r="P22" s="11" t="str">
+        <f>IF('mins network'!P22&gt;270,IFERROR(('pass network'!P22/'mins network'!P22)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q22" s="11">
+        <f>IF('mins network'!Q22&gt;270,IFERROR(('pass network'!Q22/'mins network'!Q22)*90,""),"")</f>
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="R22" s="18">
+        <f>IF('mins network'!R22&gt;270,IFERROR(('pass network'!R22/'mins network'!R22)*90,""),"")</f>
+        <v>1.2317518248175183</v>
+      </c>
+      <c r="S22" s="17" t="str">
+        <f>IF('mins network'!S22&gt;270,IFERROR(('pass network'!S22/'mins network'!S22)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T22" s="11">
+        <f>IF('mins network'!T22&gt;270,IFERROR(('pass network'!T22/'mins network'!T22)*90,""),"")</f>
+        <v>3.024</v>
+      </c>
+      <c r="U22" s="11">
+        <f>IF('mins network'!U22&gt;270,IFERROR(('pass network'!U22/'mins network'!U22)*90,""),"")</f>
+        <v>1.6912751677852347</v>
+      </c>
+      <c r="V22" s="11" t="str">
+        <f>IF('mins network'!V22&gt;270,IFERROR(('pass network'!V22/'mins network'!V22)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="W22" s="11" t="str">
+        <f>IF('mins network'!W22&gt;270,IFERROR(('pass network'!W22/'mins network'!W22)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X22" s="18">
+        <f>IF('mins network'!X22&gt;270,IFERROR(('pass network'!X22/'mins network'!X22)*90,""),"")</f>
+        <v>2.7329842931937174</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0.58419243986254299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="17" t="str">
+        <f>IF('mins network'!C23&gt;270,IFERROR(('pass network'!C23/'mins network'!C23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f>IF('mins network'!D23&gt;270,IFERROR(('pass network'!D23/'mins network'!D23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="11" t="str">
+        <f>IF('mins network'!E23&gt;270,IFERROR(('pass network'!E23/'mins network'!E23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="17" t="str">
+        <f>IF('mins network'!F23&gt;270,IFERROR(('pass network'!F23/'mins network'!F23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f>IF('mins network'!G23&gt;270,IFERROR(('pass network'!G23/'mins network'!G23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f>IF('mins network'!H23&gt;270,IFERROR(('pass network'!H23/'mins network'!H23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="11" t="str">
+        <f>IF('mins network'!I23&gt;270,IFERROR(('pass network'!I23/'mins network'!I23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="11" t="str">
+        <f>IF('mins network'!J23&gt;270,IFERROR(('pass network'!J23/'mins network'!J23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="11" t="str">
+        <f>IF('mins network'!K23&gt;270,IFERROR(('pass network'!K23/'mins network'!K23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="18" t="str">
+        <f>IF('mins network'!L23&gt;270,IFERROR(('pass network'!L23/'mins network'!L23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="11" t="str">
+        <f>IF('mins network'!M23&gt;270,IFERROR(('pass network'!M23/'mins network'!M23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="17" t="str">
+        <f>IF('mins network'!N23&gt;270,IFERROR(('pass network'!N23/'mins network'!N23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="11" t="str">
+        <f>IF('mins network'!O23&gt;270,IFERROR(('pass network'!O23/'mins network'!O23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="P23" s="11" t="str">
+        <f>IF('mins network'!P23&gt;270,IFERROR(('pass network'!P23/'mins network'!P23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="11" t="str">
+        <f>IF('mins network'!Q23&gt;270,IFERROR(('pass network'!Q23/'mins network'!Q23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="R23" s="18" t="str">
+        <f>IF('mins network'!R23&gt;270,IFERROR(('pass network'!R23/'mins network'!R23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="S23" s="17" t="str">
+        <f>IF('mins network'!S23&gt;270,IFERROR(('pass network'!S23/'mins network'!S23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="T23" s="11" t="str">
+        <f>IF('mins network'!T23&gt;270,IFERROR(('pass network'!T23/'mins network'!T23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="U23" s="11" t="str">
+        <f>IF('mins network'!U23&gt;270,IFERROR(('pass network'!U23/'mins network'!U23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="V23" s="11" t="str">
+        <f>IF('mins network'!V23&gt;270,IFERROR(('pass network'!V23/'mins network'!V23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="W23" s="11" t="str">
+        <f>IF('mins network'!W23&gt;270,IFERROR(('pass network'!W23/'mins network'!W23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X23" s="18" t="str">
+        <f>IF('mins network'!X23&gt;270,IFERROR(('pass network'!X23/'mins network'!X23)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Y23" s="14"/>
+    </row>
+    <row r="24" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19">
+        <f>IF('mins network'!C24&gt;270,IFERROR(('pass network'!C24/'mins network'!C24)*90,""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="20">
+        <f>IF('mins network'!D24&gt;270,IFERROR(('pass network'!D24/'mins network'!D24)*90,""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11" t="str">
+        <f>IF('mins network'!E24&gt;270,IFERROR(('pass network'!E24/'mins network'!E24)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="19">
+        <f>IF('mins network'!F24&gt;270,IFERROR(('pass network'!F24/'mins network'!F24)*90,""),"")</f>
+        <v>3.6993540810334702</v>
+      </c>
+      <c r="G24" s="22">
+        <f>IF('mins network'!G24&gt;270,IFERROR(('pass network'!G24/'mins network'!G24)*90,""),"")</f>
+        <v>0.66852367688022285</v>
+      </c>
+      <c r="H24" s="22" t="str">
+        <f>IF('mins network'!H24&gt;270,IFERROR(('pass network'!H24/'mins network'!H24)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="22">
+        <f>IF('mins network'!I24&gt;270,IFERROR(('pass network'!I24/'mins network'!I24)*90,""),"")</f>
+        <v>1.4455681142177275</v>
+      </c>
+      <c r="J24" s="22" t="str">
+        <f>IF('mins network'!J24&gt;270,IFERROR(('pass network'!J24/'mins network'!J24)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="22">
+        <f>IF('mins network'!K24&gt;270,IFERROR(('pass network'!K24/'mins network'!K24)*90,""),"")</f>
+        <v>3.8297872340425529</v>
+      </c>
+      <c r="L24" s="20">
+        <f>IF('mins network'!L24&gt;270,IFERROR(('pass network'!L24/'mins network'!L24)*90,""),"")</f>
+        <v>2.5394190871369293</v>
+      </c>
+      <c r="M24" s="11" t="str">
+        <f>IF('mins network'!M24&gt;270,IFERROR(('pass network'!M24/'mins network'!M24)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="19">
+        <f>IF('mins network'!N24&gt;270,IFERROR(('pass network'!N24/'mins network'!N24)*90,""),"")</f>
+        <v>3.6862442040185472</v>
+      </c>
+      <c r="O24" s="22">
+        <f>IF('mins network'!O24&gt;270,IFERROR(('pass network'!O24/'mins network'!O24)*90,""),"")</f>
+        <v>4.5338737695425593</v>
+      </c>
+      <c r="P24" s="22">
+        <f>IF('mins network'!P24&gt;270,IFERROR(('pass network'!P24/'mins network'!P24)*90,""),"")</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q24" s="22">
+        <f>IF('mins network'!Q24&gt;270,IFERROR(('pass network'!Q24/'mins network'!Q24)*90,""),"")</f>
+        <v>5.8695652173913038</v>
+      </c>
+      <c r="R24" s="20">
+        <f>IF('mins network'!R24&gt;270,IFERROR(('pass network'!R24/'mins network'!R24)*90,""),"")</f>
+        <v>3.5675675675675675</v>
+      </c>
+      <c r="S24" s="19">
+        <f>IF('mins network'!S24&gt;270,IFERROR(('pass network'!S24/'mins network'!S24)*90,""),"")</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="T24" s="22">
+        <f>IF('mins network'!T24&gt;270,IFERROR(('pass network'!T24/'mins network'!T24)*90,""),"")</f>
+        <v>1.596774193548387</v>
+      </c>
+      <c r="U24" s="22">
+        <f>IF('mins network'!U24&gt;270,IFERROR(('pass network'!U24/'mins network'!U24)*90,""),"")</f>
+        <v>2.4244897959183676</v>
+      </c>
+      <c r="V24" s="22">
+        <f>IF('mins network'!V24&gt;270,IFERROR(('pass network'!V24/'mins network'!V24)*90,""),"")</f>
+        <v>3.9581151832460733</v>
+      </c>
+      <c r="W24" s="22" t="str">
+        <f>IF('mins network'!W24&gt;270,IFERROR(('pass network'!W24/'mins network'!W24)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="X24" s="20" t="str">
+        <f>IF('mins network'!X24&gt;270,IFERROR(('pass network'!X24/'mins network'!X24)*90,""),"")</f>
+        <v/>
+      </c>
+      <c r="Y24" s="14">
+        <v>0.77729885057471304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.84821428571428603</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <v>0.82696629213483097</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.84626865671641804</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
+        <v>0.86410256410256403</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
+        <v>0.69651741293532299</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0.77937336814621405</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14">
+        <v>0.74949899799599196</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.82597173144876301</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0.65573770491803296</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0.82224645583424205</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0.75384615384615405</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0.69784172661870503</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0.74715261958997703</v>
+      </c>
+      <c r="V25" s="14">
+        <v>0.58419243986254299</v>
+      </c>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14">
+        <v>0.77729885057471304</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:X24">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:X24">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D24">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F24">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G24">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J24">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I24">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L24">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N24">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O24">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V3:V24">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11335,7 +14051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X22">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11344,6 +14060,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C25:X25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>